--- a/doc/avancement Cliiink.xlsx
+++ b/doc/avancement Cliiink.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Desktop\cliiink\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B4DBD1-0950-4933-A252-FB0EC5C5565E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9651310D-38E8-460F-95A5-656AD4DBDA89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tâches" sheetId="2" r:id="rId1"/>
@@ -3997,7 +3997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53404295-2D02-454B-A260-080633A909F0}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -6680,8 +6680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54278537-4330-487B-8B1E-186EA2F14073}">
   <dimension ref="A1:XFD121"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7154,7 +7154,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
+      <c r="K11" s="43"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
@@ -11250,8 +11250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11492,15 +11492,17 @@
         <f>TachesPrincipales[[#This Row],[Travail (en jours-hommes)]]</f>
         <v>1</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="53">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
+        <f>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</f>
         <v>0</v>
-      </c>
-      <c r="G10" s="14" t="str">
-        <f>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</f>
-        <v/>
       </c>
       <c r="H10" s="1"/>
     </row>

--- a/doc/avancement Cliiink.xlsx
+++ b/doc/avancement Cliiink.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Desktop\cliiink\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9651310D-38E8-460F-95A5-656AD4DBDA89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D66B8BE-9963-446D-B322-90595770A4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tâches" sheetId="2" r:id="rId1"/>
@@ -1090,7 +1090,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1161,6 +1161,12 @@
       <patternFill patternType="lightDown">
         <fgColor theme="4"/>
         <bgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1496,7 +1502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1561,6 +1567,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1597,6 +1604,83 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="127">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3403,83 +3487,6 @@
       <numFmt numFmtId="21" formatCode="dd\-mmm"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3593,140 +3600,140 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E08C3540-563F-4309-961F-3A2D48BF908C}" name="PlanningPrincipal" displayName="PlanningPrincipal" ref="A4:AD51" headerRowDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E08C3540-563F-4309-961F-3A2D48BF908C}" name="PlanningPrincipal" displayName="PlanningPrincipal" ref="A4:AD51" headerRowDxfId="117">
   <autoFilter ref="A4:AD51" xr:uid="{3869585A-DD74-4715-8B08-BD2783F0B46B}"/>
   <tableColumns count="30">
-    <tableColumn id="31" xr3:uid="{02974BA7-1E46-4150-A100-3503892E7F24}" name="N°" dataDxfId="105" totalsRowDxfId="104">
+    <tableColumn id="31" xr3:uid="{02974BA7-1E46-4150-A100-3503892E7F24}" name="N°" dataDxfId="116" totalsRowDxfId="115">
       <calculatedColumnFormula>Tâches!A4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{B537D5E3-048F-47B6-A4D3-4925E570D546}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{9B7DC595-B3F0-4BA6-A2B3-7B3F96E6422C}" name="Tâche" dataDxfId="103" totalsRowDxfId="102">
+    <tableColumn id="2" xr3:uid="{9B7DC595-B3F0-4BA6-A2B3-7B3F96E6422C}" name="Tâche" dataDxfId="114" totalsRowDxfId="113">
       <calculatedColumnFormula>Tâches!B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7CF5EF96-F7EA-4081-A9F6-C6030E29374A}" name="05-oct" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="4" xr3:uid="{AED08872-92A3-48EC-9686-65D32A38B01C}" name="06-oct" dataDxfId="99" totalsRowDxfId="98"/>
-    <tableColumn id="5" xr3:uid="{A361D231-81F6-4E0E-9D68-F198542EC510}" name="07-oct" dataDxfId="97" totalsRowDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{95C7985A-0503-4B82-A39B-7087B64C463E}" name="08-oct" dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="7" xr3:uid="{223BBA38-BBF5-4596-9520-B3C80EF77B2C}" name="09-oct" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="8" xr3:uid="{CBA2CED5-BFCD-478D-BC0B-64F7236665B8}" name="10-oct" dataDxfId="91" totalsRowDxfId="90"/>
-    <tableColumn id="9" xr3:uid="{9142E539-6B94-44F9-AE32-D9D0257404D4}" name="11-oct" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="10" xr3:uid="{3DF50CC7-E072-416C-9E4D-77F99E3AFEE4}" name="12-oct" dataDxfId="87" totalsRowDxfId="86"/>
-    <tableColumn id="11" xr3:uid="{1BA6AA9C-31C1-4DF3-AB9B-EE58F953EA7B}" name="13-oct" dataDxfId="85" totalsRowDxfId="84"/>
-    <tableColumn id="12" xr3:uid="{E3903BB0-7B8A-45F4-8E32-0DEC3020D2C7}" name="14-oct" dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="13" xr3:uid="{902C3056-E350-4CB3-8791-82ADD700A68A}" name="15-oct" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="14" xr3:uid="{54609321-2FA1-4A62-830E-30F3A492893D}" name="16-oct" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="15" xr3:uid="{3F1B4408-EFA2-430D-89AE-07B73C0F975A}" name="17-oct" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="16" xr3:uid="{6DC91AA7-F87C-4075-9A2A-AF1EB7BCC95B}" name="18-oct" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="17" xr3:uid="{0AA6E344-3437-43D3-992F-24D8117454B9}" name="19-oct" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="18" xr3:uid="{96D8D6A9-008E-484B-B7B4-28ABA94491F0}" name="20-oct" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="19" xr3:uid="{C6993608-949D-47F9-B239-5455810AAC64}" name="21-oct" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="20" xr3:uid="{D1F65972-7A93-4F3D-9DD9-0066440F9CD3}" name="22-oct" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="21" xr3:uid="{2491BABE-5995-4D9B-9106-2E6B37978835}" name="23-oct" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="22" xr3:uid="{AFD0F5C6-D453-44A7-A7A2-E80250827459}" name="24-oct" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="23" xr3:uid="{05DEBB6A-759F-4C9F-AF39-B31DA26929B5}" name="25-oct" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="24" xr3:uid="{0F14F7F0-8C7B-47D9-A425-10B6AB326102}" name="26-oct" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="25" xr3:uid="{F63019F4-1021-4A1C-AD12-1FA5B5EAC831}" name="27-oct" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="26" xr3:uid="{A0FA9325-6D8A-4E3F-841E-0A51A69AA21F}" name="28-oct" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="27" xr3:uid="{01390279-2B86-4CDA-AACC-12D48EE68027}" name="29-oct" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="28" xr3:uid="{9E31ED4A-02CE-4F4A-8A83-5681191E9E9E}" name="30-oct" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="29" xr3:uid="{885B064E-7B13-4C56-B53C-04028C7E7B19}" name="31-oct" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{7CF5EF96-F7EA-4081-A9F6-C6030E29374A}" name="05-oct" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="4" xr3:uid="{AED08872-92A3-48EC-9686-65D32A38B01C}" name="06-oct" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="5" xr3:uid="{A361D231-81F6-4E0E-9D68-F198542EC510}" name="07-oct" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="6" xr3:uid="{95C7985A-0503-4B82-A39B-7087B64C463E}" name="08-oct" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="7" xr3:uid="{223BBA38-BBF5-4596-9520-B3C80EF77B2C}" name="09-oct" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="8" xr3:uid="{CBA2CED5-BFCD-478D-BC0B-64F7236665B8}" name="10-oct" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="9" xr3:uid="{9142E539-6B94-44F9-AE32-D9D0257404D4}" name="11-oct" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="10" xr3:uid="{3DF50CC7-E072-416C-9E4D-77F99E3AFEE4}" name="12-oct" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="11" xr3:uid="{1BA6AA9C-31C1-4DF3-AB9B-EE58F953EA7B}" name="13-oct" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="12" xr3:uid="{E3903BB0-7B8A-45F4-8E32-0DEC3020D2C7}" name="14-oct" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="13" xr3:uid="{902C3056-E350-4CB3-8791-82ADD700A68A}" name="15-oct" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="14" xr3:uid="{54609321-2FA1-4A62-830E-30F3A492893D}" name="16-oct" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="15" xr3:uid="{3F1B4408-EFA2-430D-89AE-07B73C0F975A}" name="17-oct" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="16" xr3:uid="{6DC91AA7-F87C-4075-9A2A-AF1EB7BCC95B}" name="18-oct" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="17" xr3:uid="{0AA6E344-3437-43D3-992F-24D8117454B9}" name="19-oct" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="18" xr3:uid="{96D8D6A9-008E-484B-B7B4-28ABA94491F0}" name="20-oct" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="19" xr3:uid="{C6993608-949D-47F9-B239-5455810AAC64}" name="21-oct" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="20" xr3:uid="{D1F65972-7A93-4F3D-9DD9-0066440F9CD3}" name="22-oct" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="21" xr3:uid="{2491BABE-5995-4D9B-9106-2E6B37978835}" name="23-oct" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="22" xr3:uid="{AFD0F5C6-D453-44A7-A7A2-E80250827459}" name="24-oct" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="23" xr3:uid="{05DEBB6A-759F-4C9F-AF39-B31DA26929B5}" name="25-oct" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="24" xr3:uid="{0F14F7F0-8C7B-47D9-A425-10B6AB326102}" name="26-oct" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="25" xr3:uid="{F63019F4-1021-4A1C-AD12-1FA5B5EAC831}" name="27-oct" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="26" xr3:uid="{A0FA9325-6D8A-4E3F-841E-0A51A69AA21F}" name="28-oct" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="27" xr3:uid="{01390279-2B86-4CDA-AACC-12D48EE68027}" name="29-oct" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="28" xr3:uid="{9E31ED4A-02CE-4F4A-8A83-5681191E9E9E}" name="30-oct" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="29" xr3:uid="{885B064E-7B13-4C56-B53C-04028C7E7B19}" name="31-oct" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{949F634D-FB76-42BC-8AD2-845CBF052EB4}" name="PlanningBonus" displayName="PlanningBonus" ref="A54:AD110" totalsRowShown="0" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{949F634D-FB76-42BC-8AD2-845CBF052EB4}" name="PlanningBonus" displayName="PlanningBonus" ref="A54:AD110" totalsRowShown="0" headerRowDxfId="58">
   <autoFilter ref="A54:AD110" xr:uid="{C72AC31B-BC16-4ED0-A742-6FDD0EBB8631}"/>
   <tableColumns count="30">
-    <tableColumn id="30" xr3:uid="{A9929115-DAFC-40AE-A75F-89D94A3A6E3E}" name="N°" dataDxfId="46">
+    <tableColumn id="30" xr3:uid="{A9929115-DAFC-40AE-A75F-89D94A3A6E3E}" name="N°" dataDxfId="57">
       <calculatedColumnFormula>Tâches!A53</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{D9389245-51FF-4B4C-8D41-B0C82DF9FA75}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{725C423E-FCC3-4D2B-A7B1-04718A631379}" name="Tâche" dataDxfId="45">
+    <tableColumn id="2" xr3:uid="{725C423E-FCC3-4D2B-A7B1-04718A631379}" name="Tâche" dataDxfId="56">
       <calculatedColumnFormula>Tâches!B53</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3E9DBF51-63AA-41C7-8026-17B53B0A9B6C}" name="05-oct" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{82D5CCDD-F94F-4AD0-87E3-71A24CD87405}" name="06-oct" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{BE2F3F2A-9776-4093-805A-312DDC6F80FE}" name="07-oct" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{C1BB4810-F8A8-4B1C-BEFF-BCD91A7CBE63}" name="08-oct" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{81533870-EEB5-4296-AE2B-E1E0C4B449EA}" name="09-oct" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{5614AF65-2E97-4A81-93F3-4BF71D68BA64}" name="10-oct" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{68ABF0CA-AF48-4143-8348-D852DD541BEA}" name="11-oct" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{D00B30BB-B608-47A8-A909-B3CCE0CD31F7}" name="12-oct" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{E0989A06-4A1E-4309-B9D8-FFF15CEF945C}" name="13-oct" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{1779F27B-A65D-4938-A036-4979FC026FF9}" name="14-oct" dataDxfId="35"/>
-    <tableColumn id="13" xr3:uid="{22F38C55-7716-4548-902D-BF65239896B9}" name="15-oct" dataDxfId="34"/>
-    <tableColumn id="14" xr3:uid="{0379C43C-369A-4D33-98C8-09F6AB1138A5}" name="16-oct" dataDxfId="33"/>
-    <tableColumn id="15" xr3:uid="{95071E30-9EB4-4F6F-863F-5DDBD2FC2727}" name="17-oct" dataDxfId="32"/>
-    <tableColumn id="16" xr3:uid="{57019D85-E364-4C2A-8EDF-EECF1621D7F4}" name="18-oct" dataDxfId="31"/>
-    <tableColumn id="17" xr3:uid="{E1AB2C2B-7642-4E82-9C5D-D1EBE0244AAA}" name="19-oct" dataDxfId="30"/>
-    <tableColumn id="18" xr3:uid="{109FE92E-C236-400D-8A95-114BD055E9DA}" name="20-oct" dataDxfId="29"/>
-    <tableColumn id="19" xr3:uid="{F53D6821-A790-4CAC-82E2-E3B0BA8021AD}" name="21-oct" dataDxfId="28"/>
-    <tableColumn id="20" xr3:uid="{E29FFFEE-7FB8-414D-BCCD-0CBC972A8026}" name="22-oct" dataDxfId="27"/>
-    <tableColumn id="21" xr3:uid="{143958D3-765B-428D-A750-762564AFF52B}" name="23-oct" dataDxfId="26"/>
-    <tableColumn id="22" xr3:uid="{F6E67B4D-280E-47A5-AF79-5FF172D2E5C7}" name="24-oct" dataDxfId="25"/>
-    <tableColumn id="23" xr3:uid="{A16D3DC4-7696-40A7-8B9F-1454BEC9DBC2}" name="25-oct" dataDxfId="24"/>
-    <tableColumn id="24" xr3:uid="{218180A7-E150-4120-8AE9-6723F56E1D9B}" name="26-oct" dataDxfId="23"/>
-    <tableColumn id="25" xr3:uid="{AFF74DA3-B552-40C8-A8FE-1E5490C0DC0B}" name="27-oct" dataDxfId="22"/>
-    <tableColumn id="26" xr3:uid="{38E7E763-F0C2-4BFE-A84B-1E26140C2250}" name="28-oct" dataDxfId="21"/>
-    <tableColumn id="27" xr3:uid="{988E4DC2-CA0F-4098-B08C-759F208CFD2A}" name="29-oct" dataDxfId="20"/>
-    <tableColumn id="28" xr3:uid="{539EA04B-D1E5-47FC-9E69-E37BB7704D5C}" name="30-oct" dataDxfId="19"/>
-    <tableColumn id="29" xr3:uid="{21E9E5C4-8D23-454B-8A91-1CF8DA5078B0}" name="31-oct" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{3E9DBF51-63AA-41C7-8026-17B53B0A9B6C}" name="05-oct" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{82D5CCDD-F94F-4AD0-87E3-71A24CD87405}" name="06-oct" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{BE2F3F2A-9776-4093-805A-312DDC6F80FE}" name="07-oct" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{C1BB4810-F8A8-4B1C-BEFF-BCD91A7CBE63}" name="08-oct" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{81533870-EEB5-4296-AE2B-E1E0C4B449EA}" name="09-oct" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{5614AF65-2E97-4A81-93F3-4BF71D68BA64}" name="10-oct" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{68ABF0CA-AF48-4143-8348-D852DD541BEA}" name="11-oct" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{D00B30BB-B608-47A8-A909-B3CCE0CD31F7}" name="12-oct" dataDxfId="48"/>
+    <tableColumn id="11" xr3:uid="{E0989A06-4A1E-4309-B9D8-FFF15CEF945C}" name="13-oct" dataDxfId="47"/>
+    <tableColumn id="12" xr3:uid="{1779F27B-A65D-4938-A036-4979FC026FF9}" name="14-oct" dataDxfId="46"/>
+    <tableColumn id="13" xr3:uid="{22F38C55-7716-4548-902D-BF65239896B9}" name="15-oct" dataDxfId="45"/>
+    <tableColumn id="14" xr3:uid="{0379C43C-369A-4D33-98C8-09F6AB1138A5}" name="16-oct" dataDxfId="44"/>
+    <tableColumn id="15" xr3:uid="{95071E30-9EB4-4F6F-863F-5DDBD2FC2727}" name="17-oct" dataDxfId="43"/>
+    <tableColumn id="16" xr3:uid="{57019D85-E364-4C2A-8EDF-EECF1621D7F4}" name="18-oct" dataDxfId="42"/>
+    <tableColumn id="17" xr3:uid="{E1AB2C2B-7642-4E82-9C5D-D1EBE0244AAA}" name="19-oct" dataDxfId="41"/>
+    <tableColumn id="18" xr3:uid="{109FE92E-C236-400D-8A95-114BD055E9DA}" name="20-oct" dataDxfId="40"/>
+    <tableColumn id="19" xr3:uid="{F53D6821-A790-4CAC-82E2-E3B0BA8021AD}" name="21-oct" dataDxfId="39"/>
+    <tableColumn id="20" xr3:uid="{E29FFFEE-7FB8-414D-BCCD-0CBC972A8026}" name="22-oct" dataDxfId="38"/>
+    <tableColumn id="21" xr3:uid="{143958D3-765B-428D-A750-762564AFF52B}" name="23-oct" dataDxfId="37"/>
+    <tableColumn id="22" xr3:uid="{F6E67B4D-280E-47A5-AF79-5FF172D2E5C7}" name="24-oct" dataDxfId="36"/>
+    <tableColumn id="23" xr3:uid="{A16D3DC4-7696-40A7-8B9F-1454BEC9DBC2}" name="25-oct" dataDxfId="35"/>
+    <tableColumn id="24" xr3:uid="{218180A7-E150-4120-8AE9-6723F56E1D9B}" name="26-oct" dataDxfId="34"/>
+    <tableColumn id="25" xr3:uid="{AFF74DA3-B552-40C8-A8FE-1E5490C0DC0B}" name="27-oct" dataDxfId="33"/>
+    <tableColumn id="26" xr3:uid="{38E7E763-F0C2-4BFE-A84B-1E26140C2250}" name="28-oct" dataDxfId="32"/>
+    <tableColumn id="27" xr3:uid="{988E4DC2-CA0F-4098-B08C-759F208CFD2A}" name="29-oct" dataDxfId="31"/>
+    <tableColumn id="28" xr3:uid="{539EA04B-D1E5-47FC-9E69-E37BB7704D5C}" name="30-oct" dataDxfId="30"/>
+    <tableColumn id="29" xr3:uid="{21E9E5C4-8D23-454B-8A91-1CF8DA5078B0}" name="31-oct" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DEB2AD8-CEC3-48AA-9CF7-ED08DF8D0180}" name="AvancementPrincipal" displayName="AvancementPrincipal" ref="A3:H50" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DEB2AD8-CEC3-48AA-9CF7-ED08DF8D0180}" name="AvancementPrincipal" displayName="AvancementPrincipal" ref="A3:H50" totalsRowShown="0" headerRowDxfId="28">
   <autoFilter ref="A3:H50" xr:uid="{6BCE8A7D-7D04-4394-AD53-9D2B48AA6CFD}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B07E0580-F8B1-4A81-8EA6-8D0DD94E6CBF}" name="N°" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{B07E0580-F8B1-4A81-8EA6-8D0DD94E6CBF}" name="N°" dataDxfId="27">
       <calculatedColumnFormula>TachesPrincipales[[#This Row],[N°]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CD2C34A8-4A66-4D31-8674-72875FEEBCB9}" name="Tâche" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{CD2C34A8-4A66-4D31-8674-72875FEEBCB9}" name="Tâche" dataDxfId="26">
       <calculatedColumnFormula>TachesPrincipales[[#This Row],[Tâche]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1F692755-0EBF-47B3-98F7-5870DAAA2B47}" name="Durée estimée (jours-hommes)" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{1F692755-0EBF-47B3-98F7-5870DAAA2B47}" name="Durée estimée (jours-hommes)" dataDxfId="25">
       <calculatedColumnFormula>TachesPrincipales[[#This Row],[Travail (en jours-hommes)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77A08BA6-0C47-4CA1-898D-34688079E99A}" name="Temps consacré (jours-hommes)" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{E6DFF25A-5C0F-4D2B-AD4B-356CCC3C697D}" name="Temps restant (jours-hommes)" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{80B25DCD-7C24-4853-87D7-112B68A75ACA}" name="Complétion" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{77A08BA6-0C47-4CA1-898D-34688079E99A}" name="Temps consacré (jours-hommes)" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{E6DFF25A-5C0F-4D2B-AD4B-356CCC3C697D}" name="Temps restant (jours-hommes)" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{80B25DCD-7C24-4853-87D7-112B68A75ACA}" name="Complétion" dataDxfId="22">
       <calculatedColumnFormula>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E98F81A4-15B7-43AA-8EE6-E47F2F7BDDBA}" name="Avance / Retard (jours-hommes)" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{E98F81A4-15B7-43AA-8EE6-E47F2F7BDDBA}" name="Avance / Retard (jours-hommes)" dataDxfId="21">
       <calculatedColumnFormula>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{19DBC3BA-BFF6-4123-B35C-1B58A7832A4B}" name="Commentaire" dataDxfId="9" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{19DBC3BA-BFF6-4123-B35C-1B58A7832A4B}" name="Commentaire" dataDxfId="20" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{04BF9D35-9277-48A6-B974-1A1D7A80EEAE}" name="AvancementPrincipal8" displayName="AvancementPrincipal8" ref="A52:H108" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{04BF9D35-9277-48A6-B974-1A1D7A80EEAE}" name="AvancementPrincipal8" displayName="AvancementPrincipal8" ref="A52:H108" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="A52:H108" xr:uid="{43FC80CF-67C7-44CB-8AF9-C483360ED027}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{50AEF074-CE1B-4E86-81E2-68DBB744C39B}" name="N°" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{50AEF074-CE1B-4E86-81E2-68DBB744C39B}" name="N°" dataDxfId="18">
       <calculatedColumnFormula>TachesBonus[[#This Row],[N°]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{23C870F0-9110-4D2F-8665-88DA3D2D1265}" name="Tâche" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{23C870F0-9110-4D2F-8665-88DA3D2D1265}" name="Tâche" dataDxfId="17">
       <calculatedColumnFormula>TachesBonus[[#This Row],[Tâche]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{69BB17CC-DE87-420A-BBFA-062BF2BEF7AA}" name="Durée estimée (jours-hommes)" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{69BB17CC-DE87-420A-BBFA-062BF2BEF7AA}" name="Durée estimée (jours-hommes)" dataDxfId="16">
       <calculatedColumnFormula>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A14AEF2F-CFF6-4D95-9EB5-0A11BA283D4F}" name="Temps consacré (jours-hommes)" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{25E0D910-E053-4859-9A05-DA9FEEB0AC2A}" name="Temps restant (jours-hommes)" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{5E4CFA2C-63BF-45F7-9435-50DEBD5B0D2E}" name="Complétion" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{A14AEF2F-CFF6-4D95-9EB5-0A11BA283D4F}" name="Temps consacré (jours-hommes)" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{25E0D910-E053-4859-9A05-DA9FEEB0AC2A}" name="Temps restant (jours-hommes)" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{5E4CFA2C-63BF-45F7-9435-50DEBD5B0D2E}" name="Complétion" dataDxfId="13">
       <calculatedColumnFormula>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B0B94A9D-C385-47C1-9326-CF1085FB5FB7}" name="Avance / Retard (jours-hommes)" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{B0B94A9D-C385-47C1-9326-CF1085FB5FB7}" name="Avance / Retard (jours-hommes)" dataDxfId="12">
       <calculatedColumnFormula>IF(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal8[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3B743E05-8FA8-4C6C-91C3-7DC6C79CF839}" name="Commentaire" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{3B743E05-8FA8-4C6C-91C3-7DC6C79CF839}" name="Commentaire" dataDxfId="11" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3998,7 +4005,7 @@
   <dimension ref="A1:G162"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4013,26 +4020,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5170,15 +5177,15 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -6680,8 +6687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54278537-4330-487B-8B1E-186EA2F14073}">
   <dimension ref="A1:XFD121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6693,114 +6700,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30 16384:16384" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
     </row>
     <row r="2" spans="1:30 16384:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
     </row>
     <row r="3" spans="1:30 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="59" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="61" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="61" t="s">
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="62" t="s">
         <v>308</v>
       </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="61" t="s">
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="62" t="s">
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="64"/>
     </row>
     <row r="4" spans="1:30 16384:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -7354,7 +7361,7 @@
       <c r="H16" s="21"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
@@ -7394,7 +7401,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
+      <c r="K17" s="43"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
@@ -7435,7 +7442,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
+      <c r="L18" s="43"/>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
@@ -8776,80 +8783,80 @@
       <c r="AD51" s="35"/>
     </row>
     <row r="52" spans="1:30" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="60"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="60"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="60"/>
-      <c r="T52" s="60"/>
-      <c r="U52" s="60"/>
-      <c r="V52" s="60"/>
-      <c r="W52" s="60"/>
-      <c r="X52" s="60"/>
-      <c r="Y52" s="60"/>
-      <c r="Z52" s="60"/>
-      <c r="AA52" s="60"/>
-      <c r="AB52" s="60"/>
-      <c r="AC52" s="60"/>
-      <c r="AD52" s="60"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="61"/>
+      <c r="S52" s="61"/>
+      <c r="T52" s="61"/>
+      <c r="U52" s="61"/>
+      <c r="V52" s="61"/>
+      <c r="W52" s="61"/>
+      <c r="X52" s="61"/>
+      <c r="Y52" s="61"/>
+      <c r="Z52" s="61"/>
+      <c r="AA52" s="61"/>
+      <c r="AB52" s="61"/>
+      <c r="AC52" s="61"/>
+      <c r="AD52" s="61"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="59" t="s">
         <v>317</v>
       </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="61" t="s">
+      <c r="B53" s="59"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="61" t="s">
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="62" t="s">
         <v>308</v>
       </c>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="63"/>
-      <c r="R53" s="61" t="s">
+      <c r="L53" s="63"/>
+      <c r="M53" s="63"/>
+      <c r="N53" s="63"/>
+      <c r="O53" s="63"/>
+      <c r="P53" s="63"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="S53" s="62"/>
-      <c r="T53" s="62"/>
-      <c r="U53" s="62"/>
-      <c r="V53" s="62"/>
-      <c r="W53" s="62"/>
-      <c r="X53" s="63"/>
-      <c r="Y53" s="62" t="s">
+      <c r="S53" s="63"/>
+      <c r="T53" s="63"/>
+      <c r="U53" s="63"/>
+      <c r="V53" s="63"/>
+      <c r="W53" s="63"/>
+      <c r="X53" s="64"/>
+      <c r="Y53" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="Z53" s="62"/>
-      <c r="AA53" s="62"/>
-      <c r="AB53" s="62"/>
-      <c r="AC53" s="62"/>
-      <c r="AD53" s="63"/>
+      <c r="Z53" s="63"/>
+      <c r="AA53" s="63"/>
+      <c r="AB53" s="63"/>
+      <c r="AC53" s="63"/>
+      <c r="AD53" s="64"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
@@ -11203,37 +11210,37 @@
     <mergeCell ref="Y3:AD3"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B51 B55:B110">
-    <cfRule type="cellIs" dxfId="117" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Programmation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Recherche"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Débogage"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Technique"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Web"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"Gestion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"Rédaction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>"Base de données"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>"Modélisation"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11250,8 +11257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11268,28 +11275,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
@@ -11627,15 +11634,17 @@
         <f>TachesPrincipales[[#This Row],[Travail (en jours-hommes)]]</f>
         <v>1</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="53">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="14">
+        <f>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</f>
         <v>0</v>
-      </c>
-      <c r="G15" s="14" t="str">
-        <f>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</f>
-        <v/>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -11652,15 +11661,17 @@
         <f>TachesPrincipales[[#This Row],[Travail (en jours-hommes)]]</f>
         <v>1</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="53">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="14">
+        <f>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</f>
         <v>0</v>
-      </c>
-      <c r="G16" s="14" t="str">
-        <f>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</f>
-        <v/>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -12519,16 +12530,16 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
     </row>
     <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">

--- a/doc/avancement Cliiink.xlsx
+++ b/doc/avancement Cliiink.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Desktop\cliiink\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D66B8BE-9963-446D-B322-90595770A4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7507AE8-40DF-40E3-BF47-5514F6D147B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tâches" sheetId="2" r:id="rId1"/>
@@ -4004,8 +4004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53404295-2D02-454B-A260-080633A909F0}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6687,8 +6687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54278537-4330-487B-8B1E-186EA2F14073}">
   <dimension ref="A1:XFD121"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7361,8 +7361,8 @@
       <c r="H16" s="21"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
@@ -7402,7 +7402,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="43"/>
-      <c r="L17" s="21"/>
+      <c r="L17" s="43"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
@@ -7442,8 +7442,8 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
       <c r="P18" s="20"/>
@@ -7483,7 +7483,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="P19" s="20"/>
@@ -11257,7 +11257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>

--- a/doc/avancement Cliiink.xlsx
+++ b/doc/avancement Cliiink.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Desktop\cliiink\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7507AE8-40DF-40E3-BF47-5514F6D147B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BEDC90-A089-45BD-B96B-53ED6A55B9BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tâches" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="329">
   <si>
     <t>N°</t>
   </si>
@@ -1008,6 +1008,12 @@
   </si>
   <si>
     <t>Avance / Retard (jours-hommes)</t>
+  </si>
+  <si>
+    <t>Gérer les UUID</t>
+  </si>
+  <si>
+    <t>Gérer et enregistrer les UUID comme clés primaires (en format compact) et modifier les requêtes en conséquence</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1598,12 +1604,97 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="127">
+  <dxfs count="138">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3567,12 +3658,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{796DFFDF-5600-4057-A29E-6EE432E54146}" name="TachesPrincipales" displayName="TachesPrincipales" ref="A3:G50" totalsRowShown="0">
   <autoFilter ref="A3:G50" xr:uid="{B67725D0-F42F-4B2C-B47E-8586BF5DC6C0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6E8FD53C-BEFD-4457-9FA3-9A8A100CC664}" name="N°" dataDxfId="126">
+    <tableColumn id="1" xr3:uid="{6E8FD53C-BEFD-4457-9FA3-9A8A100CC664}" name="N°" dataDxfId="137">
       <calculatedColumnFormula>ROW()-3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{0069C765-7645-4FD3-9F29-24B7F0C7634C}" name="Tâche"/>
-    <tableColumn id="3" xr3:uid="{A25A25B7-8C3E-419A-9CE3-9FE932DABE3D}" name="Travail (en jours-hommes)" dataDxfId="125"/>
-    <tableColumn id="4" xr3:uid="{A944CAD8-E89F-426E-8FB6-A3FB74D322BE}" name="Tâches requises" dataDxfId="124"/>
+    <tableColumn id="3" xr3:uid="{A25A25B7-8C3E-419A-9CE3-9FE932DABE3D}" name="Travail (en jours-hommes)" dataDxfId="136"/>
+    <tableColumn id="4" xr3:uid="{A944CAD8-E89F-426E-8FB6-A3FB74D322BE}" name="Tâches requises" dataDxfId="135"/>
     <tableColumn id="5" xr3:uid="{A3676B2D-BC63-48C5-A4B6-B4EB56D87918}" name="Objectifs"/>
     <tableColumn id="6" xr3:uid="{01DF4278-05CC-4D78-B336-D2F095AF927E}" name="Critères d’achèvement"/>
     <tableColumn id="7" xr3:uid="{99493734-498F-43D2-92ED-EAA3DB0F4B00}" name="Livrables"/>
@@ -3582,15 +3673,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9F70FDBF-93E5-4529-8B86-C46B44C9F1C9}" name="TachesBonus" displayName="TachesBonus" ref="A52:G108" totalsRowShown="0" headerRowDxfId="123" headerRowBorderDxfId="122" tableBorderDxfId="121">
-  <autoFilter ref="A52:G108" xr:uid="{6375B6D4-F047-429E-A127-A4478080FC25}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9F70FDBF-93E5-4529-8B86-C46B44C9F1C9}" name="TachesBonus" displayName="TachesBonus" ref="A52:G109" totalsRowShown="0" headerRowDxfId="134" headerRowBorderDxfId="133" tableBorderDxfId="132">
+  <autoFilter ref="A52:G109" xr:uid="{6375B6D4-F047-429E-A127-A4478080FC25}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6333C598-AB08-4105-92D3-D88D2B08DCCB}" name="N°" dataDxfId="120">
+    <tableColumn id="1" xr3:uid="{6333C598-AB08-4105-92D3-D88D2B08DCCB}" name="N°" dataDxfId="131">
       <calculatedColumnFormula>ROW()-5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{53B86B66-0396-4D8B-B984-B80A4F587612}" name="Tâche"/>
-    <tableColumn id="3" xr3:uid="{D23D171C-1F80-4C5B-B986-46C3CCC8AE38}" name="Travail (en jours-hommes)" dataDxfId="119"/>
-    <tableColumn id="4" xr3:uid="{E0E75BF9-64EA-4FE8-90E4-1AAA1CED01EF}" name="Tâches requises" dataDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{D23D171C-1F80-4C5B-B986-46C3CCC8AE38}" name="Travail (en jours-hommes)" dataDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{E0E75BF9-64EA-4FE8-90E4-1AAA1CED01EF}" name="Tâches requises" dataDxfId="129"/>
     <tableColumn id="5" xr3:uid="{78EA56D9-206B-4896-BDD8-ECE5895F3943}" name="Objectifs"/>
     <tableColumn id="6" xr3:uid="{537B5B27-0138-4B69-AACD-BA754420310A}" name="Critères d’achèvement"/>
     <tableColumn id="7" xr3:uid="{F5B2842E-F201-4E20-BBB3-296B792E130C}" name="Livrables"/>
@@ -3600,140 +3691,140 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E08C3540-563F-4309-961F-3A2D48BF908C}" name="PlanningPrincipal" displayName="PlanningPrincipal" ref="A4:AD51" headerRowDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E08C3540-563F-4309-961F-3A2D48BF908C}" name="PlanningPrincipal" displayName="PlanningPrincipal" ref="A4:AD51" headerRowDxfId="128">
   <autoFilter ref="A4:AD51" xr:uid="{3869585A-DD74-4715-8B08-BD2783F0B46B}"/>
   <tableColumns count="30">
-    <tableColumn id="31" xr3:uid="{02974BA7-1E46-4150-A100-3503892E7F24}" name="N°" dataDxfId="116" totalsRowDxfId="115">
+    <tableColumn id="31" xr3:uid="{02974BA7-1E46-4150-A100-3503892E7F24}" name="N°" dataDxfId="127" totalsRowDxfId="126">
       <calculatedColumnFormula>Tâches!A4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{B537D5E3-048F-47B6-A4D3-4925E570D546}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{9B7DC595-B3F0-4BA6-A2B3-7B3F96E6422C}" name="Tâche" dataDxfId="114" totalsRowDxfId="113">
+    <tableColumn id="2" xr3:uid="{9B7DC595-B3F0-4BA6-A2B3-7B3F96E6422C}" name="Tâche" dataDxfId="125" totalsRowDxfId="124">
       <calculatedColumnFormula>Tâches!B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7CF5EF96-F7EA-4081-A9F6-C6030E29374A}" name="05-oct" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{AED08872-92A3-48EC-9686-65D32A38B01C}" name="06-oct" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="5" xr3:uid="{A361D231-81F6-4E0E-9D68-F198542EC510}" name="07-oct" dataDxfId="108" totalsRowDxfId="107"/>
-    <tableColumn id="6" xr3:uid="{95C7985A-0503-4B82-A39B-7087B64C463E}" name="08-oct" dataDxfId="106" totalsRowDxfId="105"/>
-    <tableColumn id="7" xr3:uid="{223BBA38-BBF5-4596-9520-B3C80EF77B2C}" name="09-oct" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="8" xr3:uid="{CBA2CED5-BFCD-478D-BC0B-64F7236665B8}" name="10-oct" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="9" xr3:uid="{9142E539-6B94-44F9-AE32-D9D0257404D4}" name="11-oct" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="10" xr3:uid="{3DF50CC7-E072-416C-9E4D-77F99E3AFEE4}" name="12-oct" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="11" xr3:uid="{1BA6AA9C-31C1-4DF3-AB9B-EE58F953EA7B}" name="13-oct" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="12" xr3:uid="{E3903BB0-7B8A-45F4-8E32-0DEC3020D2C7}" name="14-oct" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="13" xr3:uid="{902C3056-E350-4CB3-8791-82ADD700A68A}" name="15-oct" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="14" xr3:uid="{54609321-2FA1-4A62-830E-30F3A492893D}" name="16-oct" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="15" xr3:uid="{3F1B4408-EFA2-430D-89AE-07B73C0F975A}" name="17-oct" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="16" xr3:uid="{6DC91AA7-F87C-4075-9A2A-AF1EB7BCC95B}" name="18-oct" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="17" xr3:uid="{0AA6E344-3437-43D3-992F-24D8117454B9}" name="19-oct" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="18" xr3:uid="{96D8D6A9-008E-484B-B7B4-28ABA94491F0}" name="20-oct" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="19" xr3:uid="{C6993608-949D-47F9-B239-5455810AAC64}" name="21-oct" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="20" xr3:uid="{D1F65972-7A93-4F3D-9DD9-0066440F9CD3}" name="22-oct" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="21" xr3:uid="{2491BABE-5995-4D9B-9106-2E6B37978835}" name="23-oct" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="22" xr3:uid="{AFD0F5C6-D453-44A7-A7A2-E80250827459}" name="24-oct" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="23" xr3:uid="{05DEBB6A-759F-4C9F-AF39-B31DA26929B5}" name="25-oct" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="24" xr3:uid="{0F14F7F0-8C7B-47D9-A425-10B6AB326102}" name="26-oct" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="25" xr3:uid="{F63019F4-1021-4A1C-AD12-1FA5B5EAC831}" name="27-oct" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="26" xr3:uid="{A0FA9325-6D8A-4E3F-841E-0A51A69AA21F}" name="28-oct" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="27" xr3:uid="{01390279-2B86-4CDA-AACC-12D48EE68027}" name="29-oct" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="28" xr3:uid="{9E31ED4A-02CE-4F4A-8A83-5681191E9E9E}" name="30-oct" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="29" xr3:uid="{885B064E-7B13-4C56-B53C-04028C7E7B19}" name="31-oct" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{7CF5EF96-F7EA-4081-A9F6-C6030E29374A}" name="05-oct" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{AED08872-92A3-48EC-9686-65D32A38B01C}" name="06-oct" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="5" xr3:uid="{A361D231-81F6-4E0E-9D68-F198542EC510}" name="07-oct" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="6" xr3:uid="{95C7985A-0503-4B82-A39B-7087B64C463E}" name="08-oct" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="7" xr3:uid="{223BBA38-BBF5-4596-9520-B3C80EF77B2C}" name="09-oct" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{CBA2CED5-BFCD-478D-BC0B-64F7236665B8}" name="10-oct" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="9" xr3:uid="{9142E539-6B94-44F9-AE32-D9D0257404D4}" name="11-oct" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="10" xr3:uid="{3DF50CC7-E072-416C-9E4D-77F99E3AFEE4}" name="12-oct" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="11" xr3:uid="{1BA6AA9C-31C1-4DF3-AB9B-EE58F953EA7B}" name="13-oct" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="12" xr3:uid="{E3903BB0-7B8A-45F4-8E32-0DEC3020D2C7}" name="14-oct" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="13" xr3:uid="{902C3056-E350-4CB3-8791-82ADD700A68A}" name="15-oct" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="14" xr3:uid="{54609321-2FA1-4A62-830E-30F3A492893D}" name="16-oct" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="15" xr3:uid="{3F1B4408-EFA2-430D-89AE-07B73C0F975A}" name="17-oct" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="16" xr3:uid="{6DC91AA7-F87C-4075-9A2A-AF1EB7BCC95B}" name="18-oct" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="17" xr3:uid="{0AA6E344-3437-43D3-992F-24D8117454B9}" name="19-oct" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="18" xr3:uid="{96D8D6A9-008E-484B-B7B4-28ABA94491F0}" name="20-oct" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="19" xr3:uid="{C6993608-949D-47F9-B239-5455810AAC64}" name="21-oct" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="20" xr3:uid="{D1F65972-7A93-4F3D-9DD9-0066440F9CD3}" name="22-oct" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="21" xr3:uid="{2491BABE-5995-4D9B-9106-2E6B37978835}" name="23-oct" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="22" xr3:uid="{AFD0F5C6-D453-44A7-A7A2-E80250827459}" name="24-oct" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="23" xr3:uid="{05DEBB6A-759F-4C9F-AF39-B31DA26929B5}" name="25-oct" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="24" xr3:uid="{0F14F7F0-8C7B-47D9-A425-10B6AB326102}" name="26-oct" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="25" xr3:uid="{F63019F4-1021-4A1C-AD12-1FA5B5EAC831}" name="27-oct" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="26" xr3:uid="{A0FA9325-6D8A-4E3F-841E-0A51A69AA21F}" name="28-oct" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="27" xr3:uid="{01390279-2B86-4CDA-AACC-12D48EE68027}" name="29-oct" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="28" xr3:uid="{9E31ED4A-02CE-4F4A-8A83-5681191E9E9E}" name="30-oct" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="29" xr3:uid="{885B064E-7B13-4C56-B53C-04028C7E7B19}" name="31-oct" totalsRowFunction="count" dataDxfId="71" totalsRowDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{949F634D-FB76-42BC-8AD2-845CBF052EB4}" name="PlanningBonus" displayName="PlanningBonus" ref="A54:AD110" totalsRowShown="0" headerRowDxfId="58">
-  <autoFilter ref="A54:AD110" xr:uid="{C72AC31B-BC16-4ED0-A742-6FDD0EBB8631}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{949F634D-FB76-42BC-8AD2-845CBF052EB4}" name="PlanningBonus" displayName="PlanningBonus" ref="A54:AD111" totalsRowShown="0" headerRowDxfId="69">
+  <autoFilter ref="A54:AD111" xr:uid="{C72AC31B-BC16-4ED0-A742-6FDD0EBB8631}"/>
   <tableColumns count="30">
-    <tableColumn id="30" xr3:uid="{A9929115-DAFC-40AE-A75F-89D94A3A6E3E}" name="N°" dataDxfId="57">
+    <tableColumn id="30" xr3:uid="{A9929115-DAFC-40AE-A75F-89D94A3A6E3E}" name="N°" dataDxfId="68">
       <calculatedColumnFormula>Tâches!A53</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{D9389245-51FF-4B4C-8D41-B0C82DF9FA75}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{725C423E-FCC3-4D2B-A7B1-04718A631379}" name="Tâche" dataDxfId="56">
-      <calculatedColumnFormula>Tâches!B53</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{725C423E-FCC3-4D2B-A7B1-04718A631379}" name="Tâche" dataDxfId="67">
+      <calculatedColumnFormula>Tâches!B54</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3E9DBF51-63AA-41C7-8026-17B53B0A9B6C}" name="05-oct" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{82D5CCDD-F94F-4AD0-87E3-71A24CD87405}" name="06-oct" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{BE2F3F2A-9776-4093-805A-312DDC6F80FE}" name="07-oct" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{C1BB4810-F8A8-4B1C-BEFF-BCD91A7CBE63}" name="08-oct" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{81533870-EEB5-4296-AE2B-E1E0C4B449EA}" name="09-oct" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{5614AF65-2E97-4A81-93F3-4BF71D68BA64}" name="10-oct" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{68ABF0CA-AF48-4143-8348-D852DD541BEA}" name="11-oct" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{D00B30BB-B608-47A8-A909-B3CCE0CD31F7}" name="12-oct" dataDxfId="48"/>
-    <tableColumn id="11" xr3:uid="{E0989A06-4A1E-4309-B9D8-FFF15CEF945C}" name="13-oct" dataDxfId="47"/>
-    <tableColumn id="12" xr3:uid="{1779F27B-A65D-4938-A036-4979FC026FF9}" name="14-oct" dataDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{22F38C55-7716-4548-902D-BF65239896B9}" name="15-oct" dataDxfId="45"/>
-    <tableColumn id="14" xr3:uid="{0379C43C-369A-4D33-98C8-09F6AB1138A5}" name="16-oct" dataDxfId="44"/>
-    <tableColumn id="15" xr3:uid="{95071E30-9EB4-4F6F-863F-5DDBD2FC2727}" name="17-oct" dataDxfId="43"/>
-    <tableColumn id="16" xr3:uid="{57019D85-E364-4C2A-8EDF-EECF1621D7F4}" name="18-oct" dataDxfId="42"/>
-    <tableColumn id="17" xr3:uid="{E1AB2C2B-7642-4E82-9C5D-D1EBE0244AAA}" name="19-oct" dataDxfId="41"/>
-    <tableColumn id="18" xr3:uid="{109FE92E-C236-400D-8A95-114BD055E9DA}" name="20-oct" dataDxfId="40"/>
-    <tableColumn id="19" xr3:uid="{F53D6821-A790-4CAC-82E2-E3B0BA8021AD}" name="21-oct" dataDxfId="39"/>
-    <tableColumn id="20" xr3:uid="{E29FFFEE-7FB8-414D-BCCD-0CBC972A8026}" name="22-oct" dataDxfId="38"/>
-    <tableColumn id="21" xr3:uid="{143958D3-765B-428D-A750-762564AFF52B}" name="23-oct" dataDxfId="37"/>
-    <tableColumn id="22" xr3:uid="{F6E67B4D-280E-47A5-AF79-5FF172D2E5C7}" name="24-oct" dataDxfId="36"/>
-    <tableColumn id="23" xr3:uid="{A16D3DC4-7696-40A7-8B9F-1454BEC9DBC2}" name="25-oct" dataDxfId="35"/>
-    <tableColumn id="24" xr3:uid="{218180A7-E150-4120-8AE9-6723F56E1D9B}" name="26-oct" dataDxfId="34"/>
-    <tableColumn id="25" xr3:uid="{AFF74DA3-B552-40C8-A8FE-1E5490C0DC0B}" name="27-oct" dataDxfId="33"/>
-    <tableColumn id="26" xr3:uid="{38E7E763-F0C2-4BFE-A84B-1E26140C2250}" name="28-oct" dataDxfId="32"/>
-    <tableColumn id="27" xr3:uid="{988E4DC2-CA0F-4098-B08C-759F208CFD2A}" name="29-oct" dataDxfId="31"/>
-    <tableColumn id="28" xr3:uid="{539EA04B-D1E5-47FC-9E69-E37BB7704D5C}" name="30-oct" dataDxfId="30"/>
-    <tableColumn id="29" xr3:uid="{21E9E5C4-8D23-454B-8A91-1CF8DA5078B0}" name="31-oct" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{3E9DBF51-63AA-41C7-8026-17B53B0A9B6C}" name="05-oct" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{82D5CCDD-F94F-4AD0-87E3-71A24CD87405}" name="06-oct" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{BE2F3F2A-9776-4093-805A-312DDC6F80FE}" name="07-oct" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{C1BB4810-F8A8-4B1C-BEFF-BCD91A7CBE63}" name="08-oct" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{81533870-EEB5-4296-AE2B-E1E0C4B449EA}" name="09-oct" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{5614AF65-2E97-4A81-93F3-4BF71D68BA64}" name="10-oct" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{68ABF0CA-AF48-4143-8348-D852DD541BEA}" name="11-oct" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{D00B30BB-B608-47A8-A909-B3CCE0CD31F7}" name="12-oct" dataDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{E0989A06-4A1E-4309-B9D8-FFF15CEF945C}" name="13-oct" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{1779F27B-A65D-4938-A036-4979FC026FF9}" name="14-oct" dataDxfId="57"/>
+    <tableColumn id="13" xr3:uid="{22F38C55-7716-4548-902D-BF65239896B9}" name="15-oct" dataDxfId="56"/>
+    <tableColumn id="14" xr3:uid="{0379C43C-369A-4D33-98C8-09F6AB1138A5}" name="16-oct" dataDxfId="55"/>
+    <tableColumn id="15" xr3:uid="{95071E30-9EB4-4F6F-863F-5DDBD2FC2727}" name="17-oct" dataDxfId="54"/>
+    <tableColumn id="16" xr3:uid="{57019D85-E364-4C2A-8EDF-EECF1621D7F4}" name="18-oct" dataDxfId="53"/>
+    <tableColumn id="17" xr3:uid="{E1AB2C2B-7642-4E82-9C5D-D1EBE0244AAA}" name="19-oct" dataDxfId="52"/>
+    <tableColumn id="18" xr3:uid="{109FE92E-C236-400D-8A95-114BD055E9DA}" name="20-oct" dataDxfId="51"/>
+    <tableColumn id="19" xr3:uid="{F53D6821-A790-4CAC-82E2-E3B0BA8021AD}" name="21-oct" dataDxfId="50"/>
+    <tableColumn id="20" xr3:uid="{E29FFFEE-7FB8-414D-BCCD-0CBC972A8026}" name="22-oct" dataDxfId="49"/>
+    <tableColumn id="21" xr3:uid="{143958D3-765B-428D-A750-762564AFF52B}" name="23-oct" dataDxfId="48"/>
+    <tableColumn id="22" xr3:uid="{F6E67B4D-280E-47A5-AF79-5FF172D2E5C7}" name="24-oct" dataDxfId="47"/>
+    <tableColumn id="23" xr3:uid="{A16D3DC4-7696-40A7-8B9F-1454BEC9DBC2}" name="25-oct" dataDxfId="46"/>
+    <tableColumn id="24" xr3:uid="{218180A7-E150-4120-8AE9-6723F56E1D9B}" name="26-oct" dataDxfId="45"/>
+    <tableColumn id="25" xr3:uid="{AFF74DA3-B552-40C8-A8FE-1E5490C0DC0B}" name="27-oct" dataDxfId="44"/>
+    <tableColumn id="26" xr3:uid="{38E7E763-F0C2-4BFE-A84B-1E26140C2250}" name="28-oct" dataDxfId="43"/>
+    <tableColumn id="27" xr3:uid="{988E4DC2-CA0F-4098-B08C-759F208CFD2A}" name="29-oct" dataDxfId="42"/>
+    <tableColumn id="28" xr3:uid="{539EA04B-D1E5-47FC-9E69-E37BB7704D5C}" name="30-oct" dataDxfId="41"/>
+    <tableColumn id="29" xr3:uid="{21E9E5C4-8D23-454B-8A91-1CF8DA5078B0}" name="31-oct" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DEB2AD8-CEC3-48AA-9CF7-ED08DF8D0180}" name="AvancementPrincipal" displayName="AvancementPrincipal" ref="A3:H50" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DEB2AD8-CEC3-48AA-9CF7-ED08DF8D0180}" name="AvancementPrincipal" displayName="AvancementPrincipal" ref="A3:H50" totalsRowShown="0" headerRowDxfId="39">
   <autoFilter ref="A3:H50" xr:uid="{6BCE8A7D-7D04-4394-AD53-9D2B48AA6CFD}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B07E0580-F8B1-4A81-8EA6-8D0DD94E6CBF}" name="N°" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{B07E0580-F8B1-4A81-8EA6-8D0DD94E6CBF}" name="N°" dataDxfId="38">
       <calculatedColumnFormula>TachesPrincipales[[#This Row],[N°]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CD2C34A8-4A66-4D31-8674-72875FEEBCB9}" name="Tâche" dataDxfId="26">
+    <tableColumn id="2" xr3:uid="{CD2C34A8-4A66-4D31-8674-72875FEEBCB9}" name="Tâche" dataDxfId="37">
       <calculatedColumnFormula>TachesPrincipales[[#This Row],[Tâche]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1F692755-0EBF-47B3-98F7-5870DAAA2B47}" name="Durée estimée (jours-hommes)" dataDxfId="25">
+    <tableColumn id="3" xr3:uid="{1F692755-0EBF-47B3-98F7-5870DAAA2B47}" name="Durée estimée (jours-hommes)" dataDxfId="36">
       <calculatedColumnFormula>TachesPrincipales[[#This Row],[Travail (en jours-hommes)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77A08BA6-0C47-4CA1-898D-34688079E99A}" name="Temps consacré (jours-hommes)" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{E6DFF25A-5C0F-4D2B-AD4B-356CCC3C697D}" name="Temps restant (jours-hommes)" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{80B25DCD-7C24-4853-87D7-112B68A75ACA}" name="Complétion" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{77A08BA6-0C47-4CA1-898D-34688079E99A}" name="Temps consacré (jours-hommes)" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{E6DFF25A-5C0F-4D2B-AD4B-356CCC3C697D}" name="Temps restant (jours-hommes)" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{80B25DCD-7C24-4853-87D7-112B68A75ACA}" name="Complétion" dataDxfId="33">
       <calculatedColumnFormula>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E98F81A4-15B7-43AA-8EE6-E47F2F7BDDBA}" name="Avance / Retard (jours-hommes)" dataDxfId="21">
+    <tableColumn id="9" xr3:uid="{E98F81A4-15B7-43AA-8EE6-E47F2F7BDDBA}" name="Avance / Retard (jours-hommes)" dataDxfId="32">
       <calculatedColumnFormula>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{19DBC3BA-BFF6-4123-B35C-1B58A7832A4B}" name="Commentaire" dataDxfId="20" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{19DBC3BA-BFF6-4123-B35C-1B58A7832A4B}" name="Commentaire" dataDxfId="31" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{04BF9D35-9277-48A6-B974-1A1D7A80EEAE}" name="AvancementPrincipal8" displayName="AvancementPrincipal8" ref="A52:H108" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="A52:H108" xr:uid="{43FC80CF-67C7-44CB-8AF9-C483360ED027}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{04BF9D35-9277-48A6-B974-1A1D7A80EEAE}" name="AvancementPrincipal8" displayName="AvancementPrincipal8" ref="A52:H109" totalsRowShown="0" headerRowDxfId="30">
+  <autoFilter ref="A52:H109" xr:uid="{43FC80CF-67C7-44CB-8AF9-C483360ED027}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{50AEF074-CE1B-4E86-81E2-68DBB744C39B}" name="N°" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{50AEF074-CE1B-4E86-81E2-68DBB744C39B}" name="N°" dataDxfId="29">
       <calculatedColumnFormula>TachesBonus[[#This Row],[N°]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{23C870F0-9110-4D2F-8665-88DA3D2D1265}" name="Tâche" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{23C870F0-9110-4D2F-8665-88DA3D2D1265}" name="Tâche" dataDxfId="28">
       <calculatedColumnFormula>TachesBonus[[#This Row],[Tâche]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{69BB17CC-DE87-420A-BBFA-062BF2BEF7AA}" name="Durée estimée (jours-hommes)" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{69BB17CC-DE87-420A-BBFA-062BF2BEF7AA}" name="Durée estimée (jours-hommes)" dataDxfId="27">
       <calculatedColumnFormula>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A14AEF2F-CFF6-4D95-9EB5-0A11BA283D4F}" name="Temps consacré (jours-hommes)" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{25E0D910-E053-4859-9A05-DA9FEEB0AC2A}" name="Temps restant (jours-hommes)" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{5E4CFA2C-63BF-45F7-9435-50DEBD5B0D2E}" name="Complétion" dataDxfId="13">
+    <tableColumn id="4" xr3:uid="{A14AEF2F-CFF6-4D95-9EB5-0A11BA283D4F}" name="Temps consacré (jours-hommes)" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{25E0D910-E053-4859-9A05-DA9FEEB0AC2A}" name="Temps restant (jours-hommes)" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{5E4CFA2C-63BF-45F7-9435-50DEBD5B0D2E}" name="Complétion" dataDxfId="24">
       <calculatedColumnFormula>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B0B94A9D-C385-47C1-9326-CF1085FB5FB7}" name="Avance / Retard (jours-hommes)" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{B0B94A9D-C385-47C1-9326-CF1085FB5FB7}" name="Avance / Retard (jours-hommes)" dataDxfId="23">
       <calculatedColumnFormula>IF(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal8[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3B743E05-8FA8-4C6C-91C3-7DC6C79CF839}" name="Commentaire" dataDxfId="11" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{3B743E05-8FA8-4C6C-91C3-7DC6C79CF839}" name="Commentaire" dataDxfId="22" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4002,10 +4093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53404295-2D02-454B-A260-080633A909F0}">
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5212,48 +5303,47 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
-        <f t="shared" ref="A53:A98" si="4">ROW()-5</f>
+        <f t="shared" ref="A53:A99" si="4">ROW()-5</f>
         <v>48</v>
       </c>
       <c r="B53" t="s">
+        <v>327</v>
+      </c>
+      <c r="C53" s="14">
+        <v>2</v>
+      </c>
+      <c r="D53" s="5">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>328</v>
+      </c>
+      <c r="F53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="66">
+        <f>ROW()-5</f>
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
         <v>138</v>
       </c>
-      <c r="C53" s="14">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="C54" s="14">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
         <v>70</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F54" t="s">
         <v>216</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G54" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
-        <f t="shared" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="B54" t="s">
-        <v>163</v>
-      </c>
-      <c r="C54" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D54" s="5">
-        <f>A53</f>
-        <v>48</v>
-      </c>
-      <c r="E54" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -5262,23 +5352,23 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="C55" s="14">
         <v>0.5</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" ref="D55:D58" si="5">A54</f>
-        <v>49</v>
+        <f>A53</f>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -5287,20 +5377,20 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C56" s="14">
         <v>0.5</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D56:D59" si="5">A55</f>
         <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
@@ -5312,7 +5402,7 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C57" s="14">
         <v>0.5</v>
@@ -5322,10 +5412,10 @@
         <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
         <v>12</v>
@@ -5337,23 +5427,23 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C58" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D58" s="5">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -5362,19 +5452,23 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C59" s="14">
         <v>1</v>
       </c>
+      <c r="D59" s="5">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
       <c r="E59" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -5383,19 +5477,16 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C60" s="14">
         <v>1</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
         <v>6</v>
@@ -5407,20 +5498,19 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61" s="14">
         <v>1</v>
       </c>
-      <c r="D61" s="5">
-        <f>A60</f>
-        <v>55</v>
+      <c r="D61" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G61" t="s">
         <v>6</v>
@@ -5432,23 +5522,23 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C62" s="14">
         <v>1</v>
       </c>
       <c r="D62" s="5">
-        <f>A58</f>
-        <v>53</v>
+        <f>A61</f>
+        <v>56</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G62" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -5457,23 +5547,23 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C63" s="14">
         <v>1</v>
       </c>
       <c r="D63" s="5">
-        <f>A62</f>
-        <v>57</v>
+        <f>A59</f>
+        <v>54</v>
       </c>
       <c r="E63" t="s">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="F63" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="G63" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -5482,46 +5572,47 @@
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C64" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>260</v>
+        <v>1</v>
+      </c>
+      <c r="D64" s="5">
+        <f>A63</f>
+        <v>58</v>
       </c>
       <c r="E64" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C65" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F65" t="s">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -5530,16 +5621,16 @@
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C66" s="14">
         <v>1</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E66" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="F66" t="s">
         <v>220</v>
@@ -5550,26 +5641,26 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
-        <f t="shared" si="4"/>
+        <f>ROW()-5</f>
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C67" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E67" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F67" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G67" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -5578,19 +5669,22 @@
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="C68" s="14">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="E68" t="s">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="F68" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G68" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -5599,23 +5693,19 @@
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C69" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D69" s="5">
-        <f>A68</f>
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F69" t="s">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="G69" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -5624,23 +5714,23 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C70" s="14">
         <v>0.5</v>
       </c>
       <c r="D70" s="5">
-        <f t="shared" ref="D70:D73" si="6">A69</f>
+        <f>A69</f>
         <v>64</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -5649,20 +5739,20 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C71" s="14">
         <v>0.5</v>
       </c>
       <c r="D71" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D71:D74" si="6">A70</f>
         <v>65</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
@@ -5674,7 +5764,7 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C72" s="14">
         <v>0.5</v>
@@ -5684,10 +5774,10 @@
         <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
         <v>12</v>
@@ -5699,23 +5789,23 @@
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C73" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D73" s="5">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="E73" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -5724,19 +5814,23 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="C74" s="14">
         <v>1</v>
       </c>
+      <c r="D74" s="5">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
       <c r="E74" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -5745,19 +5839,16 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C75" s="14">
         <v>1</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>263</v>
-      </c>
       <c r="E75" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G75" t="s">
         <v>6</v>
@@ -5769,48 +5860,47 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C76" s="14">
         <v>1</v>
       </c>
-      <c r="D76" s="5">
-        <f>A75</f>
-        <v>70</v>
+      <c r="D76" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="E76" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G76" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="8">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C77" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" s="5">
-        <f>A73</f>
-        <v>68</v>
+        <f>A76</f>
+        <v>71</v>
       </c>
       <c r="E77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -5819,23 +5909,23 @@
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="C78" s="14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D78" s="5">
-        <f>A77</f>
-        <v>72</v>
+        <f>A74</f>
+        <v>69</v>
       </c>
       <c r="E78" t="s">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="G78" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -5844,22 +5934,23 @@
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C79" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>264</v>
+        <v>1.5</v>
+      </c>
+      <c r="D79" s="5">
+        <f>A78</f>
+        <v>73</v>
       </c>
       <c r="E79" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -5867,24 +5958,23 @@
         <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>169</v>
+      <c r="B80" t="s">
+        <v>175</v>
       </c>
       <c r="C80" s="14">
-        <v>1</v>
-      </c>
-      <c r="D80" s="5">
-        <f>A77</f>
-        <v>72</v>
+        <v>0.5</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="E80" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F80" t="s">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -5892,17 +5982,18 @@
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="B81" t="s">
-        <v>171</v>
+      <c r="B81" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="C81" s="14">
         <v>1</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>265</v>
+      <c r="D81" s="5">
+        <f>A78</f>
+        <v>73</v>
       </c>
       <c r="E81" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F81" t="s">
         <v>220</v>
@@ -5917,17 +6008,16 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C82" s="14">
         <v>1</v>
       </c>
-      <c r="D82" s="5">
-        <f>A81</f>
-        <v>76</v>
+      <c r="D82" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="E82" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F82" t="s">
         <v>220</v>
@@ -5937,21 +6027,22 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="8">
-        <f>ROW()-5</f>
+      <c r="A83">
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C83" s="14">
         <v>1</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>267</v>
+      <c r="D83" s="5">
+        <f>A82</f>
+        <v>77</v>
       </c>
       <c r="E83" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="F83" t="s">
         <v>220</v>
@@ -5961,72 +6052,72 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="8">
+        <f>ROW()-5</f>
+        <v>79</v>
+      </c>
+      <c r="B84" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="14">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E84" t="s">
+        <v>205</v>
+      </c>
+      <c r="F84" t="s">
+        <v>220</v>
+      </c>
+      <c r="G84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
         <f t="shared" si="4"/>
-        <v>79</v>
-      </c>
-      <c r="B84" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" t="s">
         <v>180</v>
       </c>
-      <c r="C84" s="14">
+      <c r="C85" s="14">
         <v>2</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>110</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F85" t="s">
         <v>222</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G85" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="8">
-        <f t="shared" ref="A85:A95" si="7">ROW()-5</f>
-        <v>80</v>
-      </c>
-      <c r="B85" t="s">
-        <v>117</v>
-      </c>
-      <c r="C85" s="14">
-        <v>3</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E85" t="s">
-        <v>118</v>
-      </c>
-      <c r="F85" t="s">
-        <v>232</v>
-      </c>
-      <c r="G85" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A86:A96" si="7">ROW()-5</f>
         <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C86" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>277</v>
       </c>
       <c r="E86" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F86" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G86" t="s">
         <v>6</v>
@@ -6038,7 +6129,7 @@
         <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C87" s="14">
         <v>2</v>
@@ -6047,7 +6138,7 @@
         <v>277</v>
       </c>
       <c r="E87" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F87" t="s">
         <v>233</v>
@@ -6062,19 +6153,19 @@
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C88" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>277</v>
       </c>
       <c r="E88" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F88" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G88" t="s">
         <v>6</v>
@@ -6086,23 +6177,22 @@
         <v>84</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C89" s="14">
-        <v>1</v>
-      </c>
-      <c r="D89" s="5">
-        <f>A23</f>
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="E89" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="F89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -6111,19 +6201,20 @@
         <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="C90" s="14">
         <v>1</v>
       </c>
       <c r="D90" s="5">
-        <v>84</v>
+        <f>A23</f>
+        <v>20</v>
       </c>
       <c r="E90" t="s">
-        <v>237</v>
+        <v>94</v>
       </c>
       <c r="F90" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G90" t="s">
         <v>34</v>
@@ -6135,23 +6226,22 @@
         <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C91" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" s="5">
-        <f>A19</f>
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="F91" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G91" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -6160,20 +6250,20 @@
         <v>87</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C92" s="14">
         <v>2</v>
       </c>
       <c r="D92" s="5">
-        <f>A91</f>
-        <v>86</v>
+        <f>A19</f>
+        <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G92" t="s">
         <v>6</v>
@@ -6184,20 +6274,24 @@
         <f t="shared" si="7"/>
         <v>88</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>240</v>
+      <c r="B93" t="s">
+        <v>179</v>
       </c>
       <c r="C93" s="14">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D93" s="5">
+        <f>A92</f>
+        <v>87</v>
       </c>
       <c r="E93" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -6205,23 +6299,20 @@
         <f t="shared" si="7"/>
         <v>89</v>
       </c>
-      <c r="B94" t="s">
-        <v>183</v>
+      <c r="B94" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="C94" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>269</v>
+        <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="F94" t="s">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -6230,43 +6321,46 @@
         <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C95" s="14">
         <v>1.5</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E95" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F95" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G95" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <f t="shared" si="4"/>
+      <c r="A96" s="8">
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="C96" s="14">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="E96" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="F96" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G96" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -6275,23 +6369,19 @@
         <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C97" s="14">
-        <v>2</v>
-      </c>
-      <c r="D97" s="5">
-        <f>A96</f>
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="G97" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -6300,67 +6390,71 @@
         <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C98" s="14">
-        <v>1</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>271</v>
+        <v>2</v>
+      </c>
+      <c r="D98" s="5">
+        <f>A97</f>
+        <v>92</v>
       </c>
       <c r="E98" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F98" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="G98" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" ref="A99:A108" si="8">ROW()-5</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C99" s="14">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>36</v>
+        <v>271</v>
       </c>
       <c r="E99" t="s">
-        <v>245</v>
+        <v>126</v>
       </c>
       <c r="F99" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G99" t="s">
-        <v>247</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="A100:A109" si="8">ROW()-5</f>
         <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="C100" s="14">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E100" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F100" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G100" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -6369,40 +6463,40 @@
         <v>96</v>
       </c>
       <c r="B101" t="s">
+        <v>185</v>
+      </c>
+      <c r="C101" s="14">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>250</v>
+      </c>
+      <c r="F101" t="s">
+        <v>249</v>
+      </c>
+      <c r="G101" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="8"/>
+        <v>97</v>
+      </c>
+      <c r="B102" t="s">
         <v>186</v>
       </c>
-      <c r="C101" s="14">
-        <v>1</v>
-      </c>
-      <c r="D101" s="5" t="s">
+      <c r="C102" s="14">
+        <v>1</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E102" t="s">
         <v>187</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F102" t="s">
         <v>222</v>
-      </c>
-      <c r="G101" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="8">
-        <f>ROW()-5</f>
-        <v>97</v>
-      </c>
-      <c r="B102" t="s">
-        <v>197</v>
-      </c>
-      <c r="C102" s="14">
-        <v>1</v>
-      </c>
-      <c r="E102" t="s">
-        <v>251</v>
-      </c>
-      <c r="F102" t="s">
-        <v>249</v>
       </c>
       <c r="G102" t="s">
         <v>76</v>
@@ -6414,43 +6508,43 @@
         <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C103" s="14">
         <v>1</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>273</v>
-      </c>
       <c r="E103" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F103" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="G103" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <f t="shared" si="8"/>
+      <c r="A104" s="8">
+        <f>ROW()-5</f>
         <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="C104" s="14">
         <v>1</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>253</v>
+      <c r="D104" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E104" t="s">
+        <v>252</v>
       </c>
       <c r="F104" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G104" t="s">
-        <v>254</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -6459,22 +6553,19 @@
         <v>100</v>
       </c>
       <c r="B105" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="C105" s="14">
-        <v>2</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E105" t="s">
-        <v>255</v>
+        <v>1</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="F105" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="G105" t="s">
-        <v>6</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -6483,16 +6574,19 @@
         <v>101</v>
       </c>
       <c r="B106" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C106" s="14">
-        <v>1.5</v>
+        <v>2</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="E106" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="F106" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="G106" t="s">
         <v>6</v>
@@ -6504,19 +6598,16 @@
         <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C107" s="14">
-        <v>1</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>275</v>
+        <v>1.5</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F107" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="G107" t="s">
         <v>6</v>
@@ -6528,16 +6619,16 @@
         <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C108" s="14">
         <v>1</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E108" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
         <v>220</v>
@@ -6547,7 +6638,28 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="14"/>
+      <c r="A109">
+        <f t="shared" si="8"/>
+        <v>104</v>
+      </c>
+      <c r="B109" t="s">
+        <v>196</v>
+      </c>
+      <c r="C109" s="14">
+        <v>1</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E109" t="s">
+        <v>257</v>
+      </c>
+      <c r="F109" t="s">
+        <v>220</v>
+      </c>
+      <c r="G109" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C110" s="14"/>
@@ -6558,54 +6670,53 @@
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C112" s="14"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C113" s="14"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C114" s="14"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C115" s="14"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C116" s="14"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C117" s="14"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C118" s="14"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C119" s="14"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C120" s="14"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C121" s="14"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C122" s="14"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C123" s="14"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C124" s="14"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C125" s="14"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C126" s="14"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="6"/>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C127" s="14"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="8"/>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="6"/>
       <c r="C128" s="14"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -6638,7 +6749,6 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
-      <c r="B136" s="6"/>
       <c r="C136" s="14"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -6648,20 +6758,25 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
+      <c r="B138" s="6"/>
       <c r="C138" s="14"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="C139" s="14"/>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="2"/>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="8"/>
+      <c r="C140" s="14"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C161" s="2"/>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162" s="2"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6674,7 +6789,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="D17" twoDigitTextYear="1"/>
-    <ignoredError sqref="D77 D62" formula="1"/>
+    <ignoredError sqref="D78 D63" formula="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -6685,10 +6800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54278537-4330-487B-8B1E-186EA2F14073}">
-  <dimension ref="A1:XFD121"/>
+  <dimension ref="A1:XFD122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7362,8 +7477,8 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="54"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
       <c r="P16" s="20"/>
@@ -8951,84 +9066,84 @@
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A55" s="17">
+      <c r="A55" s="67">
         <f>Tâches!A53</f>
         <v>48</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" s="27" t="str">
+        <f>Tâches!B53</f>
+        <v>Gérer les UUID</v>
+      </c>
+      <c r="D55" s="68"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="69"/>
+      <c r="P55" s="70"/>
+      <c r="Q55" s="70"/>
+      <c r="R55" s="69"/>
+      <c r="S55" s="69"/>
+      <c r="T55" s="69"/>
+      <c r="U55" s="69"/>
+      <c r="V55" s="69"/>
+      <c r="W55" s="70"/>
+      <c r="X55" s="70"/>
+      <c r="Y55" s="69"/>
+      <c r="Z55" s="69"/>
+      <c r="AA55" s="69"/>
+      <c r="AB55" s="69"/>
+      <c r="AC55" s="69"/>
+      <c r="AD55" s="72"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <f>Tâches!A53</f>
+        <v>48</v>
+      </c>
+      <c r="B56" t="s">
         <v>316</v>
       </c>
-      <c r="C55" s="17" t="str">
-        <f>Tâches!B53</f>
+      <c r="C56" s="17" t="str">
+        <f>Tâches!B54</f>
         <v>Analyser et explorer les données SIRENE de l'INSEE</v>
       </c>
-      <c r="D55" s="24"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="25"/>
-      <c r="T55" s="25"/>
-      <c r="U55" s="25"/>
-      <c r="V55" s="25"/>
-      <c r="W55" s="19"/>
-      <c r="X55" s="19"/>
-      <c r="Y55" s="25"/>
-      <c r="Z55" s="25"/>
-      <c r="AA55" s="25"/>
-      <c r="AB55" s="25"/>
-      <c r="AC55" s="25"/>
-      <c r="AD55" s="26"/>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="18">
-        <f>Tâches!A54</f>
-        <v>49</v>
-      </c>
-      <c r="B56" t="s">
-        <v>314</v>
-      </c>
-      <c r="C56" s="18" t="str">
-        <f>Tâches!B54</f>
-        <v>Adapter le dictionnaire avec les données SIRENE de l'INSEE</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="20"/>
-      <c r="X56" s="20"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
-      <c r="AA56" s="21"/>
-      <c r="AB56" s="21"/>
-      <c r="AC56" s="21"/>
-      <c r="AD56" s="23"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="25"/>
+      <c r="Z56" s="25"/>
+      <c r="AA56" s="25"/>
+      <c r="AB56" s="25"/>
+      <c r="AC56" s="25"/>
+      <c r="AD56" s="26"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
@@ -9040,7 +9155,7 @@
       </c>
       <c r="C57" s="18" t="str">
         <f>Tâches!B55</f>
-        <v>Adapter le MCD avec les  données SIRENE de l'INSEE</v>
+        <v>Adapter le dictionnaire avec les données SIRENE de l'INSEE</v>
       </c>
       <c r="D57" s="22"/>
       <c r="E57" s="21"/>
@@ -9080,7 +9195,7 @@
       </c>
       <c r="C58" s="18" t="str">
         <f>Tâches!B56</f>
-        <v>Adapter le MLD avec les données SIRENE de l'INSEE</v>
+        <v>Adapter le MCD avec les  données SIRENE de l'INSEE</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="21"/>
@@ -9120,7 +9235,7 @@
       </c>
       <c r="C59" s="18" t="str">
         <f>Tâches!B57</f>
-        <v>Adapter le MRD avec les données SIRENE de l'INSEE</v>
+        <v>Adapter le MLD avec les données SIRENE de l'INSEE</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="21"/>
@@ -9156,11 +9271,11 @@
         <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C60" s="18" t="str">
         <f>Tâches!B58</f>
-        <v>Compléter la base de données avec les tables SIRENE pour l'INSEE</v>
+        <v>Adapter le MRD avec les données SIRENE de l'INSEE</v>
       </c>
       <c r="D60" s="22"/>
       <c r="E60" s="21"/>
@@ -9196,11 +9311,11 @@
         <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C61" s="18" t="str">
         <f>Tâches!B59</f>
-        <v>Détecter les anomalies et nettoyer les données SIRENE de l'INSEE</v>
+        <v>Compléter la base de données avec les tables SIRENE pour l'INSEE</v>
       </c>
       <c r="D61" s="22"/>
       <c r="E61" s="21"/>
@@ -9240,7 +9355,7 @@
       </c>
       <c r="C62" s="18" t="str">
         <f>Tâches!B60</f>
-        <v>Mettre en forme les données SIRENE de l'INSEE</v>
+        <v>Détecter les anomalies et nettoyer les données SIRENE de l'INSEE</v>
       </c>
       <c r="D62" s="22"/>
       <c r="E62" s="21"/>
@@ -9280,7 +9395,7 @@
       </c>
       <c r="C63" s="18" t="str">
         <f>Tâches!B61</f>
-        <v>Intégrer dans la base de données les données SIRENE de l'INSEE</v>
+        <v>Mettre en forme les données SIRENE de l'INSEE</v>
       </c>
       <c r="D63" s="22"/>
       <c r="E63" s="21"/>
@@ -9316,11 +9431,11 @@
         <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C64" s="18" t="str">
         <f>Tâches!B62</f>
-        <v>Créer des requêtes (CRUD) pour les données SIRENE de l'INSEE</v>
+        <v>Intégrer dans la base de données les données SIRENE de l'INSEE</v>
       </c>
       <c r="D64" s="22"/>
       <c r="E64" s="21"/>
@@ -9356,11 +9471,11 @@
         <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C65" s="18" t="str">
         <f>Tâches!B63</f>
-        <v>Créer les graphiques en croisant les données actuelles et celles SIRENE de l'INSEE</v>
+        <v>Créer des requêtes (CRUD) pour les données SIRENE de l'INSEE</v>
       </c>
       <c r="D65" s="22"/>
       <c r="E65" s="21"/>
@@ -9396,11 +9511,11 @@
         <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C66" s="18" t="str">
         <f>Tâches!B64</f>
-        <v>Intégrer les nouveaux graphiques croisés CACPL/INSEE dans le tableau de bord</v>
+        <v>Créer les graphiques en croisant les données actuelles et celles SIRENE de l'INSEE</v>
       </c>
       <c r="D66" s="22"/>
       <c r="E66" s="21"/>
@@ -9436,11 +9551,11 @@
         <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C67" s="18" t="str">
         <f>Tâches!B65</f>
-        <v>Afficher sur la carte les sociétés</v>
+        <v>Intégrer les nouveaux graphiques croisés CACPL/INSEE dans le tableau de bord</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="21"/>
@@ -9480,7 +9595,7 @@
       </c>
       <c r="C68" s="18" t="str">
         <f>Tâches!B66</f>
-        <v>Afficher sur la carte les filtres issus des données SIRENE de l'INSEE</v>
+        <v>Afficher sur la carte les sociétés</v>
       </c>
       <c r="D68" s="22"/>
       <c r="E68" s="21"/>
@@ -9516,11 +9631,11 @@
         <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C69" s="18" t="str">
         <f>Tâches!B67</f>
-        <v>Interpréter l'adéquation entre collecteurs et chiffres SIRENE de l'INSEE</v>
+        <v>Afficher sur la carte les filtres issus des données SIRENE de l'INSEE</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="21"/>
@@ -9556,11 +9671,11 @@
         <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C70" s="18" t="str">
         <f>Tâches!B68</f>
-        <v>Analyser et explorer les nouvelles données de la CACPL</v>
+        <v>Interpréter l'adéquation entre collecteurs et chiffres SIRENE de l'INSEE</v>
       </c>
       <c r="D70" s="22"/>
       <c r="E70" s="21"/>
@@ -9596,11 +9711,11 @@
         <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C71" s="18" t="str">
         <f>Tâches!B69</f>
-        <v>Adapter le dictionnaire aux nouvelles données de la CACPL</v>
+        <v>Analyser et explorer les nouvelles données de la CACPL</v>
       </c>
       <c r="D71" s="22"/>
       <c r="E71" s="21"/>
@@ -9640,7 +9755,7 @@
       </c>
       <c r="C72" s="18" t="str">
         <f>Tâches!B70</f>
-        <v>Adapter le MCD avec les nouvelles données de la CACPL</v>
+        <v>Adapter le dictionnaire aux nouvelles données de la CACPL</v>
       </c>
       <c r="D72" s="22"/>
       <c r="E72" s="21"/>
@@ -9680,7 +9795,7 @@
       </c>
       <c r="C73" s="18" t="str">
         <f>Tâches!B71</f>
-        <v>Adapter le MLD avec les nouvelles données de la CACPL</v>
+        <v>Adapter le MCD avec les nouvelles données de la CACPL</v>
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="21"/>
@@ -9720,7 +9835,7 @@
       </c>
       <c r="C74" s="18" t="str">
         <f>Tâches!B72</f>
-        <v>Adapter le MRD avec les données de l'INSEE</v>
+        <v>Adapter le MLD avec les nouvelles données de la CACPL</v>
       </c>
       <c r="D74" s="22"/>
       <c r="E74" s="21"/>
@@ -9756,11 +9871,11 @@
         <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C75" s="18" t="str">
         <f>Tâches!B73</f>
-        <v>Compléter la base de données avec les tables pour l'INSEE</v>
+        <v>Adapter le MRD avec les données de l'INSEE</v>
       </c>
       <c r="D75" s="22"/>
       <c r="E75" s="21"/>
@@ -9796,11 +9911,11 @@
         <v>69</v>
       </c>
       <c r="B76" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C76" s="18" t="str">
         <f>Tâches!B74</f>
-        <v>Détecter les anomalies et nettoyer les nouvelles données de la CACPL</v>
+        <v>Compléter la base de données avec les tables pour l'INSEE</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="21"/>
@@ -9840,7 +9955,7 @@
       </c>
       <c r="C77" s="18" t="str">
         <f>Tâches!B75</f>
-        <v>Mettre en forme les nouvelles données de la CACPL</v>
+        <v>Détecter les anomalies et nettoyer les nouvelles données de la CACPL</v>
       </c>
       <c r="D77" s="22"/>
       <c r="E77" s="21"/>
@@ -9880,7 +9995,7 @@
       </c>
       <c r="C78" s="18" t="str">
         <f>Tâches!B76</f>
-        <v>Intégrer dans la base de données les nouvelles données de la CACPL</v>
+        <v>Mettre en forme les nouvelles données de la CACPL</v>
       </c>
       <c r="D78" s="22"/>
       <c r="E78" s="21"/>
@@ -9916,11 +10031,11 @@
         <v>72</v>
       </c>
       <c r="B79" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C79" s="18" t="str">
         <f>Tâches!B77</f>
-        <v>Créer des requêtes (CRUD) pour les nouvelles données de la CACPL</v>
+        <v>Intégrer dans la base de données les nouvelles données de la CACPL</v>
       </c>
       <c r="D79" s="22"/>
       <c r="E79" s="21"/>
@@ -9956,11 +10071,11 @@
         <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C80" s="18" t="str">
         <f>Tâches!B78</f>
-        <v>Créer les graphiques croisant les données actuelles et les nouvelles de la CACPL</v>
+        <v>Créer des requêtes (CRUD) pour les nouvelles données de la CACPL</v>
       </c>
       <c r="D80" s="22"/>
       <c r="E80" s="21"/>
@@ -9996,11 +10111,11 @@
         <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C81" s="18" t="str">
         <f>Tâches!B79</f>
-        <v>Intégrer les nouveaux graphiques croisés de la CACPL dans le tableau de bord</v>
+        <v>Créer les graphiques croisant les données actuelles et les nouvelles de la CACPL</v>
       </c>
       <c r="D81" s="22"/>
       <c r="E81" s="21"/>
@@ -10036,11 +10151,11 @@
         <v>75</v>
       </c>
       <c r="B82" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C82" s="18" t="str">
         <f>Tâches!B80</f>
-        <v>Générer les nouveaux graphiques pour chaque déchèterie et chaque collecteur</v>
+        <v>Intégrer les nouveaux graphiques croisés de la CACPL dans le tableau de bord</v>
       </c>
       <c r="D82" s="22"/>
       <c r="E82" s="21"/>
@@ -10080,7 +10195,7 @@
       </c>
       <c r="C83" s="18" t="str">
         <f>Tâches!B81</f>
-        <v>Intégrer les graphiques pour chaque repère de la carte</v>
+        <v>Générer les nouveaux graphiques pour chaque déchèterie et chaque collecteur</v>
       </c>
       <c r="D83" s="22"/>
       <c r="E83" s="21"/>
@@ -10120,7 +10235,7 @@
       </c>
       <c r="C84" s="18" t="str">
         <f>Tâches!B82</f>
-        <v>Rendre dynamique les graphiques de chaque repère</v>
+        <v>Intégrer les graphiques pour chaque repère de la carte</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="21"/>
@@ -10160,7 +10275,7 @@
       </c>
       <c r="C85" s="18" t="str">
         <f>Tâches!B83</f>
-        <v>Afficher sur la carte les filtres issus des nouvelles données de la CACPL</v>
+        <v>Rendre dynamique les graphiques de chaque repère</v>
       </c>
       <c r="D85" s="22"/>
       <c r="E85" s="21"/>
@@ -10196,11 +10311,11 @@
         <v>79</v>
       </c>
       <c r="B86" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C86" s="18" t="str">
         <f>Tâches!B84</f>
-        <v>Interpréter l'adéquation entre collecteurs et nouvelles données de la CACPL</v>
+        <v>Afficher sur la carte les filtres issus des nouvelles données de la CACPL</v>
       </c>
       <c r="D86" s="22"/>
       <c r="E86" s="21"/>
@@ -10236,11 +10351,11 @@
         <v>80</v>
       </c>
       <c r="B87" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C87" s="18" t="str">
         <f>Tâches!B85</f>
-        <v>Définir les facteurs principaux d'utilsation des collecteurs</v>
+        <v>Interpréter l'adéquation entre collecteurs et nouvelles données de la CACPL</v>
       </c>
       <c r="D87" s="22"/>
       <c r="E87" s="21"/>
@@ -10280,7 +10395,7 @@
       </c>
       <c r="C88" s="18" t="str">
         <f>Tâches!B86</f>
-        <v>Définir les types d'usager</v>
+        <v>Définir les facteurs principaux d'utilsation des collecteurs</v>
       </c>
       <c r="D88" s="22"/>
       <c r="E88" s="21"/>
@@ -10320,7 +10435,7 @@
       </c>
       <c r="C89" s="18" t="str">
         <f>Tâches!B87</f>
-        <v>Définir les groupes de collecteurs</v>
+        <v>Définir les types d'usager</v>
       </c>
       <c r="D89" s="22"/>
       <c r="E89" s="21"/>
@@ -10360,7 +10475,7 @@
       </c>
       <c r="C90" s="18" t="str">
         <f>Tâches!B88</f>
-        <v>Détecter et prévoir l'utilisation des collecteurs</v>
+        <v>Définir les groupes de collecteurs</v>
       </c>
       <c r="D90" s="22"/>
       <c r="E90" s="21"/>
@@ -10400,7 +10515,7 @@
       </c>
       <c r="C91" s="18" t="str">
         <f>Tâches!B89</f>
-        <v>Transformer le tableau de bord en service</v>
+        <v>Détecter et prévoir l'utilisation des collecteurs</v>
       </c>
       <c r="D91" s="22"/>
       <c r="E91" s="21"/>
@@ -10440,7 +10555,7 @@
       </c>
       <c r="C92" s="18" t="str">
         <f>Tâches!B90</f>
-        <v>Créer une API pour le service</v>
+        <v>Transformer le tableau de bord en service</v>
       </c>
       <c r="D92" s="22"/>
       <c r="E92" s="21"/>
@@ -10480,7 +10595,7 @@
       </c>
       <c r="C93" s="18" t="str">
         <f>Tâches!B91</f>
-        <v>Afficher et rendre éditable les tables de la BDD sur le tableau de bord</v>
+        <v>Créer une API pour le service</v>
       </c>
       <c r="D93" s="22"/>
       <c r="E93" s="21"/>
@@ -10520,7 +10635,7 @@
       </c>
       <c r="C94" s="18" t="str">
         <f>Tâches!B92</f>
-        <v xml:space="preserve">Gérer la persistance des données éditées dans la BDD </v>
+        <v>Afficher et rendre éditable les tables de la BDD sur le tableau de bord</v>
       </c>
       <c r="D94" s="22"/>
       <c r="E94" s="21"/>
@@ -10556,11 +10671,11 @@
         <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C95" s="18" t="str">
         <f>Tâches!B93</f>
-        <v>Créer le formulaire pour les comptes utilisateurs</v>
+        <v xml:space="preserve">Gérer la persistance des données éditées dans la BDD </v>
       </c>
       <c r="D95" s="22"/>
       <c r="E95" s="21"/>
@@ -10596,11 +10711,11 @@
         <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C96" s="18" t="str">
         <f>Tâches!B94</f>
-        <v xml:space="preserve">Gérer les comptes utilisateurs </v>
+        <v>Créer le formulaire pour les comptes utilisateurs</v>
       </c>
       <c r="D96" s="22"/>
       <c r="E96" s="21"/>
@@ -10640,7 +10755,7 @@
       </c>
       <c r="C97" s="18" t="str">
         <f>Tâches!B95</f>
-        <v>Restreindre l'accès de certaines fonctionnalités aux utilisateurs</v>
+        <v xml:space="preserve">Gérer les comptes utilisateurs </v>
       </c>
       <c r="D97" s="22"/>
       <c r="E97" s="21"/>
@@ -10676,11 +10791,11 @@
         <v>91</v>
       </c>
       <c r="B98" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C98" s="18" t="str">
         <f>Tâches!B96</f>
-        <v>Créer un data lake pour tous les jeux de données</v>
+        <v>Restreindre l'accès de certaines fonctionnalités aux utilisateurs</v>
       </c>
       <c r="D98" s="22"/>
       <c r="E98" s="21"/>
@@ -10720,7 +10835,7 @@
       </c>
       <c r="C99" s="18" t="str">
         <f>Tâches!B97</f>
-        <v>Intégrer les jeux de données dans le data lake</v>
+        <v>Créer un data lake pour tous les jeux de données</v>
       </c>
       <c r="D99" s="22"/>
       <c r="E99" s="21"/>
@@ -10756,11 +10871,11 @@
         <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C100" s="18" t="str">
         <f>Tâches!B98</f>
-        <v>Récupérer et éditer les informations du data lake</v>
+        <v>Intégrer les jeux de données dans le data lake</v>
       </c>
       <c r="D100" s="22"/>
       <c r="E100" s="21"/>
@@ -10796,11 +10911,11 @@
         <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C101" s="18" t="str">
         <f>Tâches!B99</f>
-        <v>Créer un exécutable</v>
+        <v>Récupérer et éditer les informations du data lake</v>
       </c>
       <c r="D101" s="22"/>
       <c r="E101" s="21"/>
@@ -10831,38 +10946,38 @@
       <c r="AD101" s="23"/>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A102" s="27">
+      <c r="A102" s="18">
         <f>Tâches!A100</f>
         <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>320</v>
-      </c>
-      <c r="C102" s="27" t="str">
+        <v>313</v>
+      </c>
+      <c r="C102" s="18" t="str">
         <f>Tâches!B100</f>
-        <v>Se documenter sur les directives quant à la gestion des déchets</v>
+        <v>Créer un exécutable</v>
       </c>
       <c r="D102" s="22"/>
       <c r="E102" s="21"/>
       <c r="F102" s="21"/>
       <c r="G102" s="21"/>
       <c r="H102" s="21"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="29"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
       <c r="K102" s="21"/>
       <c r="L102" s="21"/>
       <c r="M102" s="21"/>
       <c r="N102" s="21"/>
       <c r="O102" s="21"/>
-      <c r="P102" s="28"/>
-      <c r="Q102" s="28"/>
+      <c r="P102" s="20"/>
+      <c r="Q102" s="20"/>
       <c r="R102" s="21"/>
       <c r="S102" s="21"/>
       <c r="T102" s="21"/>
       <c r="U102" s="21"/>
       <c r="V102" s="21"/>
-      <c r="W102" s="28"/>
-      <c r="X102" s="28"/>
+      <c r="W102" s="20"/>
+      <c r="X102" s="20"/>
       <c r="Y102" s="21"/>
       <c r="Z102" s="21"/>
       <c r="AA102" s="21"/>
@@ -10876,11 +10991,11 @@
         <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C103" s="27" t="str">
         <f>Tâches!B101</f>
-        <v>Evaluer la conformité de la CACPL vis-à-vis des directives sur les déchets</v>
+        <v>Se documenter sur les directives quant à la gestion des déchets</v>
       </c>
       <c r="D103" s="22"/>
       <c r="E103" s="21"/>
@@ -10916,11 +11031,11 @@
         <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C104" s="27" t="str">
         <f>Tâches!B102</f>
-        <v>Collecter les données et résultats de collecte d'autres villes</v>
+        <v>Evaluer la conformité de la CACPL vis-à-vis des directives sur les déchets</v>
       </c>
       <c r="D104" s="22"/>
       <c r="E104" s="21"/>
@@ -10956,11 +11071,11 @@
         <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C105" s="27" t="str">
         <f>Tâches!B103</f>
-        <v>Comparer les dispositifs de collecte et résultats de la CACPL avec ceux d'autres villes</v>
+        <v>Collecter les données et résultats de collecte d'autres villes</v>
       </c>
       <c r="D105" s="22"/>
       <c r="E105" s="21"/>
@@ -10996,11 +11111,11 @@
         <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C106" s="27" t="str">
         <f>Tâches!B104</f>
-        <v>Récupérer les données pertinentes sur le site de Météo-France</v>
+        <v>Comparer les dispositifs de collecte et résultats de la CACPL avec ceux d'autres villes</v>
       </c>
       <c r="D106" s="22"/>
       <c r="E106" s="21"/>
@@ -11036,11 +11151,11 @@
         <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C107" s="27" t="str">
         <f>Tâches!B105</f>
-        <v>Détecter et prévoir l'utilisation des collecteurs selon la météo</v>
+        <v>Récupérer les données pertinentes sur le site de Météo-France</v>
       </c>
       <c r="D107" s="22"/>
       <c r="E107" s="21"/>
@@ -11080,7 +11195,7 @@
       </c>
       <c r="C108" s="27" t="str">
         <f>Tâches!B106</f>
-        <v>Récupérer les information météorologiques en continu</v>
+        <v>Détecter et prévoir l'utilisation des collecteurs selon la météo</v>
       </c>
       <c r="D108" s="22"/>
       <c r="E108" s="21"/>
@@ -11120,7 +11235,7 @@
       </c>
       <c r="C109" s="27" t="str">
         <f>Tâches!B107</f>
-        <v>Afficher sur la carte les filtres météo</v>
+        <v>Récupérer les information météorologiques en continu</v>
       </c>
       <c r="D109" s="22"/>
       <c r="E109" s="21"/>
@@ -11151,47 +11266,87 @@
       <c r="AD109" s="23"/>
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A110" s="36">
+      <c r="A110" s="27">
         <f>Tâches!A108</f>
         <v>103</v>
       </c>
-      <c r="B110" s="30" t="s">
+      <c r="B110" t="s">
         <v>316</v>
       </c>
-      <c r="C110" s="36" t="str">
+      <c r="C110" s="27" t="str">
         <f>Tâches!B108</f>
+        <v>Afficher sur la carte les filtres météo</v>
+      </c>
+      <c r="D110" s="22"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+      <c r="M110" s="21"/>
+      <c r="N110" s="21"/>
+      <c r="O110" s="21"/>
+      <c r="P110" s="28"/>
+      <c r="Q110" s="28"/>
+      <c r="R110" s="21"/>
+      <c r="S110" s="21"/>
+      <c r="T110" s="21"/>
+      <c r="U110" s="21"/>
+      <c r="V110" s="21"/>
+      <c r="W110" s="28"/>
+      <c r="X110" s="28"/>
+      <c r="Y110" s="21"/>
+      <c r="Z110" s="21"/>
+      <c r="AA110" s="21"/>
+      <c r="AB110" s="21"/>
+      <c r="AC110" s="21"/>
+      <c r="AD110" s="23"/>
+    </row>
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A111" s="36">
+        <f>Tâches!A109</f>
+        <v>104</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="C111" s="36" t="str">
+        <f>Tâches!B109</f>
         <v>Actualiser les prévisions de collecte sur la carte selon la météo</v>
       </c>
-      <c r="D110" s="32"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33"/>
-      <c r="I110" s="34"/>
-      <c r="J110" s="37"/>
-      <c r="K110" s="33"/>
-      <c r="L110" s="33"/>
-      <c r="M110" s="33"/>
-      <c r="N110" s="33"/>
-      <c r="O110" s="33"/>
-      <c r="P110" s="34"/>
-      <c r="Q110" s="34"/>
-      <c r="R110" s="33"/>
-      <c r="S110" s="33"/>
-      <c r="T110" s="33"/>
-      <c r="U110" s="33"/>
-      <c r="V110" s="33"/>
-      <c r="W110" s="34"/>
-      <c r="X110" s="34"/>
-      <c r="Y110" s="33"/>
-      <c r="Z110" s="33"/>
-      <c r="AA110" s="33"/>
-      <c r="AB110" s="33"/>
-      <c r="AC110" s="33"/>
-      <c r="AD110" s="35"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="16"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="33"/>
+      <c r="G111" s="33"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="34"/>
+      <c r="J111" s="37"/>
+      <c r="K111" s="33"/>
+      <c r="L111" s="33"/>
+      <c r="M111" s="33"/>
+      <c r="N111" s="33"/>
+      <c r="O111" s="33"/>
+      <c r="P111" s="34"/>
+      <c r="Q111" s="34"/>
+      <c r="R111" s="33"/>
+      <c r="S111" s="33"/>
+      <c r="T111" s="33"/>
+      <c r="U111" s="33"/>
+      <c r="V111" s="33"/>
+      <c r="W111" s="34"/>
+      <c r="X111" s="34"/>
+      <c r="Y111" s="33"/>
+      <c r="Z111" s="33"/>
+      <c r="AA111" s="33"/>
+      <c r="AB111" s="33"/>
+      <c r="AC111" s="33"/>
+      <c r="AD111" s="35"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -11209,7 +11364,7 @@
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="Y3:AD3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:B51 B55:B110">
+  <conditionalFormatting sqref="B5:B51 B55:B111">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Programmation"</formula>
     </cfRule>
@@ -11255,10 +11410,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11635,7 +11790,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="53">
@@ -11644,7 +11799,7 @@
       </c>
       <c r="G15" s="14">
         <f>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -11662,7 +11817,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="53">
@@ -11671,7 +11826,7 @@
       </c>
       <c r="G16" s="14">
         <f>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -11688,15 +11843,17 @@
         <f>TachesPrincipales[[#This Row],[Travail (en jours-hommes)]]</f>
         <v>1</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="14">
+        <v>0.5</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="53">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14">
         <f>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -11713,15 +11870,17 @@
         <f>TachesPrincipales[[#This Row],[Travail (en jours-hommes)]]</f>
         <v>1</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="14">
+        <v>0.5</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="53">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14">
         <f>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -12574,11 +12733,11 @@
       </c>
       <c r="B53" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Analyser et explorer les données SIRENE de l'INSEE</v>
+        <v>Gérer les UUID</v>
       </c>
       <c r="C53" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
@@ -12593,17 +12752,17 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="8">
         <f>TachesBonus[[#This Row],[N°]]</f>
         <v>49</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B54" s="8" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Adapter le dictionnaire avec les données SIRENE de l'INSEE</v>
+        <v>Analyser et explorer les données SIRENE de l'INSEE</v>
       </c>
       <c r="C54" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
@@ -12624,7 +12783,7 @@
       </c>
       <c r="B55" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Adapter le MCD avec les  données SIRENE de l'INSEE</v>
+        <v>Adapter le dictionnaire avec les données SIRENE de l'INSEE</v>
       </c>
       <c r="C55" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -12649,7 +12808,7 @@
       </c>
       <c r="B56" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Adapter le MLD avec les données SIRENE de l'INSEE</v>
+        <v>Adapter le MCD avec les  données SIRENE de l'INSEE</v>
       </c>
       <c r="C56" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -12674,7 +12833,7 @@
       </c>
       <c r="B57" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Adapter le MRD avec les données SIRENE de l'INSEE</v>
+        <v>Adapter le MLD avec les données SIRENE de l'INSEE</v>
       </c>
       <c r="C57" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -12699,11 +12858,11 @@
       </c>
       <c r="B58" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Compléter la base de données avec les tables SIRENE pour l'INSEE</v>
+        <v>Adapter le MRD avec les données SIRENE de l'INSEE</v>
       </c>
       <c r="C58" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
@@ -12724,7 +12883,7 @@
       </c>
       <c r="B59" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Détecter les anomalies et nettoyer les données SIRENE de l'INSEE</v>
+        <v>Compléter la base de données avec les tables SIRENE pour l'INSEE</v>
       </c>
       <c r="C59" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -12749,7 +12908,7 @@
       </c>
       <c r="B60" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Mettre en forme les données SIRENE de l'INSEE</v>
+        <v>Détecter les anomalies et nettoyer les données SIRENE de l'INSEE</v>
       </c>
       <c r="C60" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -12774,7 +12933,7 @@
       </c>
       <c r="B61" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Intégrer dans la base de données les données SIRENE de l'INSEE</v>
+        <v>Mettre en forme les données SIRENE de l'INSEE</v>
       </c>
       <c r="C61" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -12799,7 +12958,7 @@
       </c>
       <c r="B62" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Créer des requêtes (CRUD) pour les données SIRENE de l'INSEE</v>
+        <v>Intégrer dans la base de données les données SIRENE de l'INSEE</v>
       </c>
       <c r="C62" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -12824,7 +12983,7 @@
       </c>
       <c r="B63" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Créer les graphiques en croisant les données actuelles et celles SIRENE de l'INSEE</v>
+        <v>Créer des requêtes (CRUD) pour les données SIRENE de l'INSEE</v>
       </c>
       <c r="C63" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -12849,11 +13008,11 @@
       </c>
       <c r="B64" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Intégrer les nouveaux graphiques croisés CACPL/INSEE dans le tableau de bord</v>
+        <v>Créer les graphiques en croisant les données actuelles et celles SIRENE de l'INSEE</v>
       </c>
       <c r="C64" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
@@ -12874,11 +13033,11 @@
       </c>
       <c r="B65" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Afficher sur la carte les sociétés</v>
+        <v>Intégrer les nouveaux graphiques croisés CACPL/INSEE dans le tableau de bord</v>
       </c>
       <c r="C65" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
@@ -12899,7 +13058,7 @@
       </c>
       <c r="B66" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Afficher sur la carte les filtres issus des données SIRENE de l'INSEE</v>
+        <v>Afficher sur la carte les sociétés</v>
       </c>
       <c r="C66" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -12924,11 +13083,11 @@
       </c>
       <c r="B67" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Interpréter l'adéquation entre collecteurs et chiffres SIRENE de l'INSEE</v>
+        <v>Afficher sur la carte les filtres issus des données SIRENE de l'INSEE</v>
       </c>
       <c r="C67" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
@@ -12949,11 +13108,11 @@
       </c>
       <c r="B68" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Analyser et explorer les nouvelles données de la CACPL</v>
+        <v>Interpréter l'adéquation entre collecteurs et chiffres SIRENE de l'INSEE</v>
       </c>
       <c r="C68" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
@@ -12968,17 +13127,17 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
+      <c r="A69">
         <f>TachesBonus[[#This Row],[N°]]</f>
         <v>64</v>
       </c>
       <c r="B69" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Adapter le dictionnaire aux nouvelles données de la CACPL</v>
+        <v>Analyser et explorer les nouvelles données de la CACPL</v>
       </c>
       <c r="C69" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
@@ -12999,7 +13158,7 @@
       </c>
       <c r="B70" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Adapter le MCD avec les nouvelles données de la CACPL</v>
+        <v>Adapter le dictionnaire aux nouvelles données de la CACPL</v>
       </c>
       <c r="C70" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -13024,7 +13183,7 @@
       </c>
       <c r="B71" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Adapter le MLD avec les nouvelles données de la CACPL</v>
+        <v>Adapter le MCD avec les nouvelles données de la CACPL</v>
       </c>
       <c r="C71" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -13049,7 +13208,7 @@
       </c>
       <c r="B72" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Adapter le MRD avec les données de l'INSEE</v>
+        <v>Adapter le MLD avec les nouvelles données de la CACPL</v>
       </c>
       <c r="C72" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -13074,11 +13233,11 @@
       </c>
       <c r="B73" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Compléter la base de données avec les tables pour l'INSEE</v>
+        <v>Adapter le MRD avec les données de l'INSEE</v>
       </c>
       <c r="C73" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
@@ -13099,7 +13258,7 @@
       </c>
       <c r="B74" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Détecter les anomalies et nettoyer les nouvelles données de la CACPL</v>
+        <v>Compléter la base de données avec les tables pour l'INSEE</v>
       </c>
       <c r="C74" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -13124,7 +13283,7 @@
       </c>
       <c r="B75" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Mettre en forme les nouvelles données de la CACPL</v>
+        <v>Détecter les anomalies et nettoyer les nouvelles données de la CACPL</v>
       </c>
       <c r="C75" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -13149,7 +13308,7 @@
       </c>
       <c r="B76" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Intégrer dans la base de données les nouvelles données de la CACPL</v>
+        <v>Mettre en forme les nouvelles données de la CACPL</v>
       </c>
       <c r="C76" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -13174,11 +13333,11 @@
       </c>
       <c r="B77" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Créer des requêtes (CRUD) pour les nouvelles données de la CACPL</v>
+        <v>Intégrer dans la base de données les nouvelles données de la CACPL</v>
       </c>
       <c r="C77" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
@@ -13199,11 +13358,11 @@
       </c>
       <c r="B78" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Créer les graphiques croisant les données actuelles et les nouvelles de la CACPL</v>
+        <v>Créer des requêtes (CRUD) pour les nouvelles données de la CACPL</v>
       </c>
       <c r="C78" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
@@ -13224,11 +13383,11 @@
       </c>
       <c r="B79" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Intégrer les nouveaux graphiques croisés de la CACPL dans le tableau de bord</v>
+        <v>Créer les graphiques croisant les données actuelles et les nouvelles de la CACPL</v>
       </c>
       <c r="C79" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
@@ -13249,11 +13408,11 @@
       </c>
       <c r="B80" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Générer les nouveaux graphiques pour chaque déchèterie et chaque collecteur</v>
+        <v>Intégrer les nouveaux graphiques croisés de la CACPL dans le tableau de bord</v>
       </c>
       <c r="C80" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
@@ -13274,7 +13433,7 @@
       </c>
       <c r="B81" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Intégrer les graphiques pour chaque repère de la carte</v>
+        <v>Générer les nouveaux graphiques pour chaque déchèterie et chaque collecteur</v>
       </c>
       <c r="C81" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -13299,7 +13458,7 @@
       </c>
       <c r="B82" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Rendre dynamique les graphiques de chaque repère</v>
+        <v>Intégrer les graphiques pour chaque repère de la carte</v>
       </c>
       <c r="C82" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -13324,7 +13483,7 @@
       </c>
       <c r="B83" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Afficher sur la carte les filtres issus des nouvelles données de la CACPL</v>
+        <v>Rendre dynamique les graphiques de chaque repère</v>
       </c>
       <c r="C83" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -13349,11 +13508,11 @@
       </c>
       <c r="B84" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Interpréter l'adéquation entre collecteurs et nouvelles données de la CACPL</v>
+        <v>Afficher sur la carte les filtres issus des nouvelles données de la CACPL</v>
       </c>
       <c r="C84" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
@@ -13374,11 +13533,11 @@
       </c>
       <c r="B85" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Définir les facteurs principaux d'utilsation des collecteurs</v>
+        <v>Interpréter l'adéquation entre collecteurs et nouvelles données de la CACPL</v>
       </c>
       <c r="C85" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
@@ -13399,11 +13558,11 @@
       </c>
       <c r="B86" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Définir les types d'usager</v>
+        <v>Définir les facteurs principaux d'utilsation des collecteurs</v>
       </c>
       <c r="C86" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
@@ -13424,7 +13583,7 @@
       </c>
       <c r="B87" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Définir les groupes de collecteurs</v>
+        <v>Définir les types d'usager</v>
       </c>
       <c r="C87" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -13449,11 +13608,11 @@
       </c>
       <c r="B88" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Détecter et prévoir l'utilisation des collecteurs</v>
+        <v>Définir les groupes de collecteurs</v>
       </c>
       <c r="C88" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
@@ -13474,11 +13633,11 @@
       </c>
       <c r="B89" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Transformer le tableau de bord en service</v>
+        <v>Détecter et prévoir l'utilisation des collecteurs</v>
       </c>
       <c r="C89" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
@@ -13499,7 +13658,7 @@
       </c>
       <c r="B90" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Créer une API pour le service</v>
+        <v>Transformer le tableau de bord en service</v>
       </c>
       <c r="C90" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -13524,11 +13683,11 @@
       </c>
       <c r="B91" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Afficher et rendre éditable les tables de la BDD sur le tableau de bord</v>
+        <v>Créer une API pour le service</v>
       </c>
       <c r="C91" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -13549,7 +13708,7 @@
       </c>
       <c r="B92" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v xml:space="preserve">Gérer la persistance des données éditées dans la BDD </v>
+        <v>Afficher et rendre éditable les tables de la BDD sur le tableau de bord</v>
       </c>
       <c r="C92" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -13574,11 +13733,11 @@
       </c>
       <c r="B93" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Créer le formulaire pour les comptes utilisateurs</v>
+        <v xml:space="preserve">Gérer la persistance des données éditées dans la BDD </v>
       </c>
       <c r="C93" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
@@ -13599,11 +13758,11 @@
       </c>
       <c r="B94" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v xml:space="preserve">Gérer les comptes utilisateurs </v>
+        <v>Créer le formulaire pour les comptes utilisateurs</v>
       </c>
       <c r="C94" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
@@ -13624,7 +13783,7 @@
       </c>
       <c r="B95" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Restreindre l'accès de certaines fonctionnalités aux utilisateurs</v>
+        <v xml:space="preserve">Gérer les comptes utilisateurs </v>
       </c>
       <c r="C95" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -13649,11 +13808,11 @@
       </c>
       <c r="B96" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Créer un data lake pour tous les jeux de données</v>
+        <v>Restreindre l'accès de certaines fonctionnalités aux utilisateurs</v>
       </c>
       <c r="C96" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -13674,11 +13833,11 @@
       </c>
       <c r="B97" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Intégrer les jeux de données dans le data lake</v>
+        <v>Créer un data lake pour tous les jeux de données</v>
       </c>
       <c r="C97" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
@@ -13699,11 +13858,11 @@
       </c>
       <c r="B98" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Récupérer et éditer les informations du data lake</v>
+        <v>Intégrer les jeux de données dans le data lake</v>
       </c>
       <c r="C98" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
@@ -13724,11 +13883,11 @@
       </c>
       <c r="B99" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Créer un exécutable</v>
+        <v>Récupérer et éditer les informations du data lake</v>
       </c>
       <c r="C99" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
@@ -13747,13 +13906,13 @@
         <f>TachesBonus[[#This Row],[N°]]</f>
         <v>95</v>
       </c>
-      <c r="B100" s="8" t="str">
+      <c r="B100" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Se documenter sur les directives quant à la gestion des déchets</v>
+        <v>Créer un exécutable</v>
       </c>
       <c r="C100" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
@@ -13774,7 +13933,7 @@
       </c>
       <c r="B101" s="8" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Evaluer la conformité de la CACPL vis-à-vis des directives sur les déchets</v>
+        <v>Se documenter sur les directives quant à la gestion des déchets</v>
       </c>
       <c r="C101" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -13799,7 +13958,7 @@
       </c>
       <c r="B102" s="8" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Collecter les données et résultats de collecte d'autres villes</v>
+        <v>Evaluer la conformité de la CACPL vis-à-vis des directives sur les déchets</v>
       </c>
       <c r="C102" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -13824,7 +13983,7 @@
       </c>
       <c r="B103" s="8" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Comparer les dispositifs de collecte et résultats de la CACPL avec ceux d'autres villes</v>
+        <v>Collecter les données et résultats de collecte d'autres villes</v>
       </c>
       <c r="C103" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -13849,7 +14008,7 @@
       </c>
       <c r="B104" s="8" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Récupérer les données pertinentes sur le site de Météo-France</v>
+        <v>Comparer les dispositifs de collecte et résultats de la CACPL avec ceux d'autres villes</v>
       </c>
       <c r="C104" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -13874,11 +14033,11 @@
       </c>
       <c r="B105" s="8" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Détecter et prévoir l'utilisation des collecteurs selon la météo</v>
+        <v>Récupérer les données pertinentes sur le site de Météo-France</v>
       </c>
       <c r="C105" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
@@ -13899,11 +14058,11 @@
       </c>
       <c r="B106" s="8" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Récupérer les information météorologiques en continu</v>
+        <v>Détecter et prévoir l'utilisation des collecteurs selon la météo</v>
       </c>
       <c r="C106" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
@@ -13924,11 +14083,11 @@
       </c>
       <c r="B107" s="8" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Afficher sur la carte les filtres météo</v>
+        <v>Récupérer les information météorologiques en continu</v>
       </c>
       <c r="C107" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
@@ -13949,7 +14108,7 @@
       </c>
       <c r="B108" s="8" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Actualiser les prévisions de collecte sur la carte selon la météo</v>
+        <v>Afficher sur la carte les filtres météo</v>
       </c>
       <c r="C108" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -13968,13 +14127,28 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="53"/>
-      <c r="G109" s="2"/>
+      <c r="A109" s="8">
+        <f>TachesBonus[[#This Row],[N°]]</f>
+        <v>104</v>
+      </c>
+      <c r="B109" s="8" t="str">
+        <f>TachesBonus[[#This Row],[Tâche]]</f>
+        <v>Actualiser les prévisions de collecte sur la carte selon la météo</v>
+      </c>
+      <c r="C109" s="14">
+        <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
+        <v>1</v>
+      </c>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="53">
+        <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G109" s="14" t="str">
+        <f>IF(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal8[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]],"")</f>
+        <v/>
+      </c>
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -14026,6 +14200,16 @@
       <c r="F114" s="53"/>
       <c r="G114" s="2"/>
       <c r="H114" s="1"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="53"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14049,12 +14233,12 @@
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="0" gte="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53:F108">
+  <conditionalFormatting sqref="F53:F109">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -14066,12 +14250,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G53:G108">
+  <conditionalFormatting sqref="G53:G109">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="0" gte="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>

--- a/doc/avancement Cliiink.xlsx
+++ b/doc/avancement Cliiink.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Desktop\cliiink\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BEDC90-A089-45BD-B96B-53ED6A55B9BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4132CEF-9932-4799-A10D-3A18DCD7E833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1176,7 +1176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1205,15 +1205,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1484,9 +1475,46 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="dotted">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="4"/>
+      </left>
+      <right style="dotted">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -1495,10 +1523,25 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="dotted">
+        <color theme="4"/>
+      </right>
+      <top style="dotted">
+        <color theme="4"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="4"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1518,46 +1561,44 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1565,15 +1606,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1586,191 +1637,44 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="138">
+  <dxfs count="127">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2464,21 +2368,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3576,6 +3465,83 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3658,12 +3624,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{796DFFDF-5600-4057-A29E-6EE432E54146}" name="TachesPrincipales" displayName="TachesPrincipales" ref="A3:G50" totalsRowShown="0">
   <autoFilter ref="A3:G50" xr:uid="{B67725D0-F42F-4B2C-B47E-8586BF5DC6C0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6E8FD53C-BEFD-4457-9FA3-9A8A100CC664}" name="N°" dataDxfId="137">
+    <tableColumn id="1" xr3:uid="{6E8FD53C-BEFD-4457-9FA3-9A8A100CC664}" name="N°" dataDxfId="126">
       <calculatedColumnFormula>ROW()-3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{0069C765-7645-4FD3-9F29-24B7F0C7634C}" name="Tâche"/>
-    <tableColumn id="3" xr3:uid="{A25A25B7-8C3E-419A-9CE3-9FE932DABE3D}" name="Travail (en jours-hommes)" dataDxfId="136"/>
-    <tableColumn id="4" xr3:uid="{A944CAD8-E89F-426E-8FB6-A3FB74D322BE}" name="Tâches requises" dataDxfId="135"/>
+    <tableColumn id="3" xr3:uid="{A25A25B7-8C3E-419A-9CE3-9FE932DABE3D}" name="Travail (en jours-hommes)" dataDxfId="125"/>
+    <tableColumn id="4" xr3:uid="{A944CAD8-E89F-426E-8FB6-A3FB74D322BE}" name="Tâches requises" dataDxfId="124"/>
     <tableColumn id="5" xr3:uid="{A3676B2D-BC63-48C5-A4B6-B4EB56D87918}" name="Objectifs"/>
     <tableColumn id="6" xr3:uid="{01DF4278-05CC-4D78-B336-D2F095AF927E}" name="Critères d’achèvement"/>
     <tableColumn id="7" xr3:uid="{99493734-498F-43D2-92ED-EAA3DB0F4B00}" name="Livrables"/>
@@ -3673,15 +3639,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9F70FDBF-93E5-4529-8B86-C46B44C9F1C9}" name="TachesBonus" displayName="TachesBonus" ref="A52:G109" totalsRowShown="0" headerRowDxfId="134" headerRowBorderDxfId="133" tableBorderDxfId="132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9F70FDBF-93E5-4529-8B86-C46B44C9F1C9}" name="TachesBonus" displayName="TachesBonus" ref="A52:G109" totalsRowShown="0" headerRowDxfId="123" headerRowBorderDxfId="122" tableBorderDxfId="121">
   <autoFilter ref="A52:G109" xr:uid="{6375B6D4-F047-429E-A127-A4478080FC25}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6333C598-AB08-4105-92D3-D88D2B08DCCB}" name="N°" dataDxfId="131">
+    <tableColumn id="1" xr3:uid="{6333C598-AB08-4105-92D3-D88D2B08DCCB}" name="N°" dataDxfId="120">
       <calculatedColumnFormula>ROW()-5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{53B86B66-0396-4D8B-B984-B80A4F587612}" name="Tâche"/>
-    <tableColumn id="3" xr3:uid="{D23D171C-1F80-4C5B-B986-46C3CCC8AE38}" name="Travail (en jours-hommes)" dataDxfId="130"/>
-    <tableColumn id="4" xr3:uid="{E0E75BF9-64EA-4FE8-90E4-1AAA1CED01EF}" name="Tâches requises" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{D23D171C-1F80-4C5B-B986-46C3CCC8AE38}" name="Travail (en jours-hommes)" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{E0E75BF9-64EA-4FE8-90E4-1AAA1CED01EF}" name="Tâches requises" dataDxfId="118"/>
     <tableColumn id="5" xr3:uid="{78EA56D9-206B-4896-BDD8-ECE5895F3943}" name="Objectifs"/>
     <tableColumn id="6" xr3:uid="{537B5B27-0138-4B69-AACD-BA754420310A}" name="Critères d’achèvement"/>
     <tableColumn id="7" xr3:uid="{F5B2842E-F201-4E20-BBB3-296B792E130C}" name="Livrables"/>
@@ -3691,140 +3657,140 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E08C3540-563F-4309-961F-3A2D48BF908C}" name="PlanningPrincipal" displayName="PlanningPrincipal" ref="A4:AD51" headerRowDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E08C3540-563F-4309-961F-3A2D48BF908C}" name="PlanningPrincipal" displayName="PlanningPrincipal" ref="A4:AD51" headerRowDxfId="106">
   <autoFilter ref="A4:AD51" xr:uid="{3869585A-DD74-4715-8B08-BD2783F0B46B}"/>
   <tableColumns count="30">
-    <tableColumn id="31" xr3:uid="{02974BA7-1E46-4150-A100-3503892E7F24}" name="N°" dataDxfId="127" totalsRowDxfId="126">
+    <tableColumn id="31" xr3:uid="{02974BA7-1E46-4150-A100-3503892E7F24}" name="N°" dataDxfId="105" totalsRowDxfId="104">
       <calculatedColumnFormula>Tâches!A4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{B537D5E3-048F-47B6-A4D3-4925E570D546}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{9B7DC595-B3F0-4BA6-A2B3-7B3F96E6422C}" name="Tâche" dataDxfId="125" totalsRowDxfId="124">
+    <tableColumn id="2" xr3:uid="{9B7DC595-B3F0-4BA6-A2B3-7B3F96E6422C}" name="Tâche" dataDxfId="103" totalsRowDxfId="102">
       <calculatedColumnFormula>Tâches!B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7CF5EF96-F7EA-4081-A9F6-C6030E29374A}" name="05-oct" dataDxfId="123" totalsRowDxfId="122"/>
-    <tableColumn id="4" xr3:uid="{AED08872-92A3-48EC-9686-65D32A38B01C}" name="06-oct" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="5" xr3:uid="{A361D231-81F6-4E0E-9D68-F198542EC510}" name="07-oct" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="6" xr3:uid="{95C7985A-0503-4B82-A39B-7087B64C463E}" name="08-oct" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="7" xr3:uid="{223BBA38-BBF5-4596-9520-B3C80EF77B2C}" name="09-oct" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{CBA2CED5-BFCD-478D-BC0B-64F7236665B8}" name="10-oct" dataDxfId="113" totalsRowDxfId="112"/>
-    <tableColumn id="9" xr3:uid="{9142E539-6B94-44F9-AE32-D9D0257404D4}" name="11-oct" dataDxfId="111" totalsRowDxfId="110"/>
-    <tableColumn id="10" xr3:uid="{3DF50CC7-E072-416C-9E4D-77F99E3AFEE4}" name="12-oct" dataDxfId="109" totalsRowDxfId="108"/>
-    <tableColumn id="11" xr3:uid="{1BA6AA9C-31C1-4DF3-AB9B-EE58F953EA7B}" name="13-oct" dataDxfId="107" totalsRowDxfId="106"/>
-    <tableColumn id="12" xr3:uid="{E3903BB0-7B8A-45F4-8E32-0DEC3020D2C7}" name="14-oct" dataDxfId="105" totalsRowDxfId="104"/>
-    <tableColumn id="13" xr3:uid="{902C3056-E350-4CB3-8791-82ADD700A68A}" name="15-oct" dataDxfId="103" totalsRowDxfId="102"/>
-    <tableColumn id="14" xr3:uid="{54609321-2FA1-4A62-830E-30F3A492893D}" name="16-oct" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="15" xr3:uid="{3F1B4408-EFA2-430D-89AE-07B73C0F975A}" name="17-oct" dataDxfId="99" totalsRowDxfId="98"/>
-    <tableColumn id="16" xr3:uid="{6DC91AA7-F87C-4075-9A2A-AF1EB7BCC95B}" name="18-oct" dataDxfId="97" totalsRowDxfId="96"/>
-    <tableColumn id="17" xr3:uid="{0AA6E344-3437-43D3-992F-24D8117454B9}" name="19-oct" dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="18" xr3:uid="{96D8D6A9-008E-484B-B7B4-28ABA94491F0}" name="20-oct" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="19" xr3:uid="{C6993608-949D-47F9-B239-5455810AAC64}" name="21-oct" dataDxfId="91" totalsRowDxfId="90"/>
-    <tableColumn id="20" xr3:uid="{D1F65972-7A93-4F3D-9DD9-0066440F9CD3}" name="22-oct" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="21" xr3:uid="{2491BABE-5995-4D9B-9106-2E6B37978835}" name="23-oct" dataDxfId="87" totalsRowDxfId="86"/>
-    <tableColumn id="22" xr3:uid="{AFD0F5C6-D453-44A7-A7A2-E80250827459}" name="24-oct" dataDxfId="85" totalsRowDxfId="84"/>
-    <tableColumn id="23" xr3:uid="{05DEBB6A-759F-4C9F-AF39-B31DA26929B5}" name="25-oct" dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="24" xr3:uid="{0F14F7F0-8C7B-47D9-A425-10B6AB326102}" name="26-oct" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="25" xr3:uid="{F63019F4-1021-4A1C-AD12-1FA5B5EAC831}" name="27-oct" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="26" xr3:uid="{A0FA9325-6D8A-4E3F-841E-0A51A69AA21F}" name="28-oct" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="27" xr3:uid="{01390279-2B86-4CDA-AACC-12D48EE68027}" name="29-oct" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="28" xr3:uid="{9E31ED4A-02CE-4F4A-8A83-5681191E9E9E}" name="30-oct" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="29" xr3:uid="{885B064E-7B13-4C56-B53C-04028C7E7B19}" name="31-oct" totalsRowFunction="count" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{7CF5EF96-F7EA-4081-A9F6-C6030E29374A}" name="05-oct" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{AED08872-92A3-48EC-9686-65D32A38B01C}" name="06-oct" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="5" xr3:uid="{A361D231-81F6-4E0E-9D68-F198542EC510}" name="07-oct" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{95C7985A-0503-4B82-A39B-7087B64C463E}" name="08-oct" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="7" xr3:uid="{223BBA38-BBF5-4596-9520-B3C80EF77B2C}" name="09-oct" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="8" xr3:uid="{CBA2CED5-BFCD-478D-BC0B-64F7236665B8}" name="10-oct" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="9" xr3:uid="{9142E539-6B94-44F9-AE32-D9D0257404D4}" name="11-oct" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="10" xr3:uid="{3DF50CC7-E072-416C-9E4D-77F99E3AFEE4}" name="12-oct" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="11" xr3:uid="{1BA6AA9C-31C1-4DF3-AB9B-EE58F953EA7B}" name="13-oct" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="12" xr3:uid="{E3903BB0-7B8A-45F4-8E32-0DEC3020D2C7}" name="14-oct" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="13" xr3:uid="{902C3056-E350-4CB3-8791-82ADD700A68A}" name="15-oct" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="14" xr3:uid="{54609321-2FA1-4A62-830E-30F3A492893D}" name="16-oct" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="15" xr3:uid="{3F1B4408-EFA2-430D-89AE-07B73C0F975A}" name="17-oct" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="16" xr3:uid="{6DC91AA7-F87C-4075-9A2A-AF1EB7BCC95B}" name="18-oct" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="17" xr3:uid="{0AA6E344-3437-43D3-992F-24D8117454B9}" name="19-oct" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="18" xr3:uid="{96D8D6A9-008E-484B-B7B4-28ABA94491F0}" name="20-oct" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="19" xr3:uid="{C6993608-949D-47F9-B239-5455810AAC64}" name="21-oct" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="20" xr3:uid="{D1F65972-7A93-4F3D-9DD9-0066440F9CD3}" name="22-oct" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="21" xr3:uid="{2491BABE-5995-4D9B-9106-2E6B37978835}" name="23-oct" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="22" xr3:uid="{AFD0F5C6-D453-44A7-A7A2-E80250827459}" name="24-oct" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="23" xr3:uid="{05DEBB6A-759F-4C9F-AF39-B31DA26929B5}" name="25-oct" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="24" xr3:uid="{0F14F7F0-8C7B-47D9-A425-10B6AB326102}" name="26-oct" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="25" xr3:uid="{F63019F4-1021-4A1C-AD12-1FA5B5EAC831}" name="27-oct" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="26" xr3:uid="{A0FA9325-6D8A-4E3F-841E-0A51A69AA21F}" name="28-oct" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="27" xr3:uid="{01390279-2B86-4CDA-AACC-12D48EE68027}" name="29-oct" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="28" xr3:uid="{9E31ED4A-02CE-4F4A-8A83-5681191E9E9E}" name="30-oct" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="29" xr3:uid="{885B064E-7B13-4C56-B53C-04028C7E7B19}" name="31-oct" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{949F634D-FB76-42BC-8AD2-845CBF052EB4}" name="PlanningBonus" displayName="PlanningBonus" ref="A54:AD111" totalsRowShown="0" headerRowDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{949F634D-FB76-42BC-8AD2-845CBF052EB4}" name="PlanningBonus" displayName="PlanningBonus" ref="A54:AD111" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="A54:AD111" xr:uid="{C72AC31B-BC16-4ED0-A742-6FDD0EBB8631}"/>
   <tableColumns count="30">
-    <tableColumn id="30" xr3:uid="{A9929115-DAFC-40AE-A75F-89D94A3A6E3E}" name="N°" dataDxfId="68">
+    <tableColumn id="30" xr3:uid="{A9929115-DAFC-40AE-A75F-89D94A3A6E3E}" name="N°" dataDxfId="46">
       <calculatedColumnFormula>Tâches!A53</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{D9389245-51FF-4B4C-8D41-B0C82DF9FA75}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{725C423E-FCC3-4D2B-A7B1-04718A631379}" name="Tâche" dataDxfId="67">
-      <calculatedColumnFormula>Tâches!B54</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{725C423E-FCC3-4D2B-A7B1-04718A631379}" name="Tâche" dataDxfId="0">
+      <calculatedColumnFormula>Tâches!B53</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3E9DBF51-63AA-41C7-8026-17B53B0A9B6C}" name="05-oct" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{82D5CCDD-F94F-4AD0-87E3-71A24CD87405}" name="06-oct" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{BE2F3F2A-9776-4093-805A-312DDC6F80FE}" name="07-oct" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{C1BB4810-F8A8-4B1C-BEFF-BCD91A7CBE63}" name="08-oct" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{81533870-EEB5-4296-AE2B-E1E0C4B449EA}" name="09-oct" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{5614AF65-2E97-4A81-93F3-4BF71D68BA64}" name="10-oct" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{68ABF0CA-AF48-4143-8348-D852DD541BEA}" name="11-oct" dataDxfId="60"/>
-    <tableColumn id="10" xr3:uid="{D00B30BB-B608-47A8-A909-B3CCE0CD31F7}" name="12-oct" dataDxfId="59"/>
-    <tableColumn id="11" xr3:uid="{E0989A06-4A1E-4309-B9D8-FFF15CEF945C}" name="13-oct" dataDxfId="58"/>
-    <tableColumn id="12" xr3:uid="{1779F27B-A65D-4938-A036-4979FC026FF9}" name="14-oct" dataDxfId="57"/>
-    <tableColumn id="13" xr3:uid="{22F38C55-7716-4548-902D-BF65239896B9}" name="15-oct" dataDxfId="56"/>
-    <tableColumn id="14" xr3:uid="{0379C43C-369A-4D33-98C8-09F6AB1138A5}" name="16-oct" dataDxfId="55"/>
-    <tableColumn id="15" xr3:uid="{95071E30-9EB4-4F6F-863F-5DDBD2FC2727}" name="17-oct" dataDxfId="54"/>
-    <tableColumn id="16" xr3:uid="{57019D85-E364-4C2A-8EDF-EECF1621D7F4}" name="18-oct" dataDxfId="53"/>
-    <tableColumn id="17" xr3:uid="{E1AB2C2B-7642-4E82-9C5D-D1EBE0244AAA}" name="19-oct" dataDxfId="52"/>
-    <tableColumn id="18" xr3:uid="{109FE92E-C236-400D-8A95-114BD055E9DA}" name="20-oct" dataDxfId="51"/>
-    <tableColumn id="19" xr3:uid="{F53D6821-A790-4CAC-82E2-E3B0BA8021AD}" name="21-oct" dataDxfId="50"/>
-    <tableColumn id="20" xr3:uid="{E29FFFEE-7FB8-414D-BCCD-0CBC972A8026}" name="22-oct" dataDxfId="49"/>
-    <tableColumn id="21" xr3:uid="{143958D3-765B-428D-A750-762564AFF52B}" name="23-oct" dataDxfId="48"/>
-    <tableColumn id="22" xr3:uid="{F6E67B4D-280E-47A5-AF79-5FF172D2E5C7}" name="24-oct" dataDxfId="47"/>
-    <tableColumn id="23" xr3:uid="{A16D3DC4-7696-40A7-8B9F-1454BEC9DBC2}" name="25-oct" dataDxfId="46"/>
-    <tableColumn id="24" xr3:uid="{218180A7-E150-4120-8AE9-6723F56E1D9B}" name="26-oct" dataDxfId="45"/>
-    <tableColumn id="25" xr3:uid="{AFF74DA3-B552-40C8-A8FE-1E5490C0DC0B}" name="27-oct" dataDxfId="44"/>
-    <tableColumn id="26" xr3:uid="{38E7E763-F0C2-4BFE-A84B-1E26140C2250}" name="28-oct" dataDxfId="43"/>
-    <tableColumn id="27" xr3:uid="{988E4DC2-CA0F-4098-B08C-759F208CFD2A}" name="29-oct" dataDxfId="42"/>
-    <tableColumn id="28" xr3:uid="{539EA04B-D1E5-47FC-9E69-E37BB7704D5C}" name="30-oct" dataDxfId="41"/>
-    <tableColumn id="29" xr3:uid="{21E9E5C4-8D23-454B-8A91-1CF8DA5078B0}" name="31-oct" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{3E9DBF51-63AA-41C7-8026-17B53B0A9B6C}" name="05-oct" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{82D5CCDD-F94F-4AD0-87E3-71A24CD87405}" name="06-oct" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{BE2F3F2A-9776-4093-805A-312DDC6F80FE}" name="07-oct" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{C1BB4810-F8A8-4B1C-BEFF-BCD91A7CBE63}" name="08-oct" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{81533870-EEB5-4296-AE2B-E1E0C4B449EA}" name="09-oct" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{5614AF65-2E97-4A81-93F3-4BF71D68BA64}" name="10-oct" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{68ABF0CA-AF48-4143-8348-D852DD541BEA}" name="11-oct" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{D00B30BB-B608-47A8-A909-B3CCE0CD31F7}" name="12-oct" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{E0989A06-4A1E-4309-B9D8-FFF15CEF945C}" name="13-oct" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{1779F27B-A65D-4938-A036-4979FC026FF9}" name="14-oct" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{22F38C55-7716-4548-902D-BF65239896B9}" name="15-oct" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{0379C43C-369A-4D33-98C8-09F6AB1138A5}" name="16-oct" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{95071E30-9EB4-4F6F-863F-5DDBD2FC2727}" name="17-oct" dataDxfId="33"/>
+    <tableColumn id="16" xr3:uid="{57019D85-E364-4C2A-8EDF-EECF1621D7F4}" name="18-oct" dataDxfId="32"/>
+    <tableColumn id="17" xr3:uid="{E1AB2C2B-7642-4E82-9C5D-D1EBE0244AAA}" name="19-oct" dataDxfId="31"/>
+    <tableColumn id="18" xr3:uid="{109FE92E-C236-400D-8A95-114BD055E9DA}" name="20-oct" dataDxfId="30"/>
+    <tableColumn id="19" xr3:uid="{F53D6821-A790-4CAC-82E2-E3B0BA8021AD}" name="21-oct" dataDxfId="29"/>
+    <tableColumn id="20" xr3:uid="{E29FFFEE-7FB8-414D-BCCD-0CBC972A8026}" name="22-oct" dataDxfId="28"/>
+    <tableColumn id="21" xr3:uid="{143958D3-765B-428D-A750-762564AFF52B}" name="23-oct" dataDxfId="27"/>
+    <tableColumn id="22" xr3:uid="{F6E67B4D-280E-47A5-AF79-5FF172D2E5C7}" name="24-oct" dataDxfId="26"/>
+    <tableColumn id="23" xr3:uid="{A16D3DC4-7696-40A7-8B9F-1454BEC9DBC2}" name="25-oct" dataDxfId="25"/>
+    <tableColumn id="24" xr3:uid="{218180A7-E150-4120-8AE9-6723F56E1D9B}" name="26-oct" dataDxfId="24"/>
+    <tableColumn id="25" xr3:uid="{AFF74DA3-B552-40C8-A8FE-1E5490C0DC0B}" name="27-oct" dataDxfId="23"/>
+    <tableColumn id="26" xr3:uid="{38E7E763-F0C2-4BFE-A84B-1E26140C2250}" name="28-oct" dataDxfId="22"/>
+    <tableColumn id="27" xr3:uid="{988E4DC2-CA0F-4098-B08C-759F208CFD2A}" name="29-oct" dataDxfId="21"/>
+    <tableColumn id="28" xr3:uid="{539EA04B-D1E5-47FC-9E69-E37BB7704D5C}" name="30-oct" dataDxfId="20"/>
+    <tableColumn id="29" xr3:uid="{21E9E5C4-8D23-454B-8A91-1CF8DA5078B0}" name="31-oct" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DEB2AD8-CEC3-48AA-9CF7-ED08DF8D0180}" name="AvancementPrincipal" displayName="AvancementPrincipal" ref="A3:H50" totalsRowShown="0" headerRowDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DEB2AD8-CEC3-48AA-9CF7-ED08DF8D0180}" name="AvancementPrincipal" displayName="AvancementPrincipal" ref="A3:H50" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="A3:H50" xr:uid="{6BCE8A7D-7D04-4394-AD53-9D2B48AA6CFD}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B07E0580-F8B1-4A81-8EA6-8D0DD94E6CBF}" name="N°" dataDxfId="38">
+    <tableColumn id="1" xr3:uid="{B07E0580-F8B1-4A81-8EA6-8D0DD94E6CBF}" name="N°" dataDxfId="17">
       <calculatedColumnFormula>TachesPrincipales[[#This Row],[N°]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CD2C34A8-4A66-4D31-8674-72875FEEBCB9}" name="Tâche" dataDxfId="37">
+    <tableColumn id="2" xr3:uid="{CD2C34A8-4A66-4D31-8674-72875FEEBCB9}" name="Tâche" dataDxfId="16">
       <calculatedColumnFormula>TachesPrincipales[[#This Row],[Tâche]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1F692755-0EBF-47B3-98F7-5870DAAA2B47}" name="Durée estimée (jours-hommes)" dataDxfId="36">
+    <tableColumn id="3" xr3:uid="{1F692755-0EBF-47B3-98F7-5870DAAA2B47}" name="Durée estimée (jours-hommes)" dataDxfId="15">
       <calculatedColumnFormula>TachesPrincipales[[#This Row],[Travail (en jours-hommes)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77A08BA6-0C47-4CA1-898D-34688079E99A}" name="Temps consacré (jours-hommes)" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{E6DFF25A-5C0F-4D2B-AD4B-356CCC3C697D}" name="Temps restant (jours-hommes)" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{80B25DCD-7C24-4853-87D7-112B68A75ACA}" name="Complétion" dataDxfId="33">
+    <tableColumn id="4" xr3:uid="{77A08BA6-0C47-4CA1-898D-34688079E99A}" name="Temps consacré (jours-hommes)" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{E6DFF25A-5C0F-4D2B-AD4B-356CCC3C697D}" name="Temps restant (jours-hommes)" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{80B25DCD-7C24-4853-87D7-112B68A75ACA}" name="Complétion" dataDxfId="12">
       <calculatedColumnFormula>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E98F81A4-15B7-43AA-8EE6-E47F2F7BDDBA}" name="Avance / Retard (jours-hommes)" dataDxfId="32">
+    <tableColumn id="9" xr3:uid="{E98F81A4-15B7-43AA-8EE6-E47F2F7BDDBA}" name="Avance / Retard (jours-hommes)" dataDxfId="11">
       <calculatedColumnFormula>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{19DBC3BA-BFF6-4123-B35C-1B58A7832A4B}" name="Commentaire" dataDxfId="31" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{19DBC3BA-BFF6-4123-B35C-1B58A7832A4B}" name="Commentaire" dataDxfId="10" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{04BF9D35-9277-48A6-B974-1A1D7A80EEAE}" name="AvancementPrincipal8" displayName="AvancementPrincipal8" ref="A52:H109" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{04BF9D35-9277-48A6-B974-1A1D7A80EEAE}" name="AvancementPrincipal8" displayName="AvancementPrincipal8" ref="A52:H109" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A52:H109" xr:uid="{43FC80CF-67C7-44CB-8AF9-C483360ED027}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{50AEF074-CE1B-4E86-81E2-68DBB744C39B}" name="N°" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{50AEF074-CE1B-4E86-81E2-68DBB744C39B}" name="N°" dataDxfId="8">
       <calculatedColumnFormula>TachesBonus[[#This Row],[N°]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{23C870F0-9110-4D2F-8665-88DA3D2D1265}" name="Tâche" dataDxfId="28">
+    <tableColumn id="2" xr3:uid="{23C870F0-9110-4D2F-8665-88DA3D2D1265}" name="Tâche" dataDxfId="7">
       <calculatedColumnFormula>TachesBonus[[#This Row],[Tâche]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{69BB17CC-DE87-420A-BBFA-062BF2BEF7AA}" name="Durée estimée (jours-hommes)" dataDxfId="27">
+    <tableColumn id="3" xr3:uid="{69BB17CC-DE87-420A-BBFA-062BF2BEF7AA}" name="Durée estimée (jours-hommes)" dataDxfId="6">
       <calculatedColumnFormula>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A14AEF2F-CFF6-4D95-9EB5-0A11BA283D4F}" name="Temps consacré (jours-hommes)" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{25E0D910-E053-4859-9A05-DA9FEEB0AC2A}" name="Temps restant (jours-hommes)" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{5E4CFA2C-63BF-45F7-9435-50DEBD5B0D2E}" name="Complétion" dataDxfId="24">
+    <tableColumn id="4" xr3:uid="{A14AEF2F-CFF6-4D95-9EB5-0A11BA283D4F}" name="Temps consacré (jours-hommes)" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{25E0D910-E053-4859-9A05-DA9FEEB0AC2A}" name="Temps restant (jours-hommes)" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{5E4CFA2C-63BF-45F7-9435-50DEBD5B0D2E}" name="Complétion" dataDxfId="3">
       <calculatedColumnFormula>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B0B94A9D-C385-47C1-9326-CF1085FB5FB7}" name="Avance / Retard (jours-hommes)" dataDxfId="23">
+    <tableColumn id="9" xr3:uid="{B0B94A9D-C385-47C1-9326-CF1085FB5FB7}" name="Avance / Retard (jours-hommes)" dataDxfId="2">
       <calculatedColumnFormula>IF(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal8[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3B743E05-8FA8-4C6C-91C3-7DC6C79CF839}" name="Commentaire" dataDxfId="22" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{3B743E05-8FA8-4C6C-91C3-7DC6C79CF839}" name="Commentaire" dataDxfId="1" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4096,7 +4062,7 @@
   <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4111,26 +4077,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5268,15 +5234,15 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -5326,7 +5292,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="66">
+      <c r="A54" s="53">
         <f>ROW()-5</f>
         <v>49</v>
       </c>
@@ -6802,8 +6768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54278537-4330-487B-8B1E-186EA2F14073}">
   <dimension ref="A1:XFD122"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6815,114 +6781,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30 16384:16384" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
     </row>
     <row r="2" spans="1:30 16384:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
     </row>
     <row r="3" spans="1:30 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="67" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="62" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="70" t="s">
         <v>307</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="62" t="s">
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="70" t="s">
         <v>308</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="62" t="s">
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="70" t="s">
         <v>309</v>
       </c>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="63" t="s">
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="71" t="s">
         <v>310</v>
       </c>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="64"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="72"/>
     </row>
     <row r="4" spans="1:30 16384:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -6934,7 +6900,7 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="36" t="s">
         <v>279</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -7029,9 +6995,9 @@
         <v>Etablir le cahier des charges</v>
       </c>
       <c r="D5" s="24"/>
-      <c r="E5" s="39"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="39"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="25"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
@@ -7071,8 +7037,8 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="21"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -7112,9 +7078,9 @@
       <c r="D7" s="22"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="47"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
@@ -7155,8 +7121,8 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="20"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="42"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="40"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -7189,7 +7155,7 @@
         <f>Tâches!B8</f>
         <v>Créer le dépôt GitHub du stage</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -7229,8 +7195,8 @@
         <f>Tâches!B9</f>
         <v>Mettre en place la méthodologie agile de travail et l'outil de gestion</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -7276,7 +7242,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="43"/>
+      <c r="K11" s="41"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
@@ -7310,7 +7276,7 @@
         <v>Créer le dictionnaire des données initiales de la CACPL</v>
       </c>
       <c r="D12" s="22"/>
-      <c r="E12" s="40"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
@@ -7350,7 +7316,7 @@
         <v>Créer le modèle conceptuel des données initiales de la CACPL</v>
       </c>
       <c r="D13" s="22"/>
-      <c r="E13" s="40"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
@@ -7390,7 +7356,7 @@
         <v>Créer le modèle logique des données initiales de la CACPL</v>
       </c>
       <c r="D14" s="22"/>
-      <c r="E14" s="40"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
@@ -7430,7 +7396,7 @@
         <v>Créer le modèle relationnel des données initiales de la CACPL</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="40"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -7478,7 +7444,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
-      <c r="M16" s="54"/>
+      <c r="M16" s="52"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
       <c r="P16" s="20"/>
@@ -7516,8 +7482,8 @@
       <c r="H17" s="21"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
@@ -7558,7 +7524,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
-      <c r="M18" s="43"/>
+      <c r="M18" s="41"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
       <c r="P18" s="20"/>
@@ -7598,7 +7564,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
-      <c r="M19" s="43"/>
+      <c r="M19" s="41"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="P19" s="20"/>
@@ -7639,8 +7605,8 @@
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="21"/>
@@ -7680,7 +7646,7 @@
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
+      <c r="O21" s="41"/>
       <c r="P21" s="20"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="21"/>
@@ -7712,7 +7678,7 @@
       <c r="D22" s="22"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="43"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="21"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -8473,7 +8439,7 @@
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
-      <c r="H41" s="45"/>
+      <c r="H41" s="43"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
       <c r="K41" s="21"/>
@@ -8673,7 +8639,7 @@
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
-      <c r="H46" s="46"/>
+      <c r="H46" s="44"/>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="21"/>
@@ -8858,120 +8824,120 @@
       <c r="AD50" s="23"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A51" s="31">
+      <c r="A51" s="30">
         <f>Tâches!A50</f>
         <v>47</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="31" t="str">
+      <c r="C51" s="30" t="str">
         <f>Tâches!B50</f>
         <v>Déboguer la solution</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="33"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="33"/>
-      <c r="Z51" s="33"/>
-      <c r="AA51" s="33"/>
-      <c r="AB51" s="33"/>
-      <c r="AC51" s="33"/>
-      <c r="AD51" s="35"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="33"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="32"/>
+      <c r="AD51" s="34"/>
     </row>
     <row r="52" spans="1:30" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="61"/>
-      <c r="M52" s="61"/>
-      <c r="N52" s="61"/>
-      <c r="O52" s="61"/>
-      <c r="P52" s="61"/>
-      <c r="Q52" s="61"/>
-      <c r="R52" s="61"/>
-      <c r="S52" s="61"/>
-      <c r="T52" s="61"/>
-      <c r="U52" s="61"/>
-      <c r="V52" s="61"/>
-      <c r="W52" s="61"/>
-      <c r="X52" s="61"/>
-      <c r="Y52" s="61"/>
-      <c r="Z52" s="61"/>
-      <c r="AA52" s="61"/>
-      <c r="AB52" s="61"/>
-      <c r="AC52" s="61"/>
-      <c r="AD52" s="61"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="69"/>
+      <c r="S52" s="69"/>
+      <c r="T52" s="69"/>
+      <c r="U52" s="69"/>
+      <c r="V52" s="69"/>
+      <c r="W52" s="69"/>
+      <c r="X52" s="69"/>
+      <c r="Y52" s="69"/>
+      <c r="Z52" s="69"/>
+      <c r="AA52" s="69"/>
+      <c r="AB52" s="69"/>
+      <c r="AC52" s="69"/>
+      <c r="AD52" s="69"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="67" t="s">
         <v>317</v>
       </c>
-      <c r="B53" s="59"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="62" t="s">
+      <c r="B53" s="67"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="70" t="s">
         <v>307</v>
       </c>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="62" t="s">
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="70" t="s">
         <v>308</v>
       </c>
-      <c r="L53" s="63"/>
-      <c r="M53" s="63"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="63"/>
-      <c r="P53" s="63"/>
-      <c r="Q53" s="64"/>
-      <c r="R53" s="62" t="s">
+      <c r="L53" s="71"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="70" t="s">
         <v>309</v>
       </c>
-      <c r="S53" s="63"/>
-      <c r="T53" s="63"/>
-      <c r="U53" s="63"/>
-      <c r="V53" s="63"/>
-      <c r="W53" s="63"/>
-      <c r="X53" s="64"/>
-      <c r="Y53" s="63" t="s">
+      <c r="S53" s="71"/>
+      <c r="T53" s="71"/>
+      <c r="U53" s="71"/>
+      <c r="V53" s="71"/>
+      <c r="W53" s="71"/>
+      <c r="X53" s="72"/>
+      <c r="Y53" s="71" t="s">
         <v>310</v>
       </c>
-      <c r="Z53" s="63"/>
-      <c r="AA53" s="63"/>
-      <c r="AB53" s="63"/>
-      <c r="AC53" s="63"/>
-      <c r="AD53" s="64"/>
+      <c r="Z53" s="71"/>
+      <c r="AA53" s="71"/>
+      <c r="AB53" s="71"/>
+      <c r="AC53" s="71"/>
+      <c r="AD53" s="72"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
@@ -9066,84 +9032,84 @@
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A55" s="67">
+      <c r="A55" s="56">
         <f>Tâches!A53</f>
         <v>48</v>
       </c>
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="C55" s="27" t="str">
+      <c r="C55" s="58" t="str">
         <f>Tâches!B53</f>
         <v>Gérer les UUID</v>
       </c>
-      <c r="D55" s="68"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="69"/>
-      <c r="N55" s="69"/>
-      <c r="O55" s="69"/>
-      <c r="P55" s="70"/>
-      <c r="Q55" s="70"/>
-      <c r="R55" s="69"/>
-      <c r="S55" s="69"/>
-      <c r="T55" s="69"/>
-      <c r="U55" s="69"/>
-      <c r="V55" s="69"/>
-      <c r="W55" s="70"/>
-      <c r="X55" s="70"/>
-      <c r="Y55" s="69"/>
-      <c r="Z55" s="69"/>
-      <c r="AA55" s="69"/>
-      <c r="AB55" s="69"/>
-      <c r="AC55" s="69"/>
-      <c r="AD55" s="72"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="55"/>
+      <c r="S55" s="55"/>
+      <c r="T55" s="55"/>
+      <c r="U55" s="55"/>
+      <c r="V55" s="55"/>
+      <c r="W55" s="59"/>
+      <c r="X55" s="59"/>
+      <c r="Y55" s="55"/>
+      <c r="Z55" s="55"/>
+      <c r="AA55" s="55"/>
+      <c r="AB55" s="55"/>
+      <c r="AC55" s="55"/>
+      <c r="AD55" s="59"/>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="17">
-        <f>Tâches!A53</f>
-        <v>48</v>
+      <c r="A56" s="56">
+        <f>Tâches!A54</f>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
         <v>316</v>
       </c>
-      <c r="C56" s="17" t="str">
+      <c r="C56" s="18" t="str">
         <f>Tâches!B54</f>
         <v>Analyser et explorer les données SIRENE de l'INSEE</v>
       </c>
-      <c r="D56" s="24"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="25"/>
-      <c r="U56" s="25"/>
-      <c r="V56" s="25"/>
-      <c r="W56" s="19"/>
-      <c r="X56" s="19"/>
-      <c r="Y56" s="25"/>
-      <c r="Z56" s="25"/>
-      <c r="AA56" s="25"/>
-      <c r="AB56" s="25"/>
-      <c r="AC56" s="25"/>
-      <c r="AD56" s="26"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="55"/>
+      <c r="N56" s="55"/>
+      <c r="O56" s="55"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="55"/>
+      <c r="S56" s="55"/>
+      <c r="T56" s="55"/>
+      <c r="U56" s="55"/>
+      <c r="V56" s="55"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="55"/>
+      <c r="Z56" s="55"/>
+      <c r="AA56" s="55"/>
+      <c r="AB56" s="55"/>
+      <c r="AC56" s="55"/>
+      <c r="AD56" s="23"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
@@ -10993,17 +10959,17 @@
       <c r="B103" t="s">
         <v>320</v>
       </c>
-      <c r="C103" s="27" t="str">
+      <c r="C103" s="61" t="str">
         <f>Tâches!B101</f>
         <v>Se documenter sur les directives quant à la gestion des déchets</v>
       </c>
-      <c r="D103" s="22"/>
+      <c r="D103" s="60"/>
       <c r="E103" s="21"/>
       <c r="F103" s="21"/>
       <c r="G103" s="21"/>
       <c r="H103" s="21"/>
       <c r="I103" s="28"/>
-      <c r="J103" s="29"/>
+      <c r="J103" s="20"/>
       <c r="K103" s="21"/>
       <c r="L103" s="21"/>
       <c r="M103" s="21"/>
@@ -11033,17 +10999,17 @@
       <c r="B104" t="s">
         <v>319</v>
       </c>
-      <c r="C104" s="27" t="str">
+      <c r="C104" s="61" t="str">
         <f>Tâches!B102</f>
         <v>Evaluer la conformité de la CACPL vis-à-vis des directives sur les déchets</v>
       </c>
-      <c r="D104" s="22"/>
+      <c r="D104" s="60"/>
       <c r="E104" s="21"/>
       <c r="F104" s="21"/>
       <c r="G104" s="21"/>
       <c r="H104" s="21"/>
       <c r="I104" s="28"/>
-      <c r="J104" s="29"/>
+      <c r="J104" s="20"/>
       <c r="K104" s="21"/>
       <c r="L104" s="21"/>
       <c r="M104" s="21"/>
@@ -11073,17 +11039,17 @@
       <c r="B105" t="s">
         <v>320</v>
       </c>
-      <c r="C105" s="27" t="str">
+      <c r="C105" s="61" t="str">
         <f>Tâches!B103</f>
         <v>Collecter les données et résultats de collecte d'autres villes</v>
       </c>
-      <c r="D105" s="22"/>
+      <c r="D105" s="60"/>
       <c r="E105" s="21"/>
       <c r="F105" s="21"/>
       <c r="G105" s="21"/>
       <c r="H105" s="21"/>
       <c r="I105" s="28"/>
-      <c r="J105" s="29"/>
+      <c r="J105" s="20"/>
       <c r="K105" s="21"/>
       <c r="L105" s="21"/>
       <c r="M105" s="21"/>
@@ -11113,17 +11079,17 @@
       <c r="B106" t="s">
         <v>319</v>
       </c>
-      <c r="C106" s="27" t="str">
+      <c r="C106" s="61" t="str">
         <f>Tâches!B104</f>
         <v>Comparer les dispositifs de collecte et résultats de la CACPL avec ceux d'autres villes</v>
       </c>
-      <c r="D106" s="22"/>
+      <c r="D106" s="60"/>
       <c r="E106" s="21"/>
       <c r="F106" s="21"/>
       <c r="G106" s="21"/>
       <c r="H106" s="21"/>
       <c r="I106" s="28"/>
-      <c r="J106" s="29"/>
+      <c r="J106" s="20"/>
       <c r="K106" s="21"/>
       <c r="L106" s="21"/>
       <c r="M106" s="21"/>
@@ -11153,17 +11119,17 @@
       <c r="B107" t="s">
         <v>320</v>
       </c>
-      <c r="C107" s="27" t="str">
+      <c r="C107" s="61" t="str">
         <f>Tâches!B105</f>
         <v>Récupérer les données pertinentes sur le site de Météo-France</v>
       </c>
-      <c r="D107" s="22"/>
+      <c r="D107" s="60"/>
       <c r="E107" s="21"/>
       <c r="F107" s="21"/>
       <c r="G107" s="21"/>
       <c r="H107" s="21"/>
       <c r="I107" s="28"/>
-      <c r="J107" s="29"/>
+      <c r="J107" s="20"/>
       <c r="K107" s="21"/>
       <c r="L107" s="21"/>
       <c r="M107" s="21"/>
@@ -11193,17 +11159,17 @@
       <c r="B108" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="27" t="str">
+      <c r="C108" s="61" t="str">
         <f>Tâches!B106</f>
         <v>Détecter et prévoir l'utilisation des collecteurs selon la météo</v>
       </c>
-      <c r="D108" s="22"/>
+      <c r="D108" s="60"/>
       <c r="E108" s="21"/>
       <c r="F108" s="21"/>
       <c r="G108" s="21"/>
       <c r="H108" s="21"/>
       <c r="I108" s="28"/>
-      <c r="J108" s="29"/>
+      <c r="J108" s="20"/>
       <c r="K108" s="21"/>
       <c r="L108" s="21"/>
       <c r="M108" s="21"/>
@@ -11233,17 +11199,17 @@
       <c r="B109" t="s">
         <v>316</v>
       </c>
-      <c r="C109" s="27" t="str">
+      <c r="C109" s="61" t="str">
         <f>Tâches!B107</f>
         <v>Récupérer les information météorologiques en continu</v>
       </c>
-      <c r="D109" s="22"/>
+      <c r="D109" s="60"/>
       <c r="E109" s="21"/>
       <c r="F109" s="21"/>
       <c r="G109" s="21"/>
       <c r="H109" s="21"/>
       <c r="I109" s="28"/>
-      <c r="J109" s="29"/>
+      <c r="J109" s="20"/>
       <c r="K109" s="21"/>
       <c r="L109" s="21"/>
       <c r="M109" s="21"/>
@@ -11273,17 +11239,17 @@
       <c r="B110" t="s">
         <v>316</v>
       </c>
-      <c r="C110" s="27" t="str">
+      <c r="C110" s="61" t="str">
         <f>Tâches!B108</f>
         <v>Afficher sur la carte les filtres météo</v>
       </c>
-      <c r="D110" s="22"/>
+      <c r="D110" s="60"/>
       <c r="E110" s="21"/>
       <c r="F110" s="21"/>
       <c r="G110" s="21"/>
       <c r="H110" s="21"/>
       <c r="I110" s="28"/>
-      <c r="J110" s="29"/>
+      <c r="J110" s="20"/>
       <c r="K110" s="21"/>
       <c r="L110" s="21"/>
       <c r="M110" s="21"/>
@@ -11306,44 +11272,44 @@
       <c r="AD110" s="23"/>
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A111" s="36">
+      <c r="A111" s="35">
         <f>Tâches!A109</f>
         <v>104</v>
       </c>
-      <c r="B111" s="30" t="s">
+      <c r="B111" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C111" s="36" t="str">
+      <c r="C111" s="62" t="str">
         <f>Tâches!B109</f>
         <v>Actualiser les prévisions de collecte sur la carte selon la météo</v>
       </c>
       <c r="D111" s="32"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33"/>
-      <c r="I111" s="34"/>
-      <c r="J111" s="37"/>
-      <c r="K111" s="33"/>
-      <c r="L111" s="33"/>
-      <c r="M111" s="33"/>
-      <c r="N111" s="33"/>
-      <c r="O111" s="33"/>
-      <c r="P111" s="34"/>
-      <c r="Q111" s="34"/>
-      <c r="R111" s="33"/>
-      <c r="S111" s="33"/>
-      <c r="T111" s="33"/>
-      <c r="U111" s="33"/>
-      <c r="V111" s="33"/>
-      <c r="W111" s="34"/>
-      <c r="X111" s="34"/>
-      <c r="Y111" s="33"/>
-      <c r="Z111" s="33"/>
-      <c r="AA111" s="33"/>
-      <c r="AB111" s="33"/>
-      <c r="AC111" s="33"/>
-      <c r="AD111" s="35"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="33"/>
+      <c r="J111" s="33"/>
+      <c r="K111" s="32"/>
+      <c r="L111" s="32"/>
+      <c r="M111" s="32"/>
+      <c r="N111" s="32"/>
+      <c r="O111" s="32"/>
+      <c r="P111" s="33"/>
+      <c r="Q111" s="33"/>
+      <c r="R111" s="32"/>
+      <c r="S111" s="32"/>
+      <c r="T111" s="32"/>
+      <c r="U111" s="32"/>
+      <c r="V111" s="32"/>
+      <c r="W111" s="33"/>
+      <c r="X111" s="33"/>
+      <c r="Y111" s="32"/>
+      <c r="Z111" s="32"/>
+      <c r="AA111" s="32"/>
+      <c r="AB111" s="32"/>
+      <c r="AC111" s="32"/>
+      <c r="AD111" s="34"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="16"/>
@@ -11365,37 +11331,37 @@
     <mergeCell ref="Y3:AD3"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B51 B55:B111">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="1" operator="equal">
       <formula>"Programmation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="2" operator="equal">
       <formula>"Recherche"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="3" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="4" operator="equal">
       <formula>"Débogage"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="5" operator="equal">
       <formula>"Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="6" operator="equal">
       <formula>"Technique"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="7" operator="equal">
       <formula>"Web"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="9" operator="equal">
       <formula>"Gestion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="10" operator="equal">
       <formula>"Rédaction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="11" operator="equal">
       <formula>"Base de données"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="12" operator="equal">
       <formula>"Modélisation"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11412,8 +11378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11430,52 +11396,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="63" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="50" t="s">
         <v>43</v>
       </c>
     </row>
@@ -11496,7 +11462,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="53">
+      <c r="F4" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>1</v>
       </c>
@@ -11523,7 +11489,7 @@
         <v>1.5</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="53">
+      <c r="F5" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>1</v>
       </c>
@@ -11550,7 +11516,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="53">
+      <c r="F6" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>1</v>
       </c>
@@ -11577,7 +11543,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="53">
+      <c r="F7" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>1</v>
       </c>
@@ -11604,7 +11570,7 @@
         <v>0.5</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="53">
+      <c r="F8" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>1</v>
       </c>
@@ -11631,7 +11597,7 @@
         <v>0.5</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="53">
+      <c r="F9" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>1</v>
       </c>
@@ -11658,7 +11624,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="53">
+      <c r="F10" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>1</v>
       </c>
@@ -11685,7 +11651,7 @@
         <v>0.5</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="53">
+      <c r="F11" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>1</v>
       </c>
@@ -11712,7 +11678,7 @@
         <v>0.5</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="53">
+      <c r="F12" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>1</v>
       </c>
@@ -11739,7 +11705,7 @@
         <v>0.5</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="53">
+      <c r="F13" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>1</v>
       </c>
@@ -11766,7 +11732,7 @@
         <v>0.5</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="53">
+      <c r="F14" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>1</v>
       </c>
@@ -11793,7 +11759,7 @@
         <v>0.5</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="53">
+      <c r="F15" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>1</v>
       </c>
@@ -11820,7 +11786,7 @@
         <v>1.5</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="53">
+      <c r="F16" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>1</v>
       </c>
@@ -11847,7 +11813,7 @@
         <v>0.5</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="53">
+      <c r="F17" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>1</v>
       </c>
@@ -11874,7 +11840,7 @@
         <v>0.5</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="53">
+      <c r="F18" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>1</v>
       </c>
@@ -11897,15 +11863,19 @@
         <f>TachesPrincipales[[#This Row],[Travail (en jours-hommes)]]</f>
         <v>1</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="53">
+      <c r="D19" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="14">
+        <f>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</f>
         <v>0</v>
-      </c>
-      <c r="G19" s="14" t="str">
-        <f>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</f>
-        <v/>
       </c>
       <c r="H19" s="1"/>
     </row>
@@ -11924,7 +11894,7 @@
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="53">
+      <c r="F20" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -11951,7 +11921,7 @@
         <v>0.5</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="53">
+      <c r="F21" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>1</v>
       </c>
@@ -11976,7 +11946,7 @@
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="53">
+      <c r="F22" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12001,7 +11971,7 @@
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="53">
+      <c r="F23" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12026,7 +11996,7 @@
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="53">
+      <c r="F24" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12051,7 +12021,7 @@
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="53">
+      <c r="F25" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12076,7 +12046,7 @@
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="53">
+      <c r="F26" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12101,7 +12071,7 @@
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="53">
+      <c r="F27" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12126,7 +12096,7 @@
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="53">
+      <c r="F28" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12151,7 +12121,7 @@
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="53">
+      <c r="F29" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12176,7 +12146,7 @@
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="53">
+      <c r="F30" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12201,7 +12171,7 @@
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="53">
+      <c r="F31" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12226,7 +12196,7 @@
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="53">
+      <c r="F32" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12251,7 +12221,7 @@
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="53">
+      <c r="F33" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12276,7 +12246,7 @@
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="53">
+      <c r="F34" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12301,7 +12271,7 @@
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="53">
+      <c r="F35" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12326,7 +12296,7 @@
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="53">
+      <c r="F36" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12351,7 +12321,7 @@
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="53">
+      <c r="F37" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12376,7 +12346,7 @@
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="53">
+      <c r="F38" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12401,7 +12371,7 @@
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="53">
+      <c r="F39" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12428,7 +12398,7 @@
         <v>0.5</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="53">
+      <c r="F40" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>1</v>
       </c>
@@ -12453,7 +12423,7 @@
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="53">
+      <c r="F41" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12478,7 +12448,7 @@
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="53">
+      <c r="F42" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12503,7 +12473,7 @@
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="53">
+      <c r="F43" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12528,7 +12498,7 @@
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="53">
+      <c r="F44" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12553,7 +12523,7 @@
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="53">
+      <c r="F45" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12578,7 +12548,7 @@
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="53">
+      <c r="F46" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12603,7 +12573,7 @@
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="53">
+      <c r="F47" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12628,7 +12598,7 @@
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="53">
+      <c r="F48" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12653,7 +12623,7 @@
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="53">
+      <c r="F49" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12678,7 +12648,7 @@
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="53">
+      <c r="F50" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12689,40 +12659,40 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
     </row>
     <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="50" t="s">
+      <c r="B52" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="D52" s="51" t="s">
+      <c r="D52" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="E52" s="51" t="s">
+      <c r="E52" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="F52" s="52" t="s">
+      <c r="F52" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="G52" s="51" t="s">
+      <c r="G52" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="H52" s="52" t="s">
+      <c r="H52" s="50" t="s">
         <v>43</v>
       </c>
     </row>
@@ -12741,7 +12711,7 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="53">
+      <c r="F53" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12766,7 +12736,7 @@
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
-      <c r="F54" s="53">
+      <c r="F54" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12791,7 +12761,7 @@
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
-      <c r="F55" s="53">
+      <c r="F55" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12816,7 +12786,7 @@
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
-      <c r="F56" s="53">
+      <c r="F56" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12841,7 +12811,7 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
-      <c r="F57" s="53">
+      <c r="F57" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12866,7 +12836,7 @@
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
-      <c r="F58" s="53">
+      <c r="F58" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12891,7 +12861,7 @@
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
-      <c r="F59" s="53">
+      <c r="F59" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12916,7 +12886,7 @@
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
-      <c r="F60" s="53">
+      <c r="F60" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12941,7 +12911,7 @@
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
-      <c r="F61" s="53">
+      <c r="F61" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12966,7 +12936,7 @@
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
-      <c r="F62" s="53">
+      <c r="F62" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -12991,7 +12961,7 @@
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
-      <c r="F63" s="53">
+      <c r="F63" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13016,7 +12986,7 @@
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
-      <c r="F64" s="53">
+      <c r="F64" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13041,7 +13011,7 @@
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
-      <c r="F65" s="53">
+      <c r="F65" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13066,7 +13036,7 @@
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
-      <c r="F66" s="53">
+      <c r="F66" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13091,7 +13061,7 @@
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
-      <c r="F67" s="53">
+      <c r="F67" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13116,7 +13086,7 @@
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
-      <c r="F68" s="53">
+      <c r="F68" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13141,7 +13111,7 @@
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
-      <c r="F69" s="53">
+      <c r="F69" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13166,7 +13136,7 @@
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
-      <c r="F70" s="53">
+      <c r="F70" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13191,7 +13161,7 @@
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
-      <c r="F71" s="53">
+      <c r="F71" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13216,7 +13186,7 @@
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
-      <c r="F72" s="53">
+      <c r="F72" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13241,7 +13211,7 @@
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
-      <c r="F73" s="53">
+      <c r="F73" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13266,7 +13236,7 @@
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
-      <c r="F74" s="53">
+      <c r="F74" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13291,7 +13261,7 @@
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
-      <c r="F75" s="53">
+      <c r="F75" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13316,7 +13286,7 @@
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
-      <c r="F76" s="53">
+      <c r="F76" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13341,7 +13311,7 @@
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
-      <c r="F77" s="53">
+      <c r="F77" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13366,7 +13336,7 @@
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
-      <c r="F78" s="53">
+      <c r="F78" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13391,7 +13361,7 @@
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
-      <c r="F79" s="53">
+      <c r="F79" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13416,7 +13386,7 @@
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
-      <c r="F80" s="53">
+      <c r="F80" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13441,7 +13411,7 @@
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
-      <c r="F81" s="53">
+      <c r="F81" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13466,7 +13436,7 @@
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
-      <c r="F82" s="53">
+      <c r="F82" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13491,7 +13461,7 @@
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
-      <c r="F83" s="53">
+      <c r="F83" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13516,7 +13486,7 @@
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
-      <c r="F84" s="53">
+      <c r="F84" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13541,7 +13511,7 @@
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
-      <c r="F85" s="53">
+      <c r="F85" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13566,7 +13536,7 @@
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
-      <c r="F86" s="53">
+      <c r="F86" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13591,7 +13561,7 @@
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
-      <c r="F87" s="53">
+      <c r="F87" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13616,7 +13586,7 @@
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
-      <c r="F88" s="53">
+      <c r="F88" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13641,7 +13611,7 @@
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
-      <c r="F89" s="53">
+      <c r="F89" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13666,7 +13636,7 @@
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
-      <c r="F90" s="53">
+      <c r="F90" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13691,7 +13661,7 @@
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
-      <c r="F91" s="53">
+      <c r="F91" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13716,7 +13686,7 @@
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
-      <c r="F92" s="53">
+      <c r="F92" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13741,7 +13711,7 @@
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
-      <c r="F93" s="53">
+      <c r="F93" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13766,7 +13736,7 @@
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
-      <c r="F94" s="53">
+      <c r="F94" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13791,7 +13761,7 @@
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
-      <c r="F95" s="53">
+      <c r="F95" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13816,7 +13786,7 @@
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
-      <c r="F96" s="53">
+      <c r="F96" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13841,7 +13811,7 @@
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
-      <c r="F97" s="53">
+      <c r="F97" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13866,7 +13836,7 @@
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
-      <c r="F98" s="53">
+      <c r="F98" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13891,7 +13861,7 @@
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
-      <c r="F99" s="53">
+      <c r="F99" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13916,7 +13886,7 @@
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
-      <c r="F100" s="53">
+      <c r="F100" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13941,7 +13911,7 @@
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
-      <c r="F101" s="53">
+      <c r="F101" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13966,7 +13936,7 @@
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
-      <c r="F102" s="53">
+      <c r="F102" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -13991,7 +13961,7 @@
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
-      <c r="F103" s="53">
+      <c r="F103" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -14016,7 +13986,7 @@
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
-      <c r="F104" s="53">
+      <c r="F104" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -14041,7 +14011,7 @@
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
-      <c r="F105" s="53">
+      <c r="F105" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -14066,7 +14036,7 @@
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
-      <c r="F106" s="53">
+      <c r="F106" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -14091,7 +14061,7 @@
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
-      <c r="F107" s="53">
+      <c r="F107" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -14116,7 +14086,7 @@
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
-      <c r="F108" s="53">
+      <c r="F108" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -14141,7 +14111,7 @@
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
-      <c r="F109" s="53">
+      <c r="F109" s="51">
         <f>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
         <v>0</v>
       </c>
@@ -14157,7 +14127,7 @@
       <c r="C110" s="14"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="53"/>
+      <c r="F110" s="51"/>
       <c r="G110" s="2"/>
       <c r="H110" s="1"/>
     </row>
@@ -14167,7 +14137,7 @@
       <c r="C111" s="14"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="53"/>
+      <c r="F111" s="51"/>
       <c r="G111" s="2"/>
       <c r="H111" s="1"/>
     </row>
@@ -14177,7 +14147,7 @@
       <c r="C112" s="14"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
-      <c r="F112" s="53"/>
+      <c r="F112" s="51"/>
       <c r="G112" s="2"/>
       <c r="H112" s="1"/>
     </row>
@@ -14187,7 +14157,7 @@
       <c r="C113" s="14"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
-      <c r="F113" s="53"/>
+      <c r="F113" s="51"/>
       <c r="G113" s="2"/>
       <c r="H113" s="1"/>
     </row>
@@ -14197,7 +14167,7 @@
       <c r="C114" s="14"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="53"/>
+      <c r="F114" s="51"/>
       <c r="G114" s="2"/>
       <c r="H114" s="1"/>
     </row>
@@ -14207,7 +14177,7 @@
       <c r="C115" s="14"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
-      <c r="F115" s="53"/>
+      <c r="F115" s="51"/>
       <c r="G115" s="2"/>
       <c r="H115" s="1"/>
     </row>

--- a/doc/avancement Cliiink.xlsx
+++ b/doc/avancement Cliiink.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Desktop\cliiink\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4132CEF-9932-4799-A10D-3A18DCD7E833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7A29DE-C54F-4C31-8598-3E66018C6877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tâches" sheetId="2" r:id="rId1"/>
@@ -1096,7 +1096,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1173,6 +1173,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightDown">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightDown">
+        <fgColor theme="4"/>
+        <bgColor rgb="FFCC00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightDown">
+        <fgColor theme="4"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightDown">
+        <fgColor theme="4"/>
+        <bgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -1551,7 +1575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1625,6 +1649,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1662,19 +1690,81 @@
   </cellStyles>
   <dxfs count="127">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2368,6 +2458,21 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3465,83 +3570,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="21" formatCode="dd\-mmm"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3657,140 +3685,140 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E08C3540-563F-4309-961F-3A2D48BF908C}" name="PlanningPrincipal" displayName="PlanningPrincipal" ref="A4:AD51" headerRowDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E08C3540-563F-4309-961F-3A2D48BF908C}" name="PlanningPrincipal" displayName="PlanningPrincipal" ref="A4:AD51" headerRowDxfId="117">
   <autoFilter ref="A4:AD51" xr:uid="{3869585A-DD74-4715-8B08-BD2783F0B46B}"/>
   <tableColumns count="30">
-    <tableColumn id="31" xr3:uid="{02974BA7-1E46-4150-A100-3503892E7F24}" name="N°" dataDxfId="105" totalsRowDxfId="104">
+    <tableColumn id="31" xr3:uid="{02974BA7-1E46-4150-A100-3503892E7F24}" name="N°" dataDxfId="116" totalsRowDxfId="115">
       <calculatedColumnFormula>Tâches!A4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{B537D5E3-048F-47B6-A4D3-4925E570D546}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{9B7DC595-B3F0-4BA6-A2B3-7B3F96E6422C}" name="Tâche" dataDxfId="103" totalsRowDxfId="102">
+    <tableColumn id="2" xr3:uid="{9B7DC595-B3F0-4BA6-A2B3-7B3F96E6422C}" name="Tâche" dataDxfId="114" totalsRowDxfId="113">
       <calculatedColumnFormula>Tâches!B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7CF5EF96-F7EA-4081-A9F6-C6030E29374A}" name="05-oct" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="4" xr3:uid="{AED08872-92A3-48EC-9686-65D32A38B01C}" name="06-oct" dataDxfId="99" totalsRowDxfId="98"/>
-    <tableColumn id="5" xr3:uid="{A361D231-81F6-4E0E-9D68-F198542EC510}" name="07-oct" dataDxfId="97" totalsRowDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{95C7985A-0503-4B82-A39B-7087B64C463E}" name="08-oct" dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="7" xr3:uid="{223BBA38-BBF5-4596-9520-B3C80EF77B2C}" name="09-oct" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="8" xr3:uid="{CBA2CED5-BFCD-478D-BC0B-64F7236665B8}" name="10-oct" dataDxfId="91" totalsRowDxfId="90"/>
-    <tableColumn id="9" xr3:uid="{9142E539-6B94-44F9-AE32-D9D0257404D4}" name="11-oct" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="10" xr3:uid="{3DF50CC7-E072-416C-9E4D-77F99E3AFEE4}" name="12-oct" dataDxfId="87" totalsRowDxfId="86"/>
-    <tableColumn id="11" xr3:uid="{1BA6AA9C-31C1-4DF3-AB9B-EE58F953EA7B}" name="13-oct" dataDxfId="85" totalsRowDxfId="84"/>
-    <tableColumn id="12" xr3:uid="{E3903BB0-7B8A-45F4-8E32-0DEC3020D2C7}" name="14-oct" dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="13" xr3:uid="{902C3056-E350-4CB3-8791-82ADD700A68A}" name="15-oct" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="14" xr3:uid="{54609321-2FA1-4A62-830E-30F3A492893D}" name="16-oct" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="15" xr3:uid="{3F1B4408-EFA2-430D-89AE-07B73C0F975A}" name="17-oct" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="16" xr3:uid="{6DC91AA7-F87C-4075-9A2A-AF1EB7BCC95B}" name="18-oct" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="17" xr3:uid="{0AA6E344-3437-43D3-992F-24D8117454B9}" name="19-oct" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="18" xr3:uid="{96D8D6A9-008E-484B-B7B4-28ABA94491F0}" name="20-oct" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="19" xr3:uid="{C6993608-949D-47F9-B239-5455810AAC64}" name="21-oct" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="20" xr3:uid="{D1F65972-7A93-4F3D-9DD9-0066440F9CD3}" name="22-oct" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="21" xr3:uid="{2491BABE-5995-4D9B-9106-2E6B37978835}" name="23-oct" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="22" xr3:uid="{AFD0F5C6-D453-44A7-A7A2-E80250827459}" name="24-oct" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="23" xr3:uid="{05DEBB6A-759F-4C9F-AF39-B31DA26929B5}" name="25-oct" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="24" xr3:uid="{0F14F7F0-8C7B-47D9-A425-10B6AB326102}" name="26-oct" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="25" xr3:uid="{F63019F4-1021-4A1C-AD12-1FA5B5EAC831}" name="27-oct" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="26" xr3:uid="{A0FA9325-6D8A-4E3F-841E-0A51A69AA21F}" name="28-oct" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="27" xr3:uid="{01390279-2B86-4CDA-AACC-12D48EE68027}" name="29-oct" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="28" xr3:uid="{9E31ED4A-02CE-4F4A-8A83-5681191E9E9E}" name="30-oct" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="29" xr3:uid="{885B064E-7B13-4C56-B53C-04028C7E7B19}" name="31-oct" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{7CF5EF96-F7EA-4081-A9F6-C6030E29374A}" name="05-oct" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="4" xr3:uid="{AED08872-92A3-48EC-9686-65D32A38B01C}" name="06-oct" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="5" xr3:uid="{A361D231-81F6-4E0E-9D68-F198542EC510}" name="07-oct" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="6" xr3:uid="{95C7985A-0503-4B82-A39B-7087B64C463E}" name="08-oct" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="7" xr3:uid="{223BBA38-BBF5-4596-9520-B3C80EF77B2C}" name="09-oct" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="8" xr3:uid="{CBA2CED5-BFCD-478D-BC0B-64F7236665B8}" name="10-oct" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="9" xr3:uid="{9142E539-6B94-44F9-AE32-D9D0257404D4}" name="11-oct" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="10" xr3:uid="{3DF50CC7-E072-416C-9E4D-77F99E3AFEE4}" name="12-oct" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="11" xr3:uid="{1BA6AA9C-31C1-4DF3-AB9B-EE58F953EA7B}" name="13-oct" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="12" xr3:uid="{E3903BB0-7B8A-45F4-8E32-0DEC3020D2C7}" name="14-oct" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="13" xr3:uid="{902C3056-E350-4CB3-8791-82ADD700A68A}" name="15-oct" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="14" xr3:uid="{54609321-2FA1-4A62-830E-30F3A492893D}" name="16-oct" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="15" xr3:uid="{3F1B4408-EFA2-430D-89AE-07B73C0F975A}" name="17-oct" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="16" xr3:uid="{6DC91AA7-F87C-4075-9A2A-AF1EB7BCC95B}" name="18-oct" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="17" xr3:uid="{0AA6E344-3437-43D3-992F-24D8117454B9}" name="19-oct" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="18" xr3:uid="{96D8D6A9-008E-484B-B7B4-28ABA94491F0}" name="20-oct" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="19" xr3:uid="{C6993608-949D-47F9-B239-5455810AAC64}" name="21-oct" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="20" xr3:uid="{D1F65972-7A93-4F3D-9DD9-0066440F9CD3}" name="22-oct" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="21" xr3:uid="{2491BABE-5995-4D9B-9106-2E6B37978835}" name="23-oct" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="22" xr3:uid="{AFD0F5C6-D453-44A7-A7A2-E80250827459}" name="24-oct" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="23" xr3:uid="{05DEBB6A-759F-4C9F-AF39-B31DA26929B5}" name="25-oct" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="24" xr3:uid="{0F14F7F0-8C7B-47D9-A425-10B6AB326102}" name="26-oct" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="25" xr3:uid="{F63019F4-1021-4A1C-AD12-1FA5B5EAC831}" name="27-oct" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="26" xr3:uid="{A0FA9325-6D8A-4E3F-841E-0A51A69AA21F}" name="28-oct" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="27" xr3:uid="{01390279-2B86-4CDA-AACC-12D48EE68027}" name="29-oct" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="28" xr3:uid="{9E31ED4A-02CE-4F4A-8A83-5681191E9E9E}" name="30-oct" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="29" xr3:uid="{885B064E-7B13-4C56-B53C-04028C7E7B19}" name="31-oct" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{949F634D-FB76-42BC-8AD2-845CBF052EB4}" name="PlanningBonus" displayName="PlanningBonus" ref="A54:AD111" totalsRowShown="0" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{949F634D-FB76-42BC-8AD2-845CBF052EB4}" name="PlanningBonus" displayName="PlanningBonus" ref="A54:AD111" totalsRowShown="0" headerRowDxfId="58">
   <autoFilter ref="A54:AD111" xr:uid="{C72AC31B-BC16-4ED0-A742-6FDD0EBB8631}"/>
   <tableColumns count="30">
-    <tableColumn id="30" xr3:uid="{A9929115-DAFC-40AE-A75F-89D94A3A6E3E}" name="N°" dataDxfId="46">
+    <tableColumn id="30" xr3:uid="{A9929115-DAFC-40AE-A75F-89D94A3A6E3E}" name="N°" dataDxfId="57">
       <calculatedColumnFormula>Tâches!A53</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{D9389245-51FF-4B4C-8D41-B0C82DF9FA75}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{725C423E-FCC3-4D2B-A7B1-04718A631379}" name="Tâche" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{725C423E-FCC3-4D2B-A7B1-04718A631379}" name="Tâche" dataDxfId="56">
       <calculatedColumnFormula>Tâches!B53</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3E9DBF51-63AA-41C7-8026-17B53B0A9B6C}" name="05-oct" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{82D5CCDD-F94F-4AD0-87E3-71A24CD87405}" name="06-oct" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{BE2F3F2A-9776-4093-805A-312DDC6F80FE}" name="07-oct" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{C1BB4810-F8A8-4B1C-BEFF-BCD91A7CBE63}" name="08-oct" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{81533870-EEB5-4296-AE2B-E1E0C4B449EA}" name="09-oct" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{5614AF65-2E97-4A81-93F3-4BF71D68BA64}" name="10-oct" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{68ABF0CA-AF48-4143-8348-D852DD541BEA}" name="11-oct" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{D00B30BB-B608-47A8-A909-B3CCE0CD31F7}" name="12-oct" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{E0989A06-4A1E-4309-B9D8-FFF15CEF945C}" name="13-oct" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{1779F27B-A65D-4938-A036-4979FC026FF9}" name="14-oct" dataDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{22F38C55-7716-4548-902D-BF65239896B9}" name="15-oct" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{0379C43C-369A-4D33-98C8-09F6AB1138A5}" name="16-oct" dataDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{95071E30-9EB4-4F6F-863F-5DDBD2FC2727}" name="17-oct" dataDxfId="33"/>
-    <tableColumn id="16" xr3:uid="{57019D85-E364-4C2A-8EDF-EECF1621D7F4}" name="18-oct" dataDxfId="32"/>
-    <tableColumn id="17" xr3:uid="{E1AB2C2B-7642-4E82-9C5D-D1EBE0244AAA}" name="19-oct" dataDxfId="31"/>
-    <tableColumn id="18" xr3:uid="{109FE92E-C236-400D-8A95-114BD055E9DA}" name="20-oct" dataDxfId="30"/>
-    <tableColumn id="19" xr3:uid="{F53D6821-A790-4CAC-82E2-E3B0BA8021AD}" name="21-oct" dataDxfId="29"/>
-    <tableColumn id="20" xr3:uid="{E29FFFEE-7FB8-414D-BCCD-0CBC972A8026}" name="22-oct" dataDxfId="28"/>
-    <tableColumn id="21" xr3:uid="{143958D3-765B-428D-A750-762564AFF52B}" name="23-oct" dataDxfId="27"/>
-    <tableColumn id="22" xr3:uid="{F6E67B4D-280E-47A5-AF79-5FF172D2E5C7}" name="24-oct" dataDxfId="26"/>
-    <tableColumn id="23" xr3:uid="{A16D3DC4-7696-40A7-8B9F-1454BEC9DBC2}" name="25-oct" dataDxfId="25"/>
-    <tableColumn id="24" xr3:uid="{218180A7-E150-4120-8AE9-6723F56E1D9B}" name="26-oct" dataDxfId="24"/>
-    <tableColumn id="25" xr3:uid="{AFF74DA3-B552-40C8-A8FE-1E5490C0DC0B}" name="27-oct" dataDxfId="23"/>
-    <tableColumn id="26" xr3:uid="{38E7E763-F0C2-4BFE-A84B-1E26140C2250}" name="28-oct" dataDxfId="22"/>
-    <tableColumn id="27" xr3:uid="{988E4DC2-CA0F-4098-B08C-759F208CFD2A}" name="29-oct" dataDxfId="21"/>
-    <tableColumn id="28" xr3:uid="{539EA04B-D1E5-47FC-9E69-E37BB7704D5C}" name="30-oct" dataDxfId="20"/>
-    <tableColumn id="29" xr3:uid="{21E9E5C4-8D23-454B-8A91-1CF8DA5078B0}" name="31-oct" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{3E9DBF51-63AA-41C7-8026-17B53B0A9B6C}" name="05-oct" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{82D5CCDD-F94F-4AD0-87E3-71A24CD87405}" name="06-oct" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{BE2F3F2A-9776-4093-805A-312DDC6F80FE}" name="07-oct" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{C1BB4810-F8A8-4B1C-BEFF-BCD91A7CBE63}" name="08-oct" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{81533870-EEB5-4296-AE2B-E1E0C4B449EA}" name="09-oct" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{5614AF65-2E97-4A81-93F3-4BF71D68BA64}" name="10-oct" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{68ABF0CA-AF48-4143-8348-D852DD541BEA}" name="11-oct" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{D00B30BB-B608-47A8-A909-B3CCE0CD31F7}" name="12-oct" dataDxfId="48"/>
+    <tableColumn id="11" xr3:uid="{E0989A06-4A1E-4309-B9D8-FFF15CEF945C}" name="13-oct" dataDxfId="47"/>
+    <tableColumn id="12" xr3:uid="{1779F27B-A65D-4938-A036-4979FC026FF9}" name="14-oct" dataDxfId="46"/>
+    <tableColumn id="13" xr3:uid="{22F38C55-7716-4548-902D-BF65239896B9}" name="15-oct" dataDxfId="45"/>
+    <tableColumn id="14" xr3:uid="{0379C43C-369A-4D33-98C8-09F6AB1138A5}" name="16-oct" dataDxfId="44"/>
+    <tableColumn id="15" xr3:uid="{95071E30-9EB4-4F6F-863F-5DDBD2FC2727}" name="17-oct" dataDxfId="43"/>
+    <tableColumn id="16" xr3:uid="{57019D85-E364-4C2A-8EDF-EECF1621D7F4}" name="18-oct" dataDxfId="42"/>
+    <tableColumn id="17" xr3:uid="{E1AB2C2B-7642-4E82-9C5D-D1EBE0244AAA}" name="19-oct" dataDxfId="41"/>
+    <tableColumn id="18" xr3:uid="{109FE92E-C236-400D-8A95-114BD055E9DA}" name="20-oct" dataDxfId="40"/>
+    <tableColumn id="19" xr3:uid="{F53D6821-A790-4CAC-82E2-E3B0BA8021AD}" name="21-oct" dataDxfId="39"/>
+    <tableColumn id="20" xr3:uid="{E29FFFEE-7FB8-414D-BCCD-0CBC972A8026}" name="22-oct" dataDxfId="38"/>
+    <tableColumn id="21" xr3:uid="{143958D3-765B-428D-A750-762564AFF52B}" name="23-oct" dataDxfId="37"/>
+    <tableColumn id="22" xr3:uid="{F6E67B4D-280E-47A5-AF79-5FF172D2E5C7}" name="24-oct" dataDxfId="36"/>
+    <tableColumn id="23" xr3:uid="{A16D3DC4-7696-40A7-8B9F-1454BEC9DBC2}" name="25-oct" dataDxfId="35"/>
+    <tableColumn id="24" xr3:uid="{218180A7-E150-4120-8AE9-6723F56E1D9B}" name="26-oct" dataDxfId="34"/>
+    <tableColumn id="25" xr3:uid="{AFF74DA3-B552-40C8-A8FE-1E5490C0DC0B}" name="27-oct" dataDxfId="33"/>
+    <tableColumn id="26" xr3:uid="{38E7E763-F0C2-4BFE-A84B-1E26140C2250}" name="28-oct" dataDxfId="32"/>
+    <tableColumn id="27" xr3:uid="{988E4DC2-CA0F-4098-B08C-759F208CFD2A}" name="29-oct" dataDxfId="31"/>
+    <tableColumn id="28" xr3:uid="{539EA04B-D1E5-47FC-9E69-E37BB7704D5C}" name="30-oct" dataDxfId="30"/>
+    <tableColumn id="29" xr3:uid="{21E9E5C4-8D23-454B-8A91-1CF8DA5078B0}" name="31-oct" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DEB2AD8-CEC3-48AA-9CF7-ED08DF8D0180}" name="AvancementPrincipal" displayName="AvancementPrincipal" ref="A3:H50" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DEB2AD8-CEC3-48AA-9CF7-ED08DF8D0180}" name="AvancementPrincipal" displayName="AvancementPrincipal" ref="A3:H50" totalsRowShown="0" headerRowDxfId="28">
   <autoFilter ref="A3:H50" xr:uid="{6BCE8A7D-7D04-4394-AD53-9D2B48AA6CFD}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B07E0580-F8B1-4A81-8EA6-8D0DD94E6CBF}" name="N°" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{B07E0580-F8B1-4A81-8EA6-8D0DD94E6CBF}" name="N°" dataDxfId="27">
       <calculatedColumnFormula>TachesPrincipales[[#This Row],[N°]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CD2C34A8-4A66-4D31-8674-72875FEEBCB9}" name="Tâche" dataDxfId="16">
+    <tableColumn id="2" xr3:uid="{CD2C34A8-4A66-4D31-8674-72875FEEBCB9}" name="Tâche" dataDxfId="26">
       <calculatedColumnFormula>TachesPrincipales[[#This Row],[Tâche]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1F692755-0EBF-47B3-98F7-5870DAAA2B47}" name="Durée estimée (jours-hommes)" dataDxfId="15">
+    <tableColumn id="3" xr3:uid="{1F692755-0EBF-47B3-98F7-5870DAAA2B47}" name="Durée estimée (jours-hommes)" dataDxfId="25">
       <calculatedColumnFormula>TachesPrincipales[[#This Row],[Travail (en jours-hommes)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77A08BA6-0C47-4CA1-898D-34688079E99A}" name="Temps consacré (jours-hommes)" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{E6DFF25A-5C0F-4D2B-AD4B-356CCC3C697D}" name="Temps restant (jours-hommes)" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{80B25DCD-7C24-4853-87D7-112B68A75ACA}" name="Complétion" dataDxfId="12">
+    <tableColumn id="4" xr3:uid="{77A08BA6-0C47-4CA1-898D-34688079E99A}" name="Temps consacré (jours-hommes)" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{E6DFF25A-5C0F-4D2B-AD4B-356CCC3C697D}" name="Temps restant (jours-hommes)" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{80B25DCD-7C24-4853-87D7-112B68A75ACA}" name="Complétion" dataDxfId="22">
       <calculatedColumnFormula>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E98F81A4-15B7-43AA-8EE6-E47F2F7BDDBA}" name="Avance / Retard (jours-hommes)" dataDxfId="11">
+    <tableColumn id="9" xr3:uid="{E98F81A4-15B7-43AA-8EE6-E47F2F7BDDBA}" name="Avance / Retard (jours-hommes)" dataDxfId="21">
       <calculatedColumnFormula>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{19DBC3BA-BFF6-4123-B35C-1B58A7832A4B}" name="Commentaire" dataDxfId="10" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{19DBC3BA-BFF6-4123-B35C-1B58A7832A4B}" name="Commentaire" dataDxfId="20" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{04BF9D35-9277-48A6-B974-1A1D7A80EEAE}" name="AvancementPrincipal8" displayName="AvancementPrincipal8" ref="A52:H109" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{04BF9D35-9277-48A6-B974-1A1D7A80EEAE}" name="AvancementPrincipal8" displayName="AvancementPrincipal8" ref="A52:H109" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="A52:H109" xr:uid="{43FC80CF-67C7-44CB-8AF9-C483360ED027}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{50AEF074-CE1B-4E86-81E2-68DBB744C39B}" name="N°" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{50AEF074-CE1B-4E86-81E2-68DBB744C39B}" name="N°" dataDxfId="18">
       <calculatedColumnFormula>TachesBonus[[#This Row],[N°]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{23C870F0-9110-4D2F-8665-88DA3D2D1265}" name="Tâche" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{23C870F0-9110-4D2F-8665-88DA3D2D1265}" name="Tâche" dataDxfId="17">
       <calculatedColumnFormula>TachesBonus[[#This Row],[Tâche]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{69BB17CC-DE87-420A-BBFA-062BF2BEF7AA}" name="Durée estimée (jours-hommes)" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{69BB17CC-DE87-420A-BBFA-062BF2BEF7AA}" name="Durée estimée (jours-hommes)" dataDxfId="16">
       <calculatedColumnFormula>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A14AEF2F-CFF6-4D95-9EB5-0A11BA283D4F}" name="Temps consacré (jours-hommes)" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{25E0D910-E053-4859-9A05-DA9FEEB0AC2A}" name="Temps restant (jours-hommes)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{5E4CFA2C-63BF-45F7-9435-50DEBD5B0D2E}" name="Complétion" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{A14AEF2F-CFF6-4D95-9EB5-0A11BA283D4F}" name="Temps consacré (jours-hommes)" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{25E0D910-E053-4859-9A05-DA9FEEB0AC2A}" name="Temps restant (jours-hommes)" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{5E4CFA2C-63BF-45F7-9435-50DEBD5B0D2E}" name="Complétion" dataDxfId="13">
       <calculatedColumnFormula>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B0B94A9D-C385-47C1-9326-CF1085FB5FB7}" name="Avance / Retard (jours-hommes)" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{B0B94A9D-C385-47C1-9326-CF1085FB5FB7}" name="Avance / Retard (jours-hommes)" dataDxfId="12">
       <calculatedColumnFormula>IF(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal8[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3B743E05-8FA8-4C6C-91C3-7DC6C79CF839}" name="Commentaire" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{3B743E05-8FA8-4C6C-91C3-7DC6C79CF839}" name="Commentaire" dataDxfId="11" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4061,8 +4089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53404295-2D02-454B-A260-080633A909F0}">
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4077,26 +4105,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5234,15 +5262,15 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="A51" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="66"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -6768,8 +6796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54278537-4330-487B-8B1E-186EA2F14073}">
   <dimension ref="A1:XFD122"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6781,114 +6809,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30 16384:16384" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="67" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
     </row>
     <row r="2" spans="1:30 16384:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
     </row>
     <row r="3" spans="1:30 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="71" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="70" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="74" t="s">
         <v>307</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="70" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="70" t="s">
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="74" t="s">
         <v>309</v>
       </c>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="71" t="s">
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="75" t="s">
         <v>310</v>
       </c>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="72"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="76"/>
     </row>
     <row r="4" spans="1:30 16384:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -7287,7 +7315,7 @@
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
-      <c r="P12" s="20"/>
+      <c r="P12" s="66"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
@@ -7607,7 +7635,7 @@
       <c r="M20" s="21"/>
       <c r="N20" s="52"/>
       <c r="O20" s="52"/>
-      <c r="P20" s="20"/>
+      <c r="P20" s="65"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
@@ -7646,7 +7674,7 @@
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
-      <c r="O21" s="41"/>
+      <c r="O21" s="21"/>
       <c r="P21" s="20"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="21"/>
@@ -7726,8 +7754,8 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="20"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="63"/>
       <c r="Q23" s="20"/>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
@@ -8447,8 +8475,8 @@
       <c r="M41" s="21"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="64"/>
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
       <c r="T41" s="21"/>
@@ -8864,80 +8892,80 @@
       <c r="AD51" s="34"/>
     </row>
     <row r="52" spans="1:30" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="69" t="s">
+      <c r="A52" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="69"/>
-      <c r="N52" s="69"/>
-      <c r="O52" s="69"/>
-      <c r="P52" s="69"/>
-      <c r="Q52" s="69"/>
-      <c r="R52" s="69"/>
-      <c r="S52" s="69"/>
-      <c r="T52" s="69"/>
-      <c r="U52" s="69"/>
-      <c r="V52" s="69"/>
-      <c r="W52" s="69"/>
-      <c r="X52" s="69"/>
-      <c r="Y52" s="69"/>
-      <c r="Z52" s="69"/>
-      <c r="AA52" s="69"/>
-      <c r="AB52" s="69"/>
-      <c r="AC52" s="69"/>
-      <c r="AD52" s="69"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="73"/>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="73"/>
+      <c r="T52" s="73"/>
+      <c r="U52" s="73"/>
+      <c r="V52" s="73"/>
+      <c r="W52" s="73"/>
+      <c r="X52" s="73"/>
+      <c r="Y52" s="73"/>
+      <c r="Z52" s="73"/>
+      <c r="AA52" s="73"/>
+      <c r="AB52" s="73"/>
+      <c r="AC52" s="73"/>
+      <c r="AD52" s="73"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A53" s="67" t="s">
+      <c r="A53" s="71" t="s">
         <v>317</v>
       </c>
-      <c r="B53" s="67"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="70" t="s">
+      <c r="B53" s="71"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="74" t="s">
         <v>307</v>
       </c>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="70" t="s">
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="L53" s="71"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="71"/>
-      <c r="O53" s="71"/>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="72"/>
-      <c r="R53" s="70" t="s">
+      <c r="L53" s="75"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="75"/>
+      <c r="O53" s="75"/>
+      <c r="P53" s="75"/>
+      <c r="Q53" s="76"/>
+      <c r="R53" s="74" t="s">
         <v>309</v>
       </c>
-      <c r="S53" s="71"/>
-      <c r="T53" s="71"/>
-      <c r="U53" s="71"/>
-      <c r="V53" s="71"/>
-      <c r="W53" s="71"/>
-      <c r="X53" s="72"/>
-      <c r="Y53" s="71" t="s">
+      <c r="S53" s="75"/>
+      <c r="T53" s="75"/>
+      <c r="U53" s="75"/>
+      <c r="V53" s="75"/>
+      <c r="W53" s="75"/>
+      <c r="X53" s="76"/>
+      <c r="Y53" s="75" t="s">
         <v>310</v>
       </c>
-      <c r="Z53" s="71"/>
-      <c r="AA53" s="71"/>
-      <c r="AB53" s="71"/>
-      <c r="AC53" s="71"/>
-      <c r="AD53" s="72"/>
+      <c r="Z53" s="75"/>
+      <c r="AA53" s="75"/>
+      <c r="AB53" s="75"/>
+      <c r="AC53" s="75"/>
+      <c r="AD53" s="76"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
@@ -11331,37 +11359,37 @@
     <mergeCell ref="Y3:AD3"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B51 B55:B111">
-    <cfRule type="cellIs" dxfId="117" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Programmation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Recherche"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Débogage"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Technique"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Web"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"Gestion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"Rédaction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>"Base de données"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>"Modélisation"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11379,7 +11407,7 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11396,28 +11424,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
@@ -11864,14 +11892,12 @@
         <v>1</v>
       </c>
       <c r="D19" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19" s="14">
         <f>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</f>
@@ -11944,15 +11970,17 @@
         <f>TachesPrincipales[[#This Row],[Travail (en jours-hommes)]]</f>
         <v>1</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="51">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="14">
+        <f>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</f>
         <v>0</v>
-      </c>
-      <c r="G22" s="14" t="str">
-        <f>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</f>
-        <v/>
       </c>
       <c r="H22" s="1"/>
     </row>
@@ -12659,16 +12687,16 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="65" t="s">
+      <c r="A51" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
     </row>
     <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="46" t="s">

--- a/doc/avancement Cliiink.xlsx
+++ b/doc/avancement Cliiink.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Desktop\cliiink\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7A29DE-C54F-4C31-8598-3E66018C6877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F170DB1-4325-4D9D-A996-84039230F6A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1690,83 +1690,6 @@
   </cellStyles>
   <dxfs count="127">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3572,6 +3495,83 @@
       <numFmt numFmtId="21" formatCode="dd\-mmm"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3685,140 +3685,140 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E08C3540-563F-4309-961F-3A2D48BF908C}" name="PlanningPrincipal" displayName="PlanningPrincipal" ref="A4:AD51" headerRowDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E08C3540-563F-4309-961F-3A2D48BF908C}" name="PlanningPrincipal" displayName="PlanningPrincipal" ref="A4:AD51" headerRowDxfId="106">
   <autoFilter ref="A4:AD51" xr:uid="{3869585A-DD74-4715-8B08-BD2783F0B46B}"/>
   <tableColumns count="30">
-    <tableColumn id="31" xr3:uid="{02974BA7-1E46-4150-A100-3503892E7F24}" name="N°" dataDxfId="116" totalsRowDxfId="115">
+    <tableColumn id="31" xr3:uid="{02974BA7-1E46-4150-A100-3503892E7F24}" name="N°" dataDxfId="105" totalsRowDxfId="104">
       <calculatedColumnFormula>Tâches!A4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{B537D5E3-048F-47B6-A4D3-4925E570D546}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{9B7DC595-B3F0-4BA6-A2B3-7B3F96E6422C}" name="Tâche" dataDxfId="114" totalsRowDxfId="113">
+    <tableColumn id="2" xr3:uid="{9B7DC595-B3F0-4BA6-A2B3-7B3F96E6422C}" name="Tâche" dataDxfId="103" totalsRowDxfId="102">
       <calculatedColumnFormula>Tâches!B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7CF5EF96-F7EA-4081-A9F6-C6030E29374A}" name="05-oct" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{AED08872-92A3-48EC-9686-65D32A38B01C}" name="06-oct" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="5" xr3:uid="{A361D231-81F6-4E0E-9D68-F198542EC510}" name="07-oct" dataDxfId="108" totalsRowDxfId="107"/>
-    <tableColumn id="6" xr3:uid="{95C7985A-0503-4B82-A39B-7087B64C463E}" name="08-oct" dataDxfId="106" totalsRowDxfId="105"/>
-    <tableColumn id="7" xr3:uid="{223BBA38-BBF5-4596-9520-B3C80EF77B2C}" name="09-oct" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="8" xr3:uid="{CBA2CED5-BFCD-478D-BC0B-64F7236665B8}" name="10-oct" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="9" xr3:uid="{9142E539-6B94-44F9-AE32-D9D0257404D4}" name="11-oct" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="10" xr3:uid="{3DF50CC7-E072-416C-9E4D-77F99E3AFEE4}" name="12-oct" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="11" xr3:uid="{1BA6AA9C-31C1-4DF3-AB9B-EE58F953EA7B}" name="13-oct" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="12" xr3:uid="{E3903BB0-7B8A-45F4-8E32-0DEC3020D2C7}" name="14-oct" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="13" xr3:uid="{902C3056-E350-4CB3-8791-82ADD700A68A}" name="15-oct" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="14" xr3:uid="{54609321-2FA1-4A62-830E-30F3A492893D}" name="16-oct" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="15" xr3:uid="{3F1B4408-EFA2-430D-89AE-07B73C0F975A}" name="17-oct" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="16" xr3:uid="{6DC91AA7-F87C-4075-9A2A-AF1EB7BCC95B}" name="18-oct" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="17" xr3:uid="{0AA6E344-3437-43D3-992F-24D8117454B9}" name="19-oct" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="18" xr3:uid="{96D8D6A9-008E-484B-B7B4-28ABA94491F0}" name="20-oct" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="19" xr3:uid="{C6993608-949D-47F9-B239-5455810AAC64}" name="21-oct" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="20" xr3:uid="{D1F65972-7A93-4F3D-9DD9-0066440F9CD3}" name="22-oct" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="21" xr3:uid="{2491BABE-5995-4D9B-9106-2E6B37978835}" name="23-oct" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="22" xr3:uid="{AFD0F5C6-D453-44A7-A7A2-E80250827459}" name="24-oct" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="23" xr3:uid="{05DEBB6A-759F-4C9F-AF39-B31DA26929B5}" name="25-oct" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="24" xr3:uid="{0F14F7F0-8C7B-47D9-A425-10B6AB326102}" name="26-oct" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="25" xr3:uid="{F63019F4-1021-4A1C-AD12-1FA5B5EAC831}" name="27-oct" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="26" xr3:uid="{A0FA9325-6D8A-4E3F-841E-0A51A69AA21F}" name="28-oct" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="27" xr3:uid="{01390279-2B86-4CDA-AACC-12D48EE68027}" name="29-oct" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="28" xr3:uid="{9E31ED4A-02CE-4F4A-8A83-5681191E9E9E}" name="30-oct" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="29" xr3:uid="{885B064E-7B13-4C56-B53C-04028C7E7B19}" name="31-oct" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{7CF5EF96-F7EA-4081-A9F6-C6030E29374A}" name="05-oct" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{AED08872-92A3-48EC-9686-65D32A38B01C}" name="06-oct" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="5" xr3:uid="{A361D231-81F6-4E0E-9D68-F198542EC510}" name="07-oct" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{95C7985A-0503-4B82-A39B-7087B64C463E}" name="08-oct" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="7" xr3:uid="{223BBA38-BBF5-4596-9520-B3C80EF77B2C}" name="09-oct" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="8" xr3:uid="{CBA2CED5-BFCD-478D-BC0B-64F7236665B8}" name="10-oct" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="9" xr3:uid="{9142E539-6B94-44F9-AE32-D9D0257404D4}" name="11-oct" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="10" xr3:uid="{3DF50CC7-E072-416C-9E4D-77F99E3AFEE4}" name="12-oct" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="11" xr3:uid="{1BA6AA9C-31C1-4DF3-AB9B-EE58F953EA7B}" name="13-oct" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="12" xr3:uid="{E3903BB0-7B8A-45F4-8E32-0DEC3020D2C7}" name="14-oct" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="13" xr3:uid="{902C3056-E350-4CB3-8791-82ADD700A68A}" name="15-oct" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="14" xr3:uid="{54609321-2FA1-4A62-830E-30F3A492893D}" name="16-oct" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="15" xr3:uid="{3F1B4408-EFA2-430D-89AE-07B73C0F975A}" name="17-oct" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="16" xr3:uid="{6DC91AA7-F87C-4075-9A2A-AF1EB7BCC95B}" name="18-oct" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="17" xr3:uid="{0AA6E344-3437-43D3-992F-24D8117454B9}" name="19-oct" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="18" xr3:uid="{96D8D6A9-008E-484B-B7B4-28ABA94491F0}" name="20-oct" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="19" xr3:uid="{C6993608-949D-47F9-B239-5455810AAC64}" name="21-oct" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="20" xr3:uid="{D1F65972-7A93-4F3D-9DD9-0066440F9CD3}" name="22-oct" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="21" xr3:uid="{2491BABE-5995-4D9B-9106-2E6B37978835}" name="23-oct" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="22" xr3:uid="{AFD0F5C6-D453-44A7-A7A2-E80250827459}" name="24-oct" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="23" xr3:uid="{05DEBB6A-759F-4C9F-AF39-B31DA26929B5}" name="25-oct" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="24" xr3:uid="{0F14F7F0-8C7B-47D9-A425-10B6AB326102}" name="26-oct" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="25" xr3:uid="{F63019F4-1021-4A1C-AD12-1FA5B5EAC831}" name="27-oct" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="26" xr3:uid="{A0FA9325-6D8A-4E3F-841E-0A51A69AA21F}" name="28-oct" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="27" xr3:uid="{01390279-2B86-4CDA-AACC-12D48EE68027}" name="29-oct" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="28" xr3:uid="{9E31ED4A-02CE-4F4A-8A83-5681191E9E9E}" name="30-oct" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="29" xr3:uid="{885B064E-7B13-4C56-B53C-04028C7E7B19}" name="31-oct" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{949F634D-FB76-42BC-8AD2-845CBF052EB4}" name="PlanningBonus" displayName="PlanningBonus" ref="A54:AD111" totalsRowShown="0" headerRowDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{949F634D-FB76-42BC-8AD2-845CBF052EB4}" name="PlanningBonus" displayName="PlanningBonus" ref="A54:AD111" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="A54:AD111" xr:uid="{C72AC31B-BC16-4ED0-A742-6FDD0EBB8631}"/>
   <tableColumns count="30">
-    <tableColumn id="30" xr3:uid="{A9929115-DAFC-40AE-A75F-89D94A3A6E3E}" name="N°" dataDxfId="57">
+    <tableColumn id="30" xr3:uid="{A9929115-DAFC-40AE-A75F-89D94A3A6E3E}" name="N°" dataDxfId="46">
       <calculatedColumnFormula>Tâches!A53</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{D9389245-51FF-4B4C-8D41-B0C82DF9FA75}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{725C423E-FCC3-4D2B-A7B1-04718A631379}" name="Tâche" dataDxfId="56">
+    <tableColumn id="2" xr3:uid="{725C423E-FCC3-4D2B-A7B1-04718A631379}" name="Tâche" dataDxfId="45">
       <calculatedColumnFormula>Tâches!B53</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3E9DBF51-63AA-41C7-8026-17B53B0A9B6C}" name="05-oct" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{82D5CCDD-F94F-4AD0-87E3-71A24CD87405}" name="06-oct" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{BE2F3F2A-9776-4093-805A-312DDC6F80FE}" name="07-oct" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{C1BB4810-F8A8-4B1C-BEFF-BCD91A7CBE63}" name="08-oct" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{81533870-EEB5-4296-AE2B-E1E0C4B449EA}" name="09-oct" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{5614AF65-2E97-4A81-93F3-4BF71D68BA64}" name="10-oct" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{68ABF0CA-AF48-4143-8348-D852DD541BEA}" name="11-oct" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{D00B30BB-B608-47A8-A909-B3CCE0CD31F7}" name="12-oct" dataDxfId="48"/>
-    <tableColumn id="11" xr3:uid="{E0989A06-4A1E-4309-B9D8-FFF15CEF945C}" name="13-oct" dataDxfId="47"/>
-    <tableColumn id="12" xr3:uid="{1779F27B-A65D-4938-A036-4979FC026FF9}" name="14-oct" dataDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{22F38C55-7716-4548-902D-BF65239896B9}" name="15-oct" dataDxfId="45"/>
-    <tableColumn id="14" xr3:uid="{0379C43C-369A-4D33-98C8-09F6AB1138A5}" name="16-oct" dataDxfId="44"/>
-    <tableColumn id="15" xr3:uid="{95071E30-9EB4-4F6F-863F-5DDBD2FC2727}" name="17-oct" dataDxfId="43"/>
-    <tableColumn id="16" xr3:uid="{57019D85-E364-4C2A-8EDF-EECF1621D7F4}" name="18-oct" dataDxfId="42"/>
-    <tableColumn id="17" xr3:uid="{E1AB2C2B-7642-4E82-9C5D-D1EBE0244AAA}" name="19-oct" dataDxfId="41"/>
-    <tableColumn id="18" xr3:uid="{109FE92E-C236-400D-8A95-114BD055E9DA}" name="20-oct" dataDxfId="40"/>
-    <tableColumn id="19" xr3:uid="{F53D6821-A790-4CAC-82E2-E3B0BA8021AD}" name="21-oct" dataDxfId="39"/>
-    <tableColumn id="20" xr3:uid="{E29FFFEE-7FB8-414D-BCCD-0CBC972A8026}" name="22-oct" dataDxfId="38"/>
-    <tableColumn id="21" xr3:uid="{143958D3-765B-428D-A750-762564AFF52B}" name="23-oct" dataDxfId="37"/>
-    <tableColumn id="22" xr3:uid="{F6E67B4D-280E-47A5-AF79-5FF172D2E5C7}" name="24-oct" dataDxfId="36"/>
-    <tableColumn id="23" xr3:uid="{A16D3DC4-7696-40A7-8B9F-1454BEC9DBC2}" name="25-oct" dataDxfId="35"/>
-    <tableColumn id="24" xr3:uid="{218180A7-E150-4120-8AE9-6723F56E1D9B}" name="26-oct" dataDxfId="34"/>
-    <tableColumn id="25" xr3:uid="{AFF74DA3-B552-40C8-A8FE-1E5490C0DC0B}" name="27-oct" dataDxfId="33"/>
-    <tableColumn id="26" xr3:uid="{38E7E763-F0C2-4BFE-A84B-1E26140C2250}" name="28-oct" dataDxfId="32"/>
-    <tableColumn id="27" xr3:uid="{988E4DC2-CA0F-4098-B08C-759F208CFD2A}" name="29-oct" dataDxfId="31"/>
-    <tableColumn id="28" xr3:uid="{539EA04B-D1E5-47FC-9E69-E37BB7704D5C}" name="30-oct" dataDxfId="30"/>
-    <tableColumn id="29" xr3:uid="{21E9E5C4-8D23-454B-8A91-1CF8DA5078B0}" name="31-oct" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{3E9DBF51-63AA-41C7-8026-17B53B0A9B6C}" name="05-oct" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{82D5CCDD-F94F-4AD0-87E3-71A24CD87405}" name="06-oct" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{BE2F3F2A-9776-4093-805A-312DDC6F80FE}" name="07-oct" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{C1BB4810-F8A8-4B1C-BEFF-BCD91A7CBE63}" name="08-oct" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{81533870-EEB5-4296-AE2B-E1E0C4B449EA}" name="09-oct" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{5614AF65-2E97-4A81-93F3-4BF71D68BA64}" name="10-oct" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{68ABF0CA-AF48-4143-8348-D852DD541BEA}" name="11-oct" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{D00B30BB-B608-47A8-A909-B3CCE0CD31F7}" name="12-oct" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{E0989A06-4A1E-4309-B9D8-FFF15CEF945C}" name="13-oct" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{1779F27B-A65D-4938-A036-4979FC026FF9}" name="14-oct" dataDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{22F38C55-7716-4548-902D-BF65239896B9}" name="15-oct" dataDxfId="34"/>
+    <tableColumn id="14" xr3:uid="{0379C43C-369A-4D33-98C8-09F6AB1138A5}" name="16-oct" dataDxfId="33"/>
+    <tableColumn id="15" xr3:uid="{95071E30-9EB4-4F6F-863F-5DDBD2FC2727}" name="17-oct" dataDxfId="32"/>
+    <tableColumn id="16" xr3:uid="{57019D85-E364-4C2A-8EDF-EECF1621D7F4}" name="18-oct" dataDxfId="31"/>
+    <tableColumn id="17" xr3:uid="{E1AB2C2B-7642-4E82-9C5D-D1EBE0244AAA}" name="19-oct" dataDxfId="30"/>
+    <tableColumn id="18" xr3:uid="{109FE92E-C236-400D-8A95-114BD055E9DA}" name="20-oct" dataDxfId="29"/>
+    <tableColumn id="19" xr3:uid="{F53D6821-A790-4CAC-82E2-E3B0BA8021AD}" name="21-oct" dataDxfId="28"/>
+    <tableColumn id="20" xr3:uid="{E29FFFEE-7FB8-414D-BCCD-0CBC972A8026}" name="22-oct" dataDxfId="27"/>
+    <tableColumn id="21" xr3:uid="{143958D3-765B-428D-A750-762564AFF52B}" name="23-oct" dataDxfId="26"/>
+    <tableColumn id="22" xr3:uid="{F6E67B4D-280E-47A5-AF79-5FF172D2E5C7}" name="24-oct" dataDxfId="25"/>
+    <tableColumn id="23" xr3:uid="{A16D3DC4-7696-40A7-8B9F-1454BEC9DBC2}" name="25-oct" dataDxfId="24"/>
+    <tableColumn id="24" xr3:uid="{218180A7-E150-4120-8AE9-6723F56E1D9B}" name="26-oct" dataDxfId="23"/>
+    <tableColumn id="25" xr3:uid="{AFF74DA3-B552-40C8-A8FE-1E5490C0DC0B}" name="27-oct" dataDxfId="22"/>
+    <tableColumn id="26" xr3:uid="{38E7E763-F0C2-4BFE-A84B-1E26140C2250}" name="28-oct" dataDxfId="21"/>
+    <tableColumn id="27" xr3:uid="{988E4DC2-CA0F-4098-B08C-759F208CFD2A}" name="29-oct" dataDxfId="20"/>
+    <tableColumn id="28" xr3:uid="{539EA04B-D1E5-47FC-9E69-E37BB7704D5C}" name="30-oct" dataDxfId="19"/>
+    <tableColumn id="29" xr3:uid="{21E9E5C4-8D23-454B-8A91-1CF8DA5078B0}" name="31-oct" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DEB2AD8-CEC3-48AA-9CF7-ED08DF8D0180}" name="AvancementPrincipal" displayName="AvancementPrincipal" ref="A3:H50" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DEB2AD8-CEC3-48AA-9CF7-ED08DF8D0180}" name="AvancementPrincipal" displayName="AvancementPrincipal" ref="A3:H50" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A3:H50" xr:uid="{6BCE8A7D-7D04-4394-AD53-9D2B48AA6CFD}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B07E0580-F8B1-4A81-8EA6-8D0DD94E6CBF}" name="N°" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{B07E0580-F8B1-4A81-8EA6-8D0DD94E6CBF}" name="N°" dataDxfId="16">
       <calculatedColumnFormula>TachesPrincipales[[#This Row],[N°]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CD2C34A8-4A66-4D31-8674-72875FEEBCB9}" name="Tâche" dataDxfId="26">
+    <tableColumn id="2" xr3:uid="{CD2C34A8-4A66-4D31-8674-72875FEEBCB9}" name="Tâche" dataDxfId="15">
       <calculatedColumnFormula>TachesPrincipales[[#This Row],[Tâche]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1F692755-0EBF-47B3-98F7-5870DAAA2B47}" name="Durée estimée (jours-hommes)" dataDxfId="25">
+    <tableColumn id="3" xr3:uid="{1F692755-0EBF-47B3-98F7-5870DAAA2B47}" name="Durée estimée (jours-hommes)" dataDxfId="14">
       <calculatedColumnFormula>TachesPrincipales[[#This Row],[Travail (en jours-hommes)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77A08BA6-0C47-4CA1-898D-34688079E99A}" name="Temps consacré (jours-hommes)" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{E6DFF25A-5C0F-4D2B-AD4B-356CCC3C697D}" name="Temps restant (jours-hommes)" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{80B25DCD-7C24-4853-87D7-112B68A75ACA}" name="Complétion" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{77A08BA6-0C47-4CA1-898D-34688079E99A}" name="Temps consacré (jours-hommes)" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{E6DFF25A-5C0F-4D2B-AD4B-356CCC3C697D}" name="Temps restant (jours-hommes)" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{80B25DCD-7C24-4853-87D7-112B68A75ACA}" name="Complétion" dataDxfId="11">
       <calculatedColumnFormula>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E98F81A4-15B7-43AA-8EE6-E47F2F7BDDBA}" name="Avance / Retard (jours-hommes)" dataDxfId="21">
+    <tableColumn id="9" xr3:uid="{E98F81A4-15B7-43AA-8EE6-E47F2F7BDDBA}" name="Avance / Retard (jours-hommes)" dataDxfId="10">
       <calculatedColumnFormula>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{19DBC3BA-BFF6-4123-B35C-1B58A7832A4B}" name="Commentaire" dataDxfId="20" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{19DBC3BA-BFF6-4123-B35C-1B58A7832A4B}" name="Commentaire" dataDxfId="9" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{04BF9D35-9277-48A6-B974-1A1D7A80EEAE}" name="AvancementPrincipal8" displayName="AvancementPrincipal8" ref="A52:H109" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{04BF9D35-9277-48A6-B974-1A1D7A80EEAE}" name="AvancementPrincipal8" displayName="AvancementPrincipal8" ref="A52:H109" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A52:H109" xr:uid="{43FC80CF-67C7-44CB-8AF9-C483360ED027}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{50AEF074-CE1B-4E86-81E2-68DBB744C39B}" name="N°" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{50AEF074-CE1B-4E86-81E2-68DBB744C39B}" name="N°" dataDxfId="7">
       <calculatedColumnFormula>TachesBonus[[#This Row],[N°]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{23C870F0-9110-4D2F-8665-88DA3D2D1265}" name="Tâche" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{23C870F0-9110-4D2F-8665-88DA3D2D1265}" name="Tâche" dataDxfId="6">
       <calculatedColumnFormula>TachesBonus[[#This Row],[Tâche]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{69BB17CC-DE87-420A-BBFA-062BF2BEF7AA}" name="Durée estimée (jours-hommes)" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{69BB17CC-DE87-420A-BBFA-062BF2BEF7AA}" name="Durée estimée (jours-hommes)" dataDxfId="5">
       <calculatedColumnFormula>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A14AEF2F-CFF6-4D95-9EB5-0A11BA283D4F}" name="Temps consacré (jours-hommes)" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{25E0D910-E053-4859-9A05-DA9FEEB0AC2A}" name="Temps restant (jours-hommes)" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{5E4CFA2C-63BF-45F7-9435-50DEBD5B0D2E}" name="Complétion" dataDxfId="13">
+    <tableColumn id="4" xr3:uid="{A14AEF2F-CFF6-4D95-9EB5-0A11BA283D4F}" name="Temps consacré (jours-hommes)" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{25E0D910-E053-4859-9A05-DA9FEEB0AC2A}" name="Temps restant (jours-hommes)" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5E4CFA2C-63BF-45F7-9435-50DEBD5B0D2E}" name="Complétion" dataDxfId="2">
       <calculatedColumnFormula>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B0B94A9D-C385-47C1-9326-CF1085FB5FB7}" name="Avance / Retard (jours-hommes)" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{B0B94A9D-C385-47C1-9326-CF1085FB5FB7}" name="Avance / Retard (jours-hommes)" dataDxfId="1">
       <calculatedColumnFormula>IF(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal8[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3B743E05-8FA8-4C6C-91C3-7DC6C79CF839}" name="Commentaire" dataDxfId="11" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{3B743E05-8FA8-4C6C-91C3-7DC6C79CF839}" name="Commentaire" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6796,8 +6796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54278537-4330-487B-8B1E-186EA2F14073}">
   <dimension ref="A1:XFD122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="R77" sqref="R77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9725,7 +9725,7 @@
       <c r="O71" s="21"/>
       <c r="P71" s="20"/>
       <c r="Q71" s="20"/>
-      <c r="R71" s="21"/>
+      <c r="R71" s="41"/>
       <c r="S71" s="21"/>
       <c r="T71" s="21"/>
       <c r="U71" s="21"/>
@@ -9965,7 +9965,7 @@
       <c r="O77" s="21"/>
       <c r="P77" s="20"/>
       <c r="Q77" s="20"/>
-      <c r="R77" s="21"/>
+      <c r="R77" s="41"/>
       <c r="S77" s="21"/>
       <c r="T77" s="21"/>
       <c r="U77" s="21"/>
@@ -10005,7 +10005,7 @@
       <c r="O78" s="21"/>
       <c r="P78" s="20"/>
       <c r="Q78" s="20"/>
-      <c r="R78" s="21"/>
+      <c r="R78" s="41"/>
       <c r="S78" s="21"/>
       <c r="T78" s="21"/>
       <c r="U78" s="21"/>
@@ -11359,37 +11359,37 @@
     <mergeCell ref="Y3:AD3"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B51 B55:B111">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="1" operator="equal">
       <formula>"Programmation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="2" operator="equal">
       <formula>"Recherche"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="3" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="4" operator="equal">
       <formula>"Débogage"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="5" operator="equal">
       <formula>"Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="6" operator="equal">
       <formula>"Technique"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="7" operator="equal">
       <formula>"Web"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="9" operator="equal">
       <formula>"Gestion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="10" operator="equal">
       <formula>"Rédaction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="11" operator="equal">
       <formula>"Base de données"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="12" operator="equal">
       <formula>"Modélisation"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/avancement Cliiink.xlsx
+++ b/doc/avancement Cliiink.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Desktop\cliiink\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Desktop\cliiinkp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F170DB1-4325-4D9D-A996-84039230F6A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5153E5-9279-43F5-B6F2-3C163F559332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,9 +200,6 @@
     <t>Mettre en forme les données de l'INSEE</t>
   </si>
   <si>
-    <t>Compléter la base de données avec les tables pour l'INSEE</t>
-  </si>
-  <si>
     <t>Créer des requêtes (CRUD) pour les données de l'INSEE</t>
   </si>
   <si>
@@ -428,9 +425,6 @@
     <t>Adapter le MLD avec les nouvelles données de la CACPL</t>
   </si>
   <si>
-    <t>Adapter le MRD avec les données de l'INSEE</t>
-  </si>
-  <si>
     <t>Détecter les anomalies et nettoyer les nouvelles données de la CACPL</t>
   </si>
   <si>
@@ -1014,6 +1008,12 @@
   </si>
   <si>
     <t>Gérer et enregistrer les UUID comme clés primaires (en format compact) et modifier les requêtes en conséquence</t>
+  </si>
+  <si>
+    <t>Adapter le MRD avec les nouvelles données de la CACPL</t>
+  </si>
+  <si>
+    <t>Compléter la base de données avec les tables pour les nouvelles données de la CACPL</t>
   </si>
 </sst>
 </file>
@@ -4089,8 +4089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53404295-2D02-454B-A260-080633A909F0}">
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4106,7 +4106,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="69" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -4155,19 +4155,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="14">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4186,13 +4186,13 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4211,13 +4211,13 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4236,13 +4236,13 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4251,19 +4251,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C8" s="14">
         <v>0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4272,19 +4272,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="14">
         <v>0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4293,19 +4293,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4314,7 +4314,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="14">
         <v>0.5</v>
@@ -4339,7 +4339,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="14">
         <v>0.5</v>
@@ -4364,7 +4364,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="14">
         <v>0.5</v>
@@ -4389,7 +4389,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="14">
         <v>0.5</v>
@@ -4399,7 +4399,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -4414,7 +4414,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="14">
         <v>1</v>
@@ -4445,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -4460,16 +4460,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="14">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
@@ -4484,7 +4484,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="14">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="14">
         <v>1</v>
@@ -4533,7 +4533,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="14">
         <v>1</v>
@@ -4542,13 +4542,13 @@
         <v>16</v>
       </c>
       <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" t="s">
         <v>83</v>
-      </c>
-      <c r="F20" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4557,16 +4557,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="14">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>96</v>
-      </c>
-      <c r="F21" t="s">
-        <v>97</v>
       </c>
       <c r="G21" t="s">
         <v>6</v>
@@ -4578,19 +4578,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="14">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G22" t="s">
         <v>6</v>
@@ -4602,13 +4602,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="14">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
@@ -4626,7 +4626,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="14">
         <v>2</v>
@@ -4656,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
         <v>31</v>
@@ -4671,19 +4671,19 @@
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="14">
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -4701,13 +4701,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G27" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -4716,7 +4716,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="14">
         <v>1</v>
@@ -4725,13 +4725,13 @@
         <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -4740,7 +4740,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C29" s="14">
         <v>0.5</v>
@@ -4765,7 +4765,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C30" s="14">
         <v>0.5</v>
@@ -4790,7 +4790,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C31" s="14">
         <v>0.5</v>
@@ -4815,7 +4815,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="14">
         <v>0.5</v>
@@ -4825,7 +4825,7 @@
         <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
@@ -4840,7 +4840,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C33" s="14">
         <v>1</v>
@@ -4850,7 +4850,7 @@
         <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -4871,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
@@ -4892,7 +4892,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
         <v>53</v>
@@ -4910,7 +4910,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C36" s="14">
         <v>1</v>
@@ -4934,7 +4934,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="14">
         <v>2</v>
@@ -4958,7 +4958,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="14">
         <v>1.5</v>
@@ -4967,13 +4967,13 @@
         <v>16.34</v>
       </c>
       <c r="E38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4982,16 +4982,16 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="14">
         <v>0.5</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F39" t="s">
         <v>29</v>
@@ -5006,19 +5006,19 @@
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="14">
         <v>0.5</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -5027,19 +5027,19 @@
         <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C41" s="14">
         <v>1</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G41" t="s">
         <v>6</v>
@@ -5051,19 +5051,19 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C42" s="14">
         <v>1</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G42" t="s">
         <v>6</v>
@@ -5075,22 +5075,22 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C43" s="14">
         <v>2</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -5108,13 +5108,13 @@
         <v>36</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G44" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -5132,13 +5132,13 @@
         <v>36</v>
       </c>
       <c r="E45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F45" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -5156,13 +5156,13 @@
         <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F46" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -5171,7 +5171,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C47" s="14">
         <v>1</v>
@@ -5180,13 +5180,13 @@
         <v>36</v>
       </c>
       <c r="E47" t="s">
+        <v>222</v>
+      </c>
+      <c r="F47" t="s">
         <v>224</v>
       </c>
-      <c r="F47" t="s">
-        <v>226</v>
-      </c>
       <c r="G47" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -5204,13 +5204,13 @@
         <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -5219,7 +5219,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="14">
         <v>1</v>
@@ -5243,7 +5243,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" s="14">
         <v>1</v>
@@ -5255,7 +5255,7 @@
         <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G50" t="s">
         <v>42</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="51" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B51" s="70"/>
       <c r="C51" s="70"/>
@@ -5301,7 +5301,7 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C53" s="14">
         <v>2</v>
@@ -5310,7 +5310,7 @@
         <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F53" t="s">
         <v>24</v>
@@ -5325,19 +5325,19 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C54" s="14">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -5346,7 +5346,7 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C55" s="14">
         <v>0.5</v>
@@ -5371,7 +5371,7 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C56" s="14">
         <v>0.5</v>
@@ -5396,7 +5396,7 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C57" s="14">
         <v>0.5</v>
@@ -5421,7 +5421,7 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C58" s="14">
         <v>0.5</v>
@@ -5431,7 +5431,7 @@
         <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F58" t="s">
         <v>15</v>
@@ -5446,7 +5446,7 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C59" s="14">
         <v>1</v>
@@ -5456,7 +5456,7 @@
         <v>53</v>
       </c>
       <c r="E59" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -5471,13 +5471,13 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C60" s="14">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
@@ -5492,13 +5492,13 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C61" s="14">
         <v>1</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E61" t="s">
         <v>53</v>
@@ -5516,7 +5516,7 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C62" s="14">
         <v>1</v>
@@ -5541,7 +5541,7 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C63" s="14">
         <v>1</v>
@@ -5566,7 +5566,7 @@
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C64" s="14">
         <v>1</v>
@@ -5576,13 +5576,13 @@
         <v>58</v>
       </c>
       <c r="E64" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -5591,16 +5591,16 @@
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C65" s="14">
         <v>0.5</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E65" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F65" t="s">
         <v>29</v>
@@ -5615,19 +5615,19 @@
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C66" s="14">
         <v>1</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E66" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F66" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G66" t="s">
         <v>6</v>
@@ -5639,19 +5639,19 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C67" s="14">
         <v>1</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E67" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F67" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G67" t="s">
         <v>6</v>
@@ -5663,22 +5663,22 @@
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C68" s="14">
         <v>2</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E68" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F68" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -5687,19 +5687,19 @@
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C69" s="14">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F69" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -5708,7 +5708,7 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C70" s="14">
         <v>0.5</v>
@@ -5733,7 +5733,7 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C71" s="14">
         <v>0.5</v>
@@ -5758,7 +5758,7 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C72" s="14">
         <v>0.5</v>
@@ -5783,7 +5783,7 @@
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>327</v>
       </c>
       <c r="C73" s="14">
         <v>0.5</v>
@@ -5793,7 +5793,7 @@
         <v>67</v>
       </c>
       <c r="E73" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F73" t="s">
         <v>15</v>
@@ -5808,7 +5808,7 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>57</v>
+        <v>328</v>
       </c>
       <c r="C74" s="14">
         <v>1</v>
@@ -5818,7 +5818,7 @@
         <v>68</v>
       </c>
       <c r="E74" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
@@ -5833,13 +5833,13 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C75" s="14">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
@@ -5854,13 +5854,13 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C76" s="14">
         <v>1</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E76" t="s">
         <v>53</v>
@@ -5878,7 +5878,7 @@
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C77" s="14">
         <v>1</v>
@@ -5903,7 +5903,7 @@
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C78" s="14">
         <v>2</v>
@@ -5928,7 +5928,7 @@
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C79" s="14">
         <v>1.5</v>
@@ -5938,13 +5938,13 @@
         <v>73</v>
       </c>
       <c r="E79" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F79" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -5953,16 +5953,16 @@
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C80" s="14">
         <v>0.5</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E80" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F80" t="s">
         <v>29</v>
@@ -5977,7 +5977,7 @@
         <v>76</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C81" s="14">
         <v>1</v>
@@ -5987,10 +5987,10 @@
         <v>73</v>
       </c>
       <c r="E81" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F81" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G81" t="s">
         <v>6</v>
@@ -6002,19 +6002,19 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C82" s="14">
         <v>1</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F82" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G82" t="s">
         <v>6</v>
@@ -6026,7 +6026,7 @@
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C83" s="14">
         <v>1</v>
@@ -6036,10 +6036,10 @@
         <v>77</v>
       </c>
       <c r="E83" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F83" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G83" t="s">
         <v>6</v>
@@ -6051,19 +6051,19 @@
         <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C84" s="14">
         <v>1</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E84" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F84" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G84" t="s">
         <v>6</v>
@@ -6075,22 +6075,22 @@
         <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C85" s="14">
         <v>2</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F85" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -6099,19 +6099,19 @@
         <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C86" s="14">
         <v>3</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G86" t="s">
         <v>6</v>
@@ -6123,19 +6123,19 @@
         <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C87" s="14">
         <v>2</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F87" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G87" t="s">
         <v>6</v>
@@ -6147,19 +6147,19 @@
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C88" s="14">
         <v>2</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F88" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G88" t="s">
         <v>6</v>
@@ -6171,19 +6171,19 @@
         <v>84</v>
       </c>
       <c r="B89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="14">
         <v>4</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F89" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G89" t="s">
         <v>6</v>
@@ -6195,7 +6195,7 @@
         <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C90" s="14">
         <v>1</v>
@@ -6205,10 +6205,10 @@
         <v>20</v>
       </c>
       <c r="E90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F90" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G90" t="s">
         <v>34</v>
@@ -6220,7 +6220,7 @@
         <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C91" s="14">
         <v>1</v>
@@ -6229,10 +6229,10 @@
         <v>84</v>
       </c>
       <c r="E91" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F91" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -6244,7 +6244,7 @@
         <v>87</v>
       </c>
       <c r="B92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C92" s="14">
         <v>2</v>
@@ -6254,10 +6254,10 @@
         <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G92" t="s">
         <v>6</v>
@@ -6269,7 +6269,7 @@
         <v>88</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C93" s="14">
         <v>2</v>
@@ -6279,10 +6279,10 @@
         <v>87</v>
       </c>
       <c r="E93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G93" t="s">
         <v>6</v>
@@ -6294,13 +6294,13 @@
         <v>89</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C94" s="14">
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F94" t="s">
         <v>31</v>
@@ -6315,19 +6315,19 @@
         <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C95" s="14">
         <v>1.5</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F95" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G95" t="s">
         <v>34</v>
@@ -6339,19 +6339,19 @@
         <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C96" s="14">
         <v>1.5</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G96" t="s">
         <v>34</v>
@@ -6363,19 +6363,19 @@
         <v>92</v>
       </c>
       <c r="B97" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="14">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
         <v>111</v>
       </c>
-      <c r="C97" s="14">
-        <v>1</v>
-      </c>
-      <c r="E97" t="s">
-        <v>112</v>
-      </c>
       <c r="F97" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G97" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -6384,7 +6384,7 @@
         <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C98" s="14">
         <v>2</v>
@@ -6394,7 +6394,7 @@
         <v>92</v>
       </c>
       <c r="E98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F98" t="s">
         <v>22</v>
@@ -6409,22 +6409,22 @@
         <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C99" s="14">
         <v>1</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E99" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F99" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G99" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -6433,7 +6433,7 @@
         <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C100" s="14">
         <v>1.5</v>
@@ -6442,13 +6442,13 @@
         <v>36</v>
       </c>
       <c r="E100" t="s">
+        <v>243</v>
+      </c>
+      <c r="F100" t="s">
+        <v>244</v>
+      </c>
+      <c r="G100" t="s">
         <v>245</v>
-      </c>
-      <c r="F100" t="s">
-        <v>246</v>
-      </c>
-      <c r="G100" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -6457,19 +6457,19 @@
         <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C101" s="14">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F101" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G101" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -6478,22 +6478,22 @@
         <v>97</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C102" s="14">
         <v>1</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E102" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F102" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G102" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -6502,19 +6502,19 @@
         <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C103" s="14">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F103" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -6523,22 +6523,22 @@
         <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C104" s="14">
         <v>1</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E104" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F104" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G104" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -6547,19 +6547,19 @@
         <v>100</v>
       </c>
       <c r="B105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C105" s="14">
         <v>1</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F105" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G105" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -6568,19 +6568,19 @@
         <v>101</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C106" s="14">
         <v>2</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E106" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F106" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G106" t="s">
         <v>6</v>
@@ -6592,16 +6592,16 @@
         <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C107" s="14">
         <v>1.5</v>
       </c>
       <c r="E107" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F107" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G107" t="s">
         <v>6</v>
@@ -6613,19 +6613,19 @@
         <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C108" s="14">
         <v>1</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F108" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G108" t="s">
         <v>6</v>
@@ -6637,19 +6637,19 @@
         <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C109" s="14">
         <v>1</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E109" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F109" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G109" t="s">
         <v>6</v>
@@ -6796,8 +6796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54278537-4330-487B-8B1E-186EA2F14073}">
   <dimension ref="A1:XFD122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="R77" sqref="R77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="T80" sqref="T80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6810,7 +6810,7 @@
   <sheetData>
     <row r="1" spans="1:30 16384:16384" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="67" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -6844,7 +6844,7 @@
     </row>
     <row r="2" spans="1:30 16384:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -6878,12 +6878,12 @@
     </row>
     <row r="3" spans="1:30 16384:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B3" s="71"/>
       <c r="C3" s="72"/>
       <c r="D3" s="74" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E3" s="75"/>
       <c r="F3" s="75"/>
@@ -6892,7 +6892,7 @@
       <c r="I3" s="75"/>
       <c r="J3" s="76"/>
       <c r="K3" s="74" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L3" s="75"/>
       <c r="M3" s="75"/>
@@ -6901,7 +6901,7 @@
       <c r="P3" s="75"/>
       <c r="Q3" s="76"/>
       <c r="R3" s="74" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="S3" s="75"/>
       <c r="T3" s="75"/>
@@ -6910,7 +6910,7 @@
       <c r="W3" s="75"/>
       <c r="X3" s="76"/>
       <c r="Y3" s="75" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Z3" s="75"/>
       <c r="AA3" s="75"/>
@@ -6923,91 +6923,91 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="36" t="s">
+      <c r="F4" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="R4" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="S4" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="U4" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="V4" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="W4" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="X4" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="Y4" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="Z4" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="AA4" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="AB4" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="AA4" s="15" t="s">
+      <c r="AC4" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AD4" s="15" t="s">
         <v>303</v>
-      </c>
-      <c r="AC4" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD4" s="15" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:30 16384:16384" x14ac:dyDescent="0.25">
@@ -7016,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C5" s="17" t="str">
         <f>Tâches!B4</f>
@@ -7057,7 +7057,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C6" s="18" t="str">
         <f>Tâches!B5</f>
@@ -7097,7 +7097,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C7" s="18" t="str">
         <f>Tâches!B6</f>
@@ -7137,7 +7137,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C8" s="18" t="str">
         <f>Tâches!B7</f>
@@ -7177,7 +7177,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C9" s="18" t="str">
         <f>Tâches!B8</f>
@@ -7217,7 +7217,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C10" s="18" t="str">
         <f>Tâches!B9</f>
@@ -7257,7 +7257,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C11" s="18" t="str">
         <f>Tâches!B10</f>
@@ -7297,7 +7297,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C12" s="18" t="str">
         <f>Tâches!B11</f>
@@ -7337,7 +7337,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C13" s="18" t="str">
         <f>Tâches!B12</f>
@@ -7377,7 +7377,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C14" s="18" t="str">
         <f>Tâches!B13</f>
@@ -7417,7 +7417,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C15" s="18" t="str">
         <f>Tâches!B14</f>
@@ -7457,7 +7457,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C16" s="18" t="str">
         <f>Tâches!B15</f>
@@ -7497,7 +7497,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C17" s="18" t="str">
         <f>Tâches!B16</f>
@@ -7537,7 +7537,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C18" s="18" t="str">
         <f>Tâches!B17</f>
@@ -7577,7 +7577,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C19" s="18" t="str">
         <f>Tâches!B18</f>
@@ -7617,7 +7617,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C20" s="18" t="str">
         <f>Tâches!B19</f>
@@ -7657,7 +7657,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C21" s="18" t="str">
         <f>Tâches!B20</f>
@@ -7697,7 +7697,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C22" s="18" t="str">
         <f>Tâches!B21</f>
@@ -7737,7 +7737,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C23" s="18" t="str">
         <f>Tâches!B22</f>
@@ -7777,7 +7777,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C24" s="18" t="str">
         <f>Tâches!B23</f>
@@ -7817,7 +7817,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C25" s="18" t="str">
         <f>Tâches!B24</f>
@@ -7857,7 +7857,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C26" s="18" t="str">
         <f>Tâches!B25</f>
@@ -7897,7 +7897,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C27" s="18" t="str">
         <f>Tâches!B26</f>
@@ -7937,7 +7937,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C28" s="18" t="str">
         <f>Tâches!B27</f>
@@ -7977,7 +7977,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C29" s="18" t="str">
         <f>Tâches!B28</f>
@@ -8017,7 +8017,7 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C30" s="18" t="str">
         <f>Tâches!B29</f>
@@ -8057,7 +8057,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C31" s="18" t="str">
         <f>Tâches!B30</f>
@@ -8097,7 +8097,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C32" s="18" t="str">
         <f>Tâches!B31</f>
@@ -8137,7 +8137,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C33" s="18" t="str">
         <f>Tâches!B32</f>
@@ -8177,7 +8177,7 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C34" s="18" t="str">
         <f>Tâches!B33</f>
@@ -8217,7 +8217,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C35" s="18" t="str">
         <f>Tâches!B34</f>
@@ -8257,7 +8257,7 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C36" s="18" t="str">
         <f>Tâches!B35</f>
@@ -8297,7 +8297,7 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C37" s="18" t="str">
         <f>Tâches!B36</f>
@@ -8337,7 +8337,7 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C38" s="18" t="str">
         <f>Tâches!B37</f>
@@ -8377,7 +8377,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C39" s="18" t="str">
         <f>Tâches!B38</f>
@@ -8417,7 +8417,7 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C40" s="18" t="str">
         <f>Tâches!B39</f>
@@ -8457,7 +8457,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C41" s="18" t="str">
         <f>Tâches!B40</f>
@@ -8497,7 +8497,7 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C42" s="18" t="str">
         <f>Tâches!B41</f>
@@ -8537,7 +8537,7 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C43" s="18" t="str">
         <f>Tâches!B42</f>
@@ -8577,7 +8577,7 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C44" s="18" t="str">
         <f>Tâches!B43</f>
@@ -8617,7 +8617,7 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C45" s="18" t="str">
         <f>Tâches!B44</f>
@@ -8657,7 +8657,7 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C46" s="18" t="str">
         <f>Tâches!B45</f>
@@ -8697,7 +8697,7 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C47" s="18" t="str">
         <f>Tâches!B46</f>
@@ -8737,7 +8737,7 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C48" s="18" t="str">
         <f>Tâches!B47</f>
@@ -8777,7 +8777,7 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C49" s="18" t="str">
         <f>Tâches!B48</f>
@@ -8893,7 +8893,7 @@
     </row>
     <row r="52" spans="1:30" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A52" s="73" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B52" s="73"/>
       <c r="C52" s="73"/>
@@ -8927,12 +8927,12 @@
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="71" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B53" s="71"/>
       <c r="C53" s="72"/>
       <c r="D53" s="74" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E53" s="75"/>
       <c r="F53" s="75"/>
@@ -8941,7 +8941,7 @@
       <c r="I53" s="75"/>
       <c r="J53" s="76"/>
       <c r="K53" s="74" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L53" s="75"/>
       <c r="M53" s="75"/>
@@ -8950,7 +8950,7 @@
       <c r="P53" s="75"/>
       <c r="Q53" s="76"/>
       <c r="R53" s="74" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="S53" s="75"/>
       <c r="T53" s="75"/>
@@ -8959,7 +8959,7 @@
       <c r="W53" s="75"/>
       <c r="X53" s="76"/>
       <c r="Y53" s="75" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Z53" s="75"/>
       <c r="AA53" s="75"/>
@@ -8972,91 +8972,91 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
+        <v>276</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="C54" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="15" t="s">
+      <c r="F54" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="G54" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="H54" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="I54" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="J54" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="K54" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="J54" s="15" t="s">
+      <c r="L54" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="K54" s="15" t="s">
+      <c r="M54" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="L54" s="15" t="s">
+      <c r="N54" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="M54" s="15" t="s">
+      <c r="O54" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="N54" s="15" t="s">
+      <c r="P54" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="O54" s="15" t="s">
+      <c r="Q54" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="P54" s="15" t="s">
+      <c r="R54" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="Q54" s="15" t="s">
+      <c r="S54" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="R54" s="15" t="s">
+      <c r="T54" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="S54" s="15" t="s">
+      <c r="U54" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="T54" s="15" t="s">
+      <c r="V54" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="U54" s="15" t="s">
+      <c r="W54" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="V54" s="15" t="s">
+      <c r="X54" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="W54" s="15" t="s">
+      <c r="Y54" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="X54" s="15" t="s">
+      <c r="Z54" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="Y54" s="15" t="s">
+      <c r="AA54" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="Z54" s="15" t="s">
+      <c r="AB54" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="AA54" s="15" t="s">
+      <c r="AC54" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="AB54" s="15" t="s">
+      <c r="AD54" s="15" t="s">
         <v>303</v>
-      </c>
-      <c r="AC54" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD54" s="15" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
@@ -9065,7 +9065,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C55" s="58" t="str">
         <f>Tâches!B53</f>
@@ -9105,7 +9105,7 @@
         <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C56" s="18" t="str">
         <f>Tâches!B54</f>
@@ -9145,7 +9145,7 @@
         <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C57" s="18" t="str">
         <f>Tâches!B55</f>
@@ -9185,7 +9185,7 @@
         <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C58" s="18" t="str">
         <f>Tâches!B56</f>
@@ -9225,7 +9225,7 @@
         <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C59" s="18" t="str">
         <f>Tâches!B57</f>
@@ -9265,7 +9265,7 @@
         <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C60" s="18" t="str">
         <f>Tâches!B58</f>
@@ -9305,7 +9305,7 @@
         <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C61" s="18" t="str">
         <f>Tâches!B59</f>
@@ -9345,7 +9345,7 @@
         <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C62" s="18" t="str">
         <f>Tâches!B60</f>
@@ -9385,7 +9385,7 @@
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C63" s="18" t="str">
         <f>Tâches!B61</f>
@@ -9425,7 +9425,7 @@
         <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C64" s="18" t="str">
         <f>Tâches!B62</f>
@@ -9465,7 +9465,7 @@
         <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C65" s="18" t="str">
         <f>Tâches!B63</f>
@@ -9505,7 +9505,7 @@
         <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C66" s="18" t="str">
         <f>Tâches!B64</f>
@@ -9545,7 +9545,7 @@
         <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C67" s="18" t="str">
         <f>Tâches!B65</f>
@@ -9585,7 +9585,7 @@
         <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C68" s="18" t="str">
         <f>Tâches!B66</f>
@@ -9625,7 +9625,7 @@
         <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C69" s="18" t="str">
         <f>Tâches!B67</f>
@@ -9665,7 +9665,7 @@
         <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C70" s="18" t="str">
         <f>Tâches!B68</f>
@@ -9705,7 +9705,7 @@
         <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C71" s="18" t="str">
         <f>Tâches!B69</f>
@@ -9745,7 +9745,7 @@
         <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C72" s="18" t="str">
         <f>Tâches!B70</f>
@@ -9769,7 +9769,7 @@
       <c r="S72" s="21"/>
       <c r="T72" s="21"/>
       <c r="U72" s="21"/>
-      <c r="V72" s="21"/>
+      <c r="V72" s="38"/>
       <c r="W72" s="20"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="21"/>
@@ -9785,7 +9785,7 @@
         <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C73" s="18" t="str">
         <f>Tâches!B71</f>
@@ -9809,7 +9809,7 @@
       <c r="S73" s="21"/>
       <c r="T73" s="21"/>
       <c r="U73" s="21"/>
-      <c r="V73" s="21"/>
+      <c r="V73" s="38"/>
       <c r="W73" s="20"/>
       <c r="X73" s="20"/>
       <c r="Y73" s="21"/>
@@ -9825,7 +9825,7 @@
         <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C74" s="18" t="str">
         <f>Tâches!B72</f>
@@ -9849,7 +9849,7 @@
       <c r="S74" s="21"/>
       <c r="T74" s="21"/>
       <c r="U74" s="21"/>
-      <c r="V74" s="21"/>
+      <c r="V74" s="38"/>
       <c r="W74" s="20"/>
       <c r="X74" s="20"/>
       <c r="Y74" s="21"/>
@@ -9865,11 +9865,11 @@
         <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C75" s="18" t="str">
         <f>Tâches!B73</f>
-        <v>Adapter le MRD avec les données de l'INSEE</v>
+        <v>Adapter le MRD avec les nouvelles données de la CACPL</v>
       </c>
       <c r="D75" s="22"/>
       <c r="E75" s="21"/>
@@ -9889,7 +9889,7 @@
       <c r="S75" s="21"/>
       <c r="T75" s="21"/>
       <c r="U75" s="21"/>
-      <c r="V75" s="21"/>
+      <c r="V75" s="38"/>
       <c r="W75" s="20"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="21"/>
@@ -9905,11 +9905,11 @@
         <v>69</v>
       </c>
       <c r="B76" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C76" s="18" t="str">
         <f>Tâches!B74</f>
-        <v>Compléter la base de données avec les tables pour l'INSEE</v>
+        <v>Compléter la base de données avec les tables pour les nouvelles données de la CACPL</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="21"/>
@@ -9929,7 +9929,7 @@
       <c r="S76" s="21"/>
       <c r="T76" s="21"/>
       <c r="U76" s="21"/>
-      <c r="V76" s="21"/>
+      <c r="V76" s="52"/>
       <c r="W76" s="20"/>
       <c r="X76" s="20"/>
       <c r="Y76" s="21"/>
@@ -9945,7 +9945,7 @@
         <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C77" s="18" t="str">
         <f>Tâches!B75</f>
@@ -9985,7 +9985,7 @@
         <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C78" s="18" t="str">
         <f>Tâches!B76</f>
@@ -10008,7 +10008,7 @@
       <c r="R78" s="41"/>
       <c r="S78" s="21"/>
       <c r="T78" s="21"/>
-      <c r="U78" s="21"/>
+      <c r="U78" s="41"/>
       <c r="V78" s="21"/>
       <c r="W78" s="20"/>
       <c r="X78" s="20"/>
@@ -10025,7 +10025,7 @@
         <v>72</v>
       </c>
       <c r="B79" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C79" s="18" t="str">
         <f>Tâches!B77</f>
@@ -10049,7 +10049,7 @@
       <c r="S79" s="21"/>
       <c r="T79" s="21"/>
       <c r="U79" s="21"/>
-      <c r="V79" s="21"/>
+      <c r="V79" s="41"/>
       <c r="W79" s="20"/>
       <c r="X79" s="20"/>
       <c r="Y79" s="21"/>
@@ -10065,7 +10065,7 @@
         <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C80" s="18" t="str">
         <f>Tâches!B78</f>
@@ -10105,7 +10105,7 @@
         <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C81" s="18" t="str">
         <f>Tâches!B79</f>
@@ -10145,7 +10145,7 @@
         <v>75</v>
       </c>
       <c r="B82" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C82" s="18" t="str">
         <f>Tâches!B80</f>
@@ -10185,7 +10185,7 @@
         <v>76</v>
       </c>
       <c r="B83" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C83" s="18" t="str">
         <f>Tâches!B81</f>
@@ -10225,7 +10225,7 @@
         <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C84" s="18" t="str">
         <f>Tâches!B82</f>
@@ -10265,7 +10265,7 @@
         <v>78</v>
       </c>
       <c r="B85" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C85" s="18" t="str">
         <f>Tâches!B83</f>
@@ -10305,7 +10305,7 @@
         <v>79</v>
       </c>
       <c r="B86" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C86" s="18" t="str">
         <f>Tâches!B84</f>
@@ -10345,7 +10345,7 @@
         <v>80</v>
       </c>
       <c r="B87" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C87" s="18" t="str">
         <f>Tâches!B85</f>
@@ -10385,7 +10385,7 @@
         <v>81</v>
       </c>
       <c r="B88" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C88" s="18" t="str">
         <f>Tâches!B86</f>
@@ -10425,7 +10425,7 @@
         <v>82</v>
       </c>
       <c r="B89" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C89" s="18" t="str">
         <f>Tâches!B87</f>
@@ -10465,7 +10465,7 @@
         <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C90" s="18" t="str">
         <f>Tâches!B88</f>
@@ -10505,7 +10505,7 @@
         <v>84</v>
       </c>
       <c r="B91" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C91" s="18" t="str">
         <f>Tâches!B89</f>
@@ -10545,7 +10545,7 @@
         <v>85</v>
       </c>
       <c r="B92" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C92" s="18" t="str">
         <f>Tâches!B90</f>
@@ -10585,7 +10585,7 @@
         <v>86</v>
       </c>
       <c r="B93" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C93" s="18" t="str">
         <f>Tâches!B91</f>
@@ -10625,7 +10625,7 @@
         <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C94" s="18" t="str">
         <f>Tâches!B92</f>
@@ -10665,7 +10665,7 @@
         <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C95" s="18" t="str">
         <f>Tâches!B93</f>
@@ -10705,7 +10705,7 @@
         <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C96" s="18" t="str">
         <f>Tâches!B94</f>
@@ -10745,7 +10745,7 @@
         <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C97" s="18" t="str">
         <f>Tâches!B95</f>
@@ -10785,7 +10785,7 @@
         <v>91</v>
       </c>
       <c r="B98" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C98" s="18" t="str">
         <f>Tâches!B96</f>
@@ -10825,7 +10825,7 @@
         <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C99" s="18" t="str">
         <f>Tâches!B97</f>
@@ -10865,7 +10865,7 @@
         <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C100" s="18" t="str">
         <f>Tâches!B98</f>
@@ -10905,7 +10905,7 @@
         <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C101" s="18" t="str">
         <f>Tâches!B99</f>
@@ -10945,7 +10945,7 @@
         <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C102" s="18" t="str">
         <f>Tâches!B100</f>
@@ -10985,7 +10985,7 @@
         <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C103" s="61" t="str">
         <f>Tâches!B101</f>
@@ -11025,7 +11025,7 @@
         <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C104" s="61" t="str">
         <f>Tâches!B102</f>
@@ -11065,7 +11065,7 @@
         <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C105" s="61" t="str">
         <f>Tâches!B103</f>
@@ -11105,7 +11105,7 @@
         <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C106" s="61" t="str">
         <f>Tâches!B104</f>
@@ -11145,7 +11145,7 @@
         <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C107" s="61" t="str">
         <f>Tâches!B105</f>
@@ -11185,7 +11185,7 @@
         <v>101</v>
       </c>
       <c r="B108" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C108" s="61" t="str">
         <f>Tâches!B106</f>
@@ -11225,7 +11225,7 @@
         <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C109" s="61" t="str">
         <f>Tâches!B107</f>
@@ -11265,7 +11265,7 @@
         <v>103</v>
       </c>
       <c r="B110" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C110" s="61" t="str">
         <f>Tâches!B108</f>
@@ -11305,7 +11305,7 @@
         <v>104</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C111" s="62" t="str">
         <f>Tâches!B109</f>
@@ -11425,7 +11425,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="67" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -11437,7 +11437,7 @@
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -11455,19 +11455,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="G3" s="49" t="s">
         <v>324</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>326</v>
       </c>
       <c r="H3" s="50" t="s">
         <v>43</v>
@@ -12688,7 +12688,7 @@
     </row>
     <row r="51" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A51" s="69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B51" s="69"/>
       <c r="C51" s="69"/>
@@ -12706,19 +12706,19 @@
         <v>1</v>
       </c>
       <c r="C52" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="E52" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="F52" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="E52" s="49" t="s">
+      <c r="G52" s="49" t="s">
         <v>324</v>
-      </c>
-      <c r="F52" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="G52" s="49" t="s">
-        <v>326</v>
       </c>
       <c r="H52" s="50" t="s">
         <v>43</v>
@@ -13231,7 +13231,7 @@
       </c>
       <c r="B73" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Adapter le MRD avec les données de l'INSEE</v>
+        <v>Adapter le MRD avec les nouvelles données de la CACPL</v>
       </c>
       <c r="C73" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
@@ -13256,7 +13256,7 @@
       </c>
       <c r="B74" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Compléter la base de données avec les tables pour l'INSEE</v>
+        <v>Compléter la base de données avec les tables pour les nouvelles données de la CACPL</v>
       </c>
       <c r="C74" s="14">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>

--- a/doc/avancement Cliiink.xlsx
+++ b/doc/avancement Cliiink.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Desktop\cliiinkp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5153E5-9279-43F5-B6F2-3C163F559332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D96E17-F645-4B78-BC40-0DED18B86F4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6796,8 +6796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54278537-4330-487B-8B1E-186EA2F14073}">
   <dimension ref="A1:XFD122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="T80" sqref="T80"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7681,7 +7681,7 @@
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
       <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
+      <c r="V21" s="41"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="21"/>
@@ -10130,7 +10130,7 @@
       <c r="T81" s="21"/>
       <c r="U81" s="21"/>
       <c r="V81" s="21"/>
-      <c r="W81" s="20"/>
+      <c r="W81" s="63"/>
       <c r="X81" s="20"/>
       <c r="Y81" s="21"/>
       <c r="Z81" s="21"/>

--- a/doc/avancement Cliiink.xlsx
+++ b/doc/avancement Cliiink.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23422"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Desktop\cliiinkp\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Desktop\cliiink\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D96E17-F645-4B78-BC40-0DED18B86F4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFDB74C-0E29-4EFB-93F2-FB7D28A42082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1096,7 +1096,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1197,6 +1197,12 @@
       <patternFill patternType="lightDown">
         <fgColor theme="4"/>
         <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1575,7 +1581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1653,6 +1659,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3631,10 +3638,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FFCC00FF"/>
       <color rgb="FFFFCC00"/>
       <color rgb="FFFFCC99"/>
-      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4089,7 +4096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53404295-2D02-454B-A260-080633A909F0}">
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A48" workbookViewId="0">
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
@@ -4105,26 +4112,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5262,15 +5269,15 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="69" t="s">
+      <c r="A51" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -6797,7 +6804,7 @@
   <dimension ref="A1:XFD122"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="Z49" sqref="Z49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6809,114 +6816,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30 16384:16384" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
     </row>
     <row r="2" spans="1:30 16384:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
     </row>
     <row r="3" spans="1:30 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="72" t="s">
         <v>315</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="74" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="75" t="s">
         <v>305</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="74" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="75" t="s">
         <v>306</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="74" t="s">
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="75" t="s">
         <v>307</v>
       </c>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="75" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="76" t="s">
         <v>308</v>
       </c>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="77"/>
     </row>
     <row r="4" spans="1:30 16384:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -8523,8 +8530,8 @@
       <c r="U42" s="21"/>
       <c r="V42" s="21"/>
       <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="21"/>
+      <c r="X42" s="63"/>
+      <c r="Y42" s="41"/>
       <c r="Z42" s="21"/>
       <c r="AA42" s="21"/>
       <c r="AB42" s="21"/>
@@ -8805,8 +8812,8 @@
       <c r="W49" s="20"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="21"/>
-      <c r="Z49" s="21"/>
-      <c r="AA49" s="21"/>
+      <c r="Z49" s="44"/>
+      <c r="AA49" s="44"/>
       <c r="AB49" s="21"/>
       <c r="AC49" s="21"/>
       <c r="AD49" s="23"/>
@@ -8846,7 +8853,7 @@
       <c r="X50" s="20"/>
       <c r="Y50" s="21"/>
       <c r="Z50" s="21"/>
-      <c r="AA50" s="21"/>
+      <c r="AA50" s="67"/>
       <c r="AB50" s="21"/>
       <c r="AC50" s="21"/>
       <c r="AD50" s="23"/>
@@ -8892,80 +8899,80 @@
       <c r="AD51" s="34"/>
     </row>
     <row r="52" spans="1:30" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="73" t="s">
+      <c r="A52" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="B52" s="73"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="73"/>
-      <c r="M52" s="73"/>
-      <c r="N52" s="73"/>
-      <c r="O52" s="73"/>
-      <c r="P52" s="73"/>
-      <c r="Q52" s="73"/>
-      <c r="R52" s="73"/>
-      <c r="S52" s="73"/>
-      <c r="T52" s="73"/>
-      <c r="U52" s="73"/>
-      <c r="V52" s="73"/>
-      <c r="W52" s="73"/>
-      <c r="X52" s="73"/>
-      <c r="Y52" s="73"/>
-      <c r="Z52" s="73"/>
-      <c r="AA52" s="73"/>
-      <c r="AB52" s="73"/>
-      <c r="AC52" s="73"/>
-      <c r="AD52" s="73"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="74"/>
+      <c r="P52" s="74"/>
+      <c r="Q52" s="74"/>
+      <c r="R52" s="74"/>
+      <c r="S52" s="74"/>
+      <c r="T52" s="74"/>
+      <c r="U52" s="74"/>
+      <c r="V52" s="74"/>
+      <c r="W52" s="74"/>
+      <c r="X52" s="74"/>
+      <c r="Y52" s="74"/>
+      <c r="Z52" s="74"/>
+      <c r="AA52" s="74"/>
+      <c r="AB52" s="74"/>
+      <c r="AC52" s="74"/>
+      <c r="AD52" s="74"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A53" s="71" t="s">
+      <c r="A53" s="72" t="s">
         <v>315</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="74" t="s">
+      <c r="B53" s="72"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="75" t="s">
         <v>305</v>
       </c>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="74" t="s">
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="75" t="s">
         <v>306</v>
       </c>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="75"/>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="76"/>
-      <c r="R53" s="74" t="s">
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="77"/>
+      <c r="R53" s="75" t="s">
         <v>307</v>
       </c>
-      <c r="S53" s="75"/>
-      <c r="T53" s="75"/>
-      <c r="U53" s="75"/>
-      <c r="V53" s="75"/>
-      <c r="W53" s="75"/>
-      <c r="X53" s="76"/>
-      <c r="Y53" s="75" t="s">
+      <c r="S53" s="76"/>
+      <c r="T53" s="76"/>
+      <c r="U53" s="76"/>
+      <c r="V53" s="76"/>
+      <c r="W53" s="76"/>
+      <c r="X53" s="77"/>
+      <c r="Y53" s="76" t="s">
         <v>308</v>
       </c>
-      <c r="Z53" s="75"/>
-      <c r="AA53" s="75"/>
-      <c r="AB53" s="75"/>
-      <c r="AC53" s="75"/>
-      <c r="AD53" s="76"/>
+      <c r="Z53" s="76"/>
+      <c r="AA53" s="76"/>
+      <c r="AB53" s="76"/>
+      <c r="AC53" s="76"/>
+      <c r="AD53" s="77"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
@@ -10131,7 +10138,7 @@
       <c r="U81" s="21"/>
       <c r="V81" s="21"/>
       <c r="W81" s="63"/>
-      <c r="X81" s="20"/>
+      <c r="X81" s="63"/>
       <c r="Y81" s="21"/>
       <c r="Z81" s="21"/>
       <c r="AA81" s="21"/>
@@ -11424,28 +11431,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
@@ -12687,16 +12694,16 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="69" t="s">
+      <c r="A51" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
     </row>
     <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="46" t="s">

--- a/doc/avancement Cliiink.xlsx
+++ b/doc/avancement Cliiink.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23422"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Desktop\cliiink\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2F7506-4EFC-47FA-8831-8001909B0631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D897B08-68B3-4697-BF19-5DD5E0BD724F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,9 +371,6 @@
     <t>Créer un exécutable</t>
   </si>
   <si>
-    <t>Définir les facteurs principaux d'utilsation des collecteurs</t>
-  </si>
-  <si>
     <t>Faire une analyse PCA pour déterminer les principaux facteurs d'utilisation des collecteurs</t>
   </si>
   <si>
@@ -1011,6 +1008,9 @@
   </si>
   <si>
     <t>16, 20</t>
+  </si>
+  <si>
+    <t>Définir les facteurs principaux d'utilisation des collecteurs</t>
   </si>
 </sst>
 </file>
@@ -1654,6 +1654,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1684,937 +1685,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="246">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4390,6 +3466,930 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4505,140 +4505,140 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E08C3540-563F-4309-961F-3A2D48BF908C}" name="PlanningPrincipal" displayName="PlanningPrincipal" ref="A4:AD36" headerRowDxfId="236">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E08C3540-563F-4309-961F-3A2D48BF908C}" name="PlanningPrincipal" displayName="PlanningPrincipal" ref="A4:AD36" headerRowDxfId="104">
   <autoFilter ref="A4:AD36" xr:uid="{3869585A-DD74-4715-8B08-BD2783F0B46B}"/>
   <tableColumns count="30">
-    <tableColumn id="31" xr3:uid="{02974BA7-1E46-4150-A100-3503892E7F24}" name="N°" dataDxfId="235">
+    <tableColumn id="31" xr3:uid="{02974BA7-1E46-4150-A100-3503892E7F24}" name="N°" dataDxfId="103">
       <calculatedColumnFormula>Tâches!A4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{B537D5E3-048F-47B6-A4D3-4925E570D546}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{9B7DC595-B3F0-4BA6-A2B3-7B3F96E6422C}" name="Tâche" dataDxfId="234">
+    <tableColumn id="2" xr3:uid="{9B7DC595-B3F0-4BA6-A2B3-7B3F96E6422C}" name="Tâche" dataDxfId="102">
       <calculatedColumnFormula>Tâches!B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7CF5EF96-F7EA-4081-A9F6-C6030E29374A}" name="05-oct" dataDxfId="233" totalsRowDxfId="232"/>
-    <tableColumn id="4" xr3:uid="{AED08872-92A3-48EC-9686-65D32A38B01C}" name="06-oct" dataDxfId="231" totalsRowDxfId="230"/>
-    <tableColumn id="5" xr3:uid="{A361D231-81F6-4E0E-9D68-F198542EC510}" name="07-oct" dataDxfId="229" totalsRowDxfId="228"/>
-    <tableColumn id="6" xr3:uid="{95C7985A-0503-4B82-A39B-7087B64C463E}" name="08-oct" dataDxfId="227" totalsRowDxfId="226"/>
-    <tableColumn id="7" xr3:uid="{223BBA38-BBF5-4596-9520-B3C80EF77B2C}" name="09-oct" dataDxfId="225" totalsRowDxfId="224"/>
-    <tableColumn id="8" xr3:uid="{CBA2CED5-BFCD-478D-BC0B-64F7236665B8}" name="10-oct" dataDxfId="223" totalsRowDxfId="222"/>
-    <tableColumn id="9" xr3:uid="{9142E539-6B94-44F9-AE32-D9D0257404D4}" name="11-oct" dataDxfId="221" totalsRowDxfId="220"/>
-    <tableColumn id="10" xr3:uid="{3DF50CC7-E072-416C-9E4D-77F99E3AFEE4}" name="12-oct" dataDxfId="219" totalsRowDxfId="218"/>
-    <tableColumn id="11" xr3:uid="{1BA6AA9C-31C1-4DF3-AB9B-EE58F953EA7B}" name="13-oct" dataDxfId="217" totalsRowDxfId="216"/>
-    <tableColumn id="12" xr3:uid="{E3903BB0-7B8A-45F4-8E32-0DEC3020D2C7}" name="14-oct" dataDxfId="215" totalsRowDxfId="214"/>
-    <tableColumn id="13" xr3:uid="{902C3056-E350-4CB3-8791-82ADD700A68A}" name="15-oct" dataDxfId="213" totalsRowDxfId="212"/>
-    <tableColumn id="14" xr3:uid="{54609321-2FA1-4A62-830E-30F3A492893D}" name="16-oct" dataDxfId="211" totalsRowDxfId="210"/>
-    <tableColumn id="15" xr3:uid="{3F1B4408-EFA2-430D-89AE-07B73C0F975A}" name="17-oct" dataDxfId="209" totalsRowDxfId="208"/>
-    <tableColumn id="16" xr3:uid="{6DC91AA7-F87C-4075-9A2A-AF1EB7BCC95B}" name="18-oct" dataDxfId="207" totalsRowDxfId="206"/>
-    <tableColumn id="17" xr3:uid="{0AA6E344-3437-43D3-992F-24D8117454B9}" name="19-oct" dataDxfId="205" totalsRowDxfId="204"/>
-    <tableColumn id="18" xr3:uid="{96D8D6A9-008E-484B-B7B4-28ABA94491F0}" name="20-oct" dataDxfId="203" totalsRowDxfId="202"/>
-    <tableColumn id="19" xr3:uid="{C6993608-949D-47F9-B239-5455810AAC64}" name="21-oct" dataDxfId="201" totalsRowDxfId="200"/>
-    <tableColumn id="20" xr3:uid="{D1F65972-7A93-4F3D-9DD9-0066440F9CD3}" name="22-oct" dataDxfId="199" totalsRowDxfId="198"/>
-    <tableColumn id="21" xr3:uid="{2491BABE-5995-4D9B-9106-2E6B37978835}" name="23-oct" dataDxfId="197" totalsRowDxfId="196"/>
-    <tableColumn id="22" xr3:uid="{AFD0F5C6-D453-44A7-A7A2-E80250827459}" name="24-oct" dataDxfId="195" totalsRowDxfId="194"/>
-    <tableColumn id="23" xr3:uid="{05DEBB6A-759F-4C9F-AF39-B31DA26929B5}" name="25-oct" dataDxfId="193" totalsRowDxfId="192"/>
-    <tableColumn id="24" xr3:uid="{0F14F7F0-8C7B-47D9-A425-10B6AB326102}" name="26-oct" dataDxfId="191" totalsRowDxfId="190"/>
-    <tableColumn id="25" xr3:uid="{F63019F4-1021-4A1C-AD12-1FA5B5EAC831}" name="27-oct" dataDxfId="189" totalsRowDxfId="188"/>
-    <tableColumn id="26" xr3:uid="{A0FA9325-6D8A-4E3F-841E-0A51A69AA21F}" name="28-oct" dataDxfId="187" totalsRowDxfId="186"/>
-    <tableColumn id="27" xr3:uid="{01390279-2B86-4CDA-AACC-12D48EE68027}" name="29-oct" dataDxfId="185" totalsRowDxfId="184"/>
-    <tableColumn id="28" xr3:uid="{9E31ED4A-02CE-4F4A-8A83-5681191E9E9E}" name="30-oct" dataDxfId="183" totalsRowDxfId="182"/>
-    <tableColumn id="29" xr3:uid="{885B064E-7B13-4C56-B53C-04028C7E7B19}" name="31-oct" totalsRowFunction="count" dataDxfId="181" totalsRowDxfId="180"/>
+    <tableColumn id="3" xr3:uid="{7CF5EF96-F7EA-4081-A9F6-C6030E29374A}" name="05-oct" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{AED08872-92A3-48EC-9686-65D32A38B01C}" name="06-oct" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="5" xr3:uid="{A361D231-81F6-4E0E-9D68-F198542EC510}" name="07-oct" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{95C7985A-0503-4B82-A39B-7087B64C463E}" name="08-oct" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="7" xr3:uid="{223BBA38-BBF5-4596-9520-B3C80EF77B2C}" name="09-oct" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="8" xr3:uid="{CBA2CED5-BFCD-478D-BC0B-64F7236665B8}" name="10-oct" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="9" xr3:uid="{9142E539-6B94-44F9-AE32-D9D0257404D4}" name="11-oct" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="10" xr3:uid="{3DF50CC7-E072-416C-9E4D-77F99E3AFEE4}" name="12-oct" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="11" xr3:uid="{1BA6AA9C-31C1-4DF3-AB9B-EE58F953EA7B}" name="13-oct" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="12" xr3:uid="{E3903BB0-7B8A-45F4-8E32-0DEC3020D2C7}" name="14-oct" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="13" xr3:uid="{902C3056-E350-4CB3-8791-82ADD700A68A}" name="15-oct" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="14" xr3:uid="{54609321-2FA1-4A62-830E-30F3A492893D}" name="16-oct" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="15" xr3:uid="{3F1B4408-EFA2-430D-89AE-07B73C0F975A}" name="17-oct" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="16" xr3:uid="{6DC91AA7-F87C-4075-9A2A-AF1EB7BCC95B}" name="18-oct" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="17" xr3:uid="{0AA6E344-3437-43D3-992F-24D8117454B9}" name="19-oct" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="18" xr3:uid="{96D8D6A9-008E-484B-B7B4-28ABA94491F0}" name="20-oct" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="19" xr3:uid="{C6993608-949D-47F9-B239-5455810AAC64}" name="21-oct" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="20" xr3:uid="{D1F65972-7A93-4F3D-9DD9-0066440F9CD3}" name="22-oct" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="21" xr3:uid="{2491BABE-5995-4D9B-9106-2E6B37978835}" name="23-oct" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="22" xr3:uid="{AFD0F5C6-D453-44A7-A7A2-E80250827459}" name="24-oct" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="23" xr3:uid="{05DEBB6A-759F-4C9F-AF39-B31DA26929B5}" name="25-oct" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="24" xr3:uid="{0F14F7F0-8C7B-47D9-A425-10B6AB326102}" name="26-oct" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="25" xr3:uid="{F63019F4-1021-4A1C-AD12-1FA5B5EAC831}" name="27-oct" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="26" xr3:uid="{A0FA9325-6D8A-4E3F-841E-0A51A69AA21F}" name="28-oct" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="27" xr3:uid="{01390279-2B86-4CDA-AACC-12D48EE68027}" name="29-oct" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="28" xr3:uid="{9E31ED4A-02CE-4F4A-8A83-5681191E9E9E}" name="30-oct" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="29" xr3:uid="{885B064E-7B13-4C56-B53C-04028C7E7B19}" name="31-oct" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{949F634D-FB76-42BC-8AD2-845CBF052EB4}" name="PlanningBonus" displayName="PlanningBonus" ref="A39:AD111" totalsRowShown="0" headerRowDxfId="179">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{949F634D-FB76-42BC-8AD2-845CBF052EB4}" name="PlanningBonus" displayName="PlanningBonus" ref="A39:AD111" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="A39:AD111" xr:uid="{C72AC31B-BC16-4ED0-A742-6FDD0EBB8631}"/>
   <tableColumns count="30">
-    <tableColumn id="30" xr3:uid="{A9929115-DAFC-40AE-A75F-89D94A3A6E3E}" name="N°" dataDxfId="178">
+    <tableColumn id="30" xr3:uid="{A9929115-DAFC-40AE-A75F-89D94A3A6E3E}" name="N°" dataDxfId="46">
       <calculatedColumnFormula>Tâches!A38</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{D9389245-51FF-4B4C-8D41-B0C82DF9FA75}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{725C423E-FCC3-4D2B-A7B1-04718A631379}" name="Tâche" dataDxfId="177">
+    <tableColumn id="2" xr3:uid="{725C423E-FCC3-4D2B-A7B1-04718A631379}" name="Tâche" dataDxfId="45">
       <calculatedColumnFormula>Tâches!B38</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3E9DBF51-63AA-41C7-8026-17B53B0A9B6C}" name="05-oct" dataDxfId="176"/>
-    <tableColumn id="4" xr3:uid="{82D5CCDD-F94F-4AD0-87E3-71A24CD87405}" name="06-oct" dataDxfId="175"/>
-    <tableColumn id="5" xr3:uid="{BE2F3F2A-9776-4093-805A-312DDC6F80FE}" name="07-oct" dataDxfId="174"/>
-    <tableColumn id="6" xr3:uid="{C1BB4810-F8A8-4B1C-BEFF-BCD91A7CBE63}" name="08-oct" dataDxfId="173"/>
-    <tableColumn id="7" xr3:uid="{81533870-EEB5-4296-AE2B-E1E0C4B449EA}" name="09-oct" dataDxfId="172"/>
-    <tableColumn id="8" xr3:uid="{5614AF65-2E97-4A81-93F3-4BF71D68BA64}" name="10-oct" dataDxfId="171"/>
-    <tableColumn id="9" xr3:uid="{68ABF0CA-AF48-4143-8348-D852DD541BEA}" name="11-oct" dataDxfId="170"/>
-    <tableColumn id="10" xr3:uid="{D00B30BB-B608-47A8-A909-B3CCE0CD31F7}" name="12-oct" dataDxfId="169"/>
-    <tableColumn id="11" xr3:uid="{E0989A06-4A1E-4309-B9D8-FFF15CEF945C}" name="13-oct" dataDxfId="168"/>
-    <tableColumn id="12" xr3:uid="{1779F27B-A65D-4938-A036-4979FC026FF9}" name="14-oct" dataDxfId="167"/>
-    <tableColumn id="13" xr3:uid="{22F38C55-7716-4548-902D-BF65239896B9}" name="15-oct" dataDxfId="166"/>
-    <tableColumn id="14" xr3:uid="{0379C43C-369A-4D33-98C8-09F6AB1138A5}" name="16-oct" dataDxfId="165"/>
-    <tableColumn id="15" xr3:uid="{95071E30-9EB4-4F6F-863F-5DDBD2FC2727}" name="17-oct" dataDxfId="164"/>
-    <tableColumn id="16" xr3:uid="{57019D85-E364-4C2A-8EDF-EECF1621D7F4}" name="18-oct" dataDxfId="163"/>
-    <tableColumn id="17" xr3:uid="{E1AB2C2B-7642-4E82-9C5D-D1EBE0244AAA}" name="19-oct" dataDxfId="162"/>
-    <tableColumn id="18" xr3:uid="{109FE92E-C236-400D-8A95-114BD055E9DA}" name="20-oct" dataDxfId="161"/>
-    <tableColumn id="19" xr3:uid="{F53D6821-A790-4CAC-82E2-E3B0BA8021AD}" name="21-oct" dataDxfId="160"/>
-    <tableColumn id="20" xr3:uid="{E29FFFEE-7FB8-414D-BCCD-0CBC972A8026}" name="22-oct" dataDxfId="159"/>
-    <tableColumn id="21" xr3:uid="{143958D3-765B-428D-A750-762564AFF52B}" name="23-oct" dataDxfId="158"/>
-    <tableColumn id="22" xr3:uid="{F6E67B4D-280E-47A5-AF79-5FF172D2E5C7}" name="24-oct" dataDxfId="157"/>
-    <tableColumn id="23" xr3:uid="{A16D3DC4-7696-40A7-8B9F-1454BEC9DBC2}" name="25-oct" dataDxfId="156"/>
-    <tableColumn id="24" xr3:uid="{218180A7-E150-4120-8AE9-6723F56E1D9B}" name="26-oct" dataDxfId="155"/>
-    <tableColumn id="25" xr3:uid="{AFF74DA3-B552-40C8-A8FE-1E5490C0DC0B}" name="27-oct" dataDxfId="154"/>
-    <tableColumn id="26" xr3:uid="{38E7E763-F0C2-4BFE-A84B-1E26140C2250}" name="28-oct" dataDxfId="153"/>
-    <tableColumn id="27" xr3:uid="{988E4DC2-CA0F-4098-B08C-759F208CFD2A}" name="29-oct" dataDxfId="152"/>
-    <tableColumn id="28" xr3:uid="{539EA04B-D1E5-47FC-9E69-E37BB7704D5C}" name="30-oct" dataDxfId="151"/>
-    <tableColumn id="29" xr3:uid="{21E9E5C4-8D23-454B-8A91-1CF8DA5078B0}" name="31-oct" dataDxfId="150"/>
+    <tableColumn id="3" xr3:uid="{3E9DBF51-63AA-41C7-8026-17B53B0A9B6C}" name="05-oct" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{82D5CCDD-F94F-4AD0-87E3-71A24CD87405}" name="06-oct" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{BE2F3F2A-9776-4093-805A-312DDC6F80FE}" name="07-oct" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{C1BB4810-F8A8-4B1C-BEFF-BCD91A7CBE63}" name="08-oct" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{81533870-EEB5-4296-AE2B-E1E0C4B449EA}" name="09-oct" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{5614AF65-2E97-4A81-93F3-4BF71D68BA64}" name="10-oct" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{68ABF0CA-AF48-4143-8348-D852DD541BEA}" name="11-oct" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{D00B30BB-B608-47A8-A909-B3CCE0CD31F7}" name="12-oct" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{E0989A06-4A1E-4309-B9D8-FFF15CEF945C}" name="13-oct" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{1779F27B-A65D-4938-A036-4979FC026FF9}" name="14-oct" dataDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{22F38C55-7716-4548-902D-BF65239896B9}" name="15-oct" dataDxfId="34"/>
+    <tableColumn id="14" xr3:uid="{0379C43C-369A-4D33-98C8-09F6AB1138A5}" name="16-oct" dataDxfId="33"/>
+    <tableColumn id="15" xr3:uid="{95071E30-9EB4-4F6F-863F-5DDBD2FC2727}" name="17-oct" dataDxfId="32"/>
+    <tableColumn id="16" xr3:uid="{57019D85-E364-4C2A-8EDF-EECF1621D7F4}" name="18-oct" dataDxfId="31"/>
+    <tableColumn id="17" xr3:uid="{E1AB2C2B-7642-4E82-9C5D-D1EBE0244AAA}" name="19-oct" dataDxfId="30"/>
+    <tableColumn id="18" xr3:uid="{109FE92E-C236-400D-8A95-114BD055E9DA}" name="20-oct" dataDxfId="29"/>
+    <tableColumn id="19" xr3:uid="{F53D6821-A790-4CAC-82E2-E3B0BA8021AD}" name="21-oct" dataDxfId="28"/>
+    <tableColumn id="20" xr3:uid="{E29FFFEE-7FB8-414D-BCCD-0CBC972A8026}" name="22-oct" dataDxfId="27"/>
+    <tableColumn id="21" xr3:uid="{143958D3-765B-428D-A750-762564AFF52B}" name="23-oct" dataDxfId="26"/>
+    <tableColumn id="22" xr3:uid="{F6E67B4D-280E-47A5-AF79-5FF172D2E5C7}" name="24-oct" dataDxfId="25"/>
+    <tableColumn id="23" xr3:uid="{A16D3DC4-7696-40A7-8B9F-1454BEC9DBC2}" name="25-oct" dataDxfId="24"/>
+    <tableColumn id="24" xr3:uid="{218180A7-E150-4120-8AE9-6723F56E1D9B}" name="26-oct" dataDxfId="23"/>
+    <tableColumn id="25" xr3:uid="{AFF74DA3-B552-40C8-A8FE-1E5490C0DC0B}" name="27-oct" dataDxfId="22"/>
+    <tableColumn id="26" xr3:uid="{38E7E763-F0C2-4BFE-A84B-1E26140C2250}" name="28-oct" dataDxfId="21"/>
+    <tableColumn id="27" xr3:uid="{988E4DC2-CA0F-4098-B08C-759F208CFD2A}" name="29-oct" dataDxfId="20"/>
+    <tableColumn id="28" xr3:uid="{539EA04B-D1E5-47FC-9E69-E37BB7704D5C}" name="30-oct" dataDxfId="19"/>
+    <tableColumn id="29" xr3:uid="{21E9E5C4-8D23-454B-8A91-1CF8DA5078B0}" name="31-oct" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DEB2AD8-CEC3-48AA-9CF7-ED08DF8D0180}" name="AvancementPrincipal" displayName="AvancementPrincipal" ref="A3:H35" totalsRowShown="0" headerRowDxfId="149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DEB2AD8-CEC3-48AA-9CF7-ED08DF8D0180}" name="AvancementPrincipal" displayName="AvancementPrincipal" ref="A3:H35" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A3:H35" xr:uid="{6BCE8A7D-7D04-4394-AD53-9D2B48AA6CFD}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B07E0580-F8B1-4A81-8EA6-8D0DD94E6CBF}" name="N°" dataDxfId="148">
+    <tableColumn id="1" xr3:uid="{B07E0580-F8B1-4A81-8EA6-8D0DD94E6CBF}" name="N°" dataDxfId="16">
       <calculatedColumnFormula>TachesPrincipales[[#This Row],[N°]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CD2C34A8-4A66-4D31-8674-72875FEEBCB9}" name="Tâche" dataDxfId="147">
+    <tableColumn id="2" xr3:uid="{CD2C34A8-4A66-4D31-8674-72875FEEBCB9}" name="Tâche" dataDxfId="15">
       <calculatedColumnFormula>TachesPrincipales[[#This Row],[Tâche]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1F692755-0EBF-47B3-98F7-5870DAAA2B47}" name="Durée estimée (jours-hommes)" dataDxfId="146">
+    <tableColumn id="3" xr3:uid="{1F692755-0EBF-47B3-98F7-5870DAAA2B47}" name="Durée estimée (jours-hommes)" dataDxfId="14">
       <calculatedColumnFormula>TachesPrincipales[[#This Row],[Travail (en jours-hommes)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77A08BA6-0C47-4CA1-898D-34688079E99A}" name="Temps consacré (jours-hommes)" dataDxfId="145"/>
-    <tableColumn id="5" xr3:uid="{E6DFF25A-5C0F-4D2B-AD4B-356CCC3C697D}" name="Temps restant (jours-hommes)" dataDxfId="144"/>
-    <tableColumn id="6" xr3:uid="{80B25DCD-7C24-4853-87D7-112B68A75ACA}" name="Complétion" dataDxfId="143">
+    <tableColumn id="4" xr3:uid="{77A08BA6-0C47-4CA1-898D-34688079E99A}" name="Temps consacré (jours-hommes)" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{E6DFF25A-5C0F-4D2B-AD4B-356CCC3C697D}" name="Temps restant (jours-hommes)" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{80B25DCD-7C24-4853-87D7-112B68A75ACA}" name="Complétion" dataDxfId="11">
       <calculatedColumnFormula>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E98F81A4-15B7-43AA-8EE6-E47F2F7BDDBA}" name="Avance / Retard (jours-hommes)" dataDxfId="142">
+    <tableColumn id="9" xr3:uid="{E98F81A4-15B7-43AA-8EE6-E47F2F7BDDBA}" name="Avance / Retard (jours-hommes)" dataDxfId="10">
       <calculatedColumnFormula>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{19DBC3BA-BFF6-4123-B35C-1B58A7832A4B}" name="Commentaire" dataDxfId="141" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{19DBC3BA-BFF6-4123-B35C-1B58A7832A4B}" name="Commentaire" dataDxfId="9" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{04BF9D35-9277-48A6-B974-1A1D7A80EEAE}" name="AvancementPrincipal8" displayName="AvancementPrincipal8" ref="A37:H109" totalsRowShown="0" headerRowDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{04BF9D35-9277-48A6-B974-1A1D7A80EEAE}" name="AvancementPrincipal8" displayName="AvancementPrincipal8" ref="A37:H109" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A37:H109" xr:uid="{43FC80CF-67C7-44CB-8AF9-C483360ED027}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{50AEF074-CE1B-4E86-81E2-68DBB744C39B}" name="N°" dataDxfId="139">
+    <tableColumn id="1" xr3:uid="{50AEF074-CE1B-4E86-81E2-68DBB744C39B}" name="N°" dataDxfId="7">
       <calculatedColumnFormula>TachesBonus[[#This Row],[N°]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{23C870F0-9110-4D2F-8665-88DA3D2D1265}" name="Tâche" dataDxfId="138">
+    <tableColumn id="2" xr3:uid="{23C870F0-9110-4D2F-8665-88DA3D2D1265}" name="Tâche" dataDxfId="6">
       <calculatedColumnFormula>TachesBonus[[#This Row],[Tâche]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{69BB17CC-DE87-420A-BBFA-062BF2BEF7AA}" name="Durée estimée (jours-hommes)" dataDxfId="137">
+    <tableColumn id="3" xr3:uid="{69BB17CC-DE87-420A-BBFA-062BF2BEF7AA}" name="Durée estimée (jours-hommes)" dataDxfId="5">
       <calculatedColumnFormula>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A14AEF2F-CFF6-4D95-9EB5-0A11BA283D4F}" name="Temps consacré (jours-hommes)" dataDxfId="136"/>
-    <tableColumn id="5" xr3:uid="{25E0D910-E053-4859-9A05-DA9FEEB0AC2A}" name="Temps restant (jours-hommes)" dataDxfId="135"/>
-    <tableColumn id="6" xr3:uid="{5E4CFA2C-63BF-45F7-9435-50DEBD5B0D2E}" name="Complétion" dataDxfId="134">
+    <tableColumn id="4" xr3:uid="{A14AEF2F-CFF6-4D95-9EB5-0A11BA283D4F}" name="Temps consacré (jours-hommes)" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{25E0D910-E053-4859-9A05-DA9FEEB0AC2A}" name="Temps restant (jours-hommes)" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5E4CFA2C-63BF-45F7-9435-50DEBD5B0D2E}" name="Complétion" dataDxfId="2">
       <calculatedColumnFormula>IFERROR(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B0B94A9D-C385-47C1-9326-CF1085FB5FB7}" name="Avance / Retard (jours-hommes)" dataDxfId="133">
+    <tableColumn id="9" xr3:uid="{B0B94A9D-C385-47C1-9326-CF1085FB5FB7}" name="Avance / Retard (jours-hommes)" dataDxfId="1">
       <calculatedColumnFormula>IF(AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal8[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal8[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal8[[#This Row],[Temps restant (jours-hommes)]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3B743E05-8FA8-4C6C-91C3-7DC6C79CF839}" name="Commentaire" dataDxfId="132" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{3B743E05-8FA8-4C6C-91C3-7DC6C79CF839}" name="Commentaire" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4909,8 +4909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53404295-2D02-454B-A260-080633A909F0}">
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4925,26 +4925,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="A1" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
+      <c r="A2" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5009,7 +5009,7 @@
         <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G5" t="s">
         <v>75</v>
@@ -5034,7 +5034,7 @@
         <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G6" t="s">
         <v>75</v>
@@ -5059,7 +5059,7 @@
         <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G7" t="s">
         <v>75</v>
@@ -5071,7 +5071,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="13">
         <v>0.5</v>
@@ -5080,7 +5080,7 @@
         <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G8" t="s">
         <v>76</v>
@@ -5098,10 +5098,10 @@
         <v>0.5</v>
       </c>
       <c r="E9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" t="s">
         <v>202</v>
-      </c>
-      <c r="F9" t="s">
-        <v>203</v>
       </c>
       <c r="G9" t="s">
         <v>77</v>
@@ -5122,7 +5122,7 @@
         <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G10" t="s">
         <v>78</v>
@@ -5219,7 +5219,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -5259,13 +5259,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C16" s="13">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -5289,7 +5289,7 @@
         <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
@@ -5365,7 +5365,7 @@
         <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
         <v>82</v>
@@ -5497,13 +5497,13 @@
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -5524,10 +5524,10 @@
         <v>97</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -5536,19 +5536,19 @@
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="13">
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G28" t="s">
         <v>6</v>
@@ -5572,10 +5572,10 @@
         <v>102</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -5593,10 +5593,10 @@
         <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G30" t="s">
         <v>74</v>
@@ -5617,10 +5617,10 @@
         <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G31" t="s">
         <v>74</v>
@@ -5632,7 +5632,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C32" s="13">
         <v>1</v>
@@ -5641,13 +5641,13 @@
         <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -5665,13 +5665,13 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -5716,22 +5716,22 @@
         <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
+      <c r="A36" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
@@ -5762,7 +5762,7 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="13">
         <v>1</v>
@@ -5771,7 +5771,7 @@
         <v>68</v>
       </c>
       <c r="F38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G38" t="s">
         <v>78</v>
@@ -5783,7 +5783,7 @@
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="13">
         <v>0.5</v>
@@ -5808,7 +5808,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" s="13">
         <v>0.5</v>
@@ -5833,7 +5833,7 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="13">
         <v>0.5</v>
@@ -5858,7 +5858,7 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C42" s="13">
         <v>0.5</v>
@@ -5868,7 +5868,7 @@
         <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -5883,7 +5883,7 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C43" s="13">
         <v>1</v>
@@ -5893,7 +5893,7 @@
         <v>37</v>
       </c>
       <c r="E43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -5908,13 +5908,13 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="13">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
@@ -5929,13 +5929,13 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" s="13">
         <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E45" t="s">
         <v>52</v>
@@ -5953,7 +5953,7 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" s="13">
         <v>1</v>
@@ -5978,7 +5978,7 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C47" s="13">
         <v>2</v>
@@ -6003,7 +6003,7 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C48" s="13">
         <v>1.5</v>
@@ -6013,10 +6013,10 @@
         <v>42</v>
       </c>
       <c r="E48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G48" t="s">
         <v>82</v>
@@ -6028,16 +6028,16 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C49" s="13">
         <v>0.5</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F49" t="s">
         <v>29</v>
@@ -6052,7 +6052,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C50" s="13">
         <v>1</v>
@@ -6062,10 +6062,10 @@
         <v>42</v>
       </c>
       <c r="E50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G50" t="s">
         <v>6</v>
@@ -6077,19 +6077,19 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" s="13">
         <v>1</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G51" t="s">
         <v>6</v>
@@ -6101,7 +6101,7 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C52" s="13">
         <v>1</v>
@@ -6111,10 +6111,10 @@
         <v>#REF!</v>
       </c>
       <c r="E52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G52" t="s">
         <v>6</v>
@@ -6126,19 +6126,19 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="13">
         <v>1</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G53" t="s">
         <v>6</v>
@@ -6150,19 +6150,19 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C54" s="13">
         <v>2</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E54" t="s">
         <v>107</v>
       </c>
       <c r="F54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G54" t="s">
         <v>74</v>
@@ -6174,7 +6174,7 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C55" s="13">
         <v>2</v>
@@ -6183,7 +6183,7 @@
         <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F55" t="s">
         <v>24</v>
@@ -6207,10 +6207,10 @@
         <v>91</v>
       </c>
       <c r="F56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -6232,7 +6232,7 @@
         <v>68</v>
       </c>
       <c r="F57" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G57" t="s">
         <v>78</v>
@@ -6244,7 +6244,7 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58" s="13">
         <v>0.5</v>
@@ -6269,7 +6269,7 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C59" s="13">
         <v>0.5</v>
@@ -6294,7 +6294,7 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" s="13">
         <v>0.5</v>
@@ -6319,7 +6319,7 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" s="13">
         <v>0.5</v>
@@ -6329,7 +6329,7 @@
         <v>55</v>
       </c>
       <c r="E61" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F61" t="s">
         <v>15</v>
@@ -6344,7 +6344,7 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C62" s="13">
         <v>1</v>
@@ -6354,7 +6354,7 @@
         <v>56</v>
       </c>
       <c r="E62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -6375,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
@@ -6396,7 +6396,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E64" t="s">
         <v>52</v>
@@ -6414,7 +6414,7 @@
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C65" s="13">
         <v>1</v>
@@ -6470,13 +6470,13 @@
         <v>1.5</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G67" t="s">
         <v>82</v>
@@ -6494,10 +6494,10 @@
         <v>0.5</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F68" t="s">
         <v>29</v>
@@ -6512,19 +6512,19 @@
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C69" s="13">
         <v>1</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F69" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G69" t="s">
         <v>6</v>
@@ -6542,13 +6542,13 @@
         <v>2</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E70" t="s">
         <v>107</v>
       </c>
       <c r="F70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G70" t="s">
         <v>74</v>
@@ -6560,7 +6560,7 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C71" s="13">
         <v>1</v>
@@ -6569,7 +6569,7 @@
         <v>68</v>
       </c>
       <c r="F71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G71" t="s">
         <v>78</v>
@@ -6581,7 +6581,7 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C72" s="13">
         <v>0.5</v>
@@ -6606,7 +6606,7 @@
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" s="13">
         <v>0.5</v>
@@ -6631,7 +6631,7 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C74" s="13">
         <v>0.5</v>
@@ -6656,7 +6656,7 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C75" s="13">
         <v>0.5</v>
@@ -6666,7 +6666,7 @@
         <v>69</v>
       </c>
       <c r="E75" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F75" t="s">
         <v>15</v>
@@ -6681,7 +6681,7 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C76" s="13">
         <v>1</v>
@@ -6691,7 +6691,7 @@
         <v>70</v>
       </c>
       <c r="E76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
@@ -6706,13 +6706,13 @@
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C77" s="13">
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -6727,13 +6727,13 @@
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C78" s="13">
         <v>1</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E78" t="s">
         <v>52</v>
@@ -6751,7 +6751,7 @@
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C79" s="13">
         <v>1</v>
@@ -6776,7 +6776,7 @@
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C80" s="13">
         <v>1</v>
@@ -6801,7 +6801,7 @@
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C81" s="13">
         <v>1</v>
@@ -6811,10 +6811,10 @@
         <v>75</v>
       </c>
       <c r="E81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F81" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G81" t="s">
         <v>82</v>
@@ -6826,16 +6826,16 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C82" s="13">
         <v>0.5</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F82" t="s">
         <v>29</v>
@@ -6850,19 +6850,19 @@
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C83" s="13">
         <v>1</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E83" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F83" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G83" t="s">
         <v>6</v>
@@ -6874,19 +6874,19 @@
         <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C84" s="13">
         <v>1</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E84" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G84" t="s">
         <v>6</v>
@@ -6898,7 +6898,7 @@
         <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C85" s="13">
         <v>2</v>
@@ -6907,10 +6907,10 @@
         <v>76.78</v>
       </c>
       <c r="E85" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G85" t="s">
         <v>74</v>
@@ -6922,7 +6922,7 @@
         <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>114</v>
+        <v>327</v>
       </c>
       <c r="C86" s="13">
         <v>3</v>
@@ -6931,10 +6931,10 @@
         <v>36</v>
       </c>
       <c r="E86" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F86" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G86" t="s">
         <v>6</v>
@@ -6946,7 +6946,7 @@
         <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87" s="13">
         <v>2</v>
@@ -6955,10 +6955,10 @@
         <v>36</v>
       </c>
       <c r="E87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F87" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G87" t="s">
         <v>6</v>
@@ -6970,7 +6970,7 @@
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C88" s="13">
         <v>2</v>
@@ -6979,10 +6979,10 @@
         <v>36</v>
       </c>
       <c r="E88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G88" t="s">
         <v>6</v>
@@ -6994,7 +6994,7 @@
         <v>84</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C89" s="13">
         <v>4</v>
@@ -7003,10 +7003,10 @@
         <v>36</v>
       </c>
       <c r="E89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F89" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G89" t="s">
         <v>6</v>
@@ -7031,7 +7031,7 @@
         <v>92</v>
       </c>
       <c r="F90" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G90" t="s">
         <v>34</v>
@@ -7043,7 +7043,7 @@
         <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C91" s="13">
         <v>1</v>
@@ -7053,10 +7053,10 @@
         <v>85</v>
       </c>
       <c r="E91" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F91" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -7068,19 +7068,19 @@
         <v>87</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C92" s="13">
         <v>2</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G92" t="s">
         <v>6</v>
@@ -7092,7 +7092,7 @@
         <v>88</v>
       </c>
       <c r="B93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C93" s="13">
         <v>2</v>
@@ -7102,10 +7102,10 @@
         <v>87</v>
       </c>
       <c r="E93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F93" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G93" t="s">
         <v>6</v>
@@ -7117,7 +7117,7 @@
         <v>89</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C94" s="13">
         <v>1</v>
@@ -7138,19 +7138,19 @@
         <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C95" s="13">
         <v>1.5</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E95" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G95" t="s">
         <v>34</v>
@@ -7162,19 +7162,19 @@
         <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C96" s="13">
         <v>1.5</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G96" t="s">
         <v>34</v>
@@ -7195,10 +7195,10 @@
         <v>109</v>
       </c>
       <c r="F97" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -7232,22 +7232,22 @@
         <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C99" s="13">
         <v>1</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E99" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F99" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -7265,13 +7265,13 @@
         <v>36</v>
       </c>
       <c r="E100" t="s">
+        <v>236</v>
+      </c>
+      <c r="F100" t="s">
         <v>237</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>238</v>
-      </c>
-      <c r="G100" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -7280,19 +7280,19 @@
         <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C101" s="13">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F101" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G101" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -7301,19 +7301,19 @@
         <v>97</v>
       </c>
       <c r="B102" t="s">
+        <v>177</v>
+      </c>
+      <c r="C102" s="13">
+        <v>1</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E102" t="s">
         <v>178</v>
       </c>
-      <c r="C102" s="13">
-        <v>1</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E102" t="s">
-        <v>179</v>
-      </c>
       <c r="F102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G102" t="s">
         <v>74</v>
@@ -7325,16 +7325,16 @@
         <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C103" s="13">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F103" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G103" t="s">
         <v>74</v>
@@ -7346,19 +7346,19 @@
         <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C104" s="13">
         <v>1</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G104" t="s">
         <v>74</v>
@@ -7376,13 +7376,13 @@
         <v>1</v>
       </c>
       <c r="E105" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F105" t="s">
+        <v>208</v>
+      </c>
+      <c r="G105" t="s">
         <v>245</v>
-      </c>
-      <c r="F105" t="s">
-        <v>209</v>
-      </c>
-      <c r="G105" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -7391,7 +7391,7 @@
         <v>101</v>
       </c>
       <c r="B106" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C106" s="13">
         <v>2</v>
@@ -7400,10 +7400,10 @@
         <v>99</v>
       </c>
       <c r="E106" t="s">
+        <v>246</v>
+      </c>
+      <c r="F106" t="s">
         <v>247</v>
-      </c>
-      <c r="F106" t="s">
-        <v>248</v>
       </c>
       <c r="G106" t="s">
         <v>6</v>
@@ -7415,16 +7415,16 @@
         <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C107" s="13">
         <v>1.5</v>
       </c>
       <c r="E107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F107" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G107" t="s">
         <v>6</v>
@@ -7436,19 +7436,19 @@
         <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C108" s="13">
         <v>1</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E108" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G108" t="s">
         <v>6</v>
@@ -7460,19 +7460,19 @@
         <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C109" s="13">
         <v>1</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E109" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G109" t="s">
         <v>6</v>
@@ -7620,7 +7620,7 @@
   <dimension ref="A1:XFD111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7632,205 +7632,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30 16384:16384" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+    </row>
+    <row r="2" spans="1:30 16384:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+    </row>
+    <row r="3" spans="1:30 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="75" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-    </row>
-    <row r="2" spans="1:30 16384:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-    </row>
-    <row r="3" spans="1:30 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
-        <v>300</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="74" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="75" t="s">
         <v>290</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="74" t="s">
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="74" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="76" t="s">
         <v>292</v>
       </c>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="75" t="s">
-        <v>293</v>
-      </c>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="77"/>
     </row>
     <row r="4" spans="1:30 16384:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="32" t="s">
+      <c r="E4" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="N4" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="P4" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="Q4" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="R4" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="S4" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="T4" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="U4" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="V4" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="W4" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="W4" s="14" t="s">
+      <c r="X4" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="X4" s="14" t="s">
+      <c r="Y4" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="Y4" s="14" t="s">
+      <c r="Z4" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="AA4" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="AA4" s="14" t="s">
+      <c r="AB4" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AC4" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AD4" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="AD4" s="14" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:30 16384:16384" x14ac:dyDescent="0.25">
@@ -7839,7 +7839,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C5" s="15" t="str">
         <f>Tâches!B4</f>
@@ -7880,7 +7880,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" s="16" t="str">
         <f>Tâches!B5</f>
@@ -7920,7 +7920,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C7" s="16" t="str">
         <f>Tâches!B6</f>
@@ -7960,7 +7960,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" s="16" t="str">
         <f>Tâches!B7</f>
@@ -8000,7 +8000,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C9" s="16" t="str">
         <f>Tâches!B8</f>
@@ -8040,7 +8040,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C10" s="16" t="str">
         <f>Tâches!B9</f>
@@ -8080,7 +8080,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C11" s="16" t="str">
         <f>Tâches!B10</f>
@@ -8120,7 +8120,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C12" s="16" t="str">
         <f>Tâches!B11</f>
@@ -8160,7 +8160,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C13" s="16" t="str">
         <f>Tâches!B12</f>
@@ -8200,7 +8200,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C14" s="16" t="str">
         <f>Tâches!B13</f>
@@ -8240,7 +8240,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C15" s="16" t="str">
         <f>Tâches!B14</f>
@@ -8280,7 +8280,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C16" s="16" t="str">
         <f>Tâches!B15</f>
@@ -8320,7 +8320,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C17" s="16" t="str">
         <f>Tâches!B16</f>
@@ -8360,7 +8360,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C18" s="16" t="str">
         <f>Tâches!B17</f>
@@ -8400,7 +8400,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C19" s="16" t="str">
         <f>Tâches!B18</f>
@@ -8440,7 +8440,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C20" s="16" t="str">
         <f>Tâches!B19</f>
@@ -8480,7 +8480,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C21" s="16" t="str">
         <f>Tâches!B20</f>
@@ -8520,7 +8520,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C22" s="16" t="str">
         <f>Tâches!B21</f>
@@ -8560,7 +8560,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C23" s="16" t="str">
         <f>Tâches!B22</f>
@@ -8600,7 +8600,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C24" s="16" t="str">
         <f>Tâches!B23</f>
@@ -8640,7 +8640,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C25" s="16" t="str">
         <f>Tâches!B24</f>
@@ -8668,8 +8668,8 @@
       <c r="W25" s="18"/>
       <c r="X25" s="18"/>
       <c r="Y25" s="19"/>
-      <c r="Z25" s="77"/>
-      <c r="AA25" s="77"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="67"/>
       <c r="AB25" s="19"/>
       <c r="AC25" s="19"/>
       <c r="AD25" s="21"/>
@@ -8680,7 +8680,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C26" s="16" t="str">
         <f>Tâches!B25</f>
@@ -8720,7 +8720,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C27" s="16" t="str">
         <f>Tâches!B26</f>
@@ -8760,7 +8760,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C28" s="16" t="str">
         <f>Tâches!B27</f>
@@ -8800,7 +8800,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C29" s="16" t="str">
         <f>Tâches!B28</f>
@@ -8840,7 +8840,7 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C30" s="16" t="str">
         <f>Tâches!B29</f>
@@ -8880,7 +8880,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C31" s="16" t="str">
         <f>Tâches!B30</f>
@@ -8920,7 +8920,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C32" s="16" t="str">
         <f>Tâches!B31</f>
@@ -8960,7 +8960,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C33" s="16" t="str">
         <f>Tâches!B32</f>
@@ -9000,7 +9000,7 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C34" s="16" t="str">
         <f>Tâches!B33</f>
@@ -9115,171 +9115,171 @@
       <c r="AD36" s="31"/>
     </row>
     <row r="37" spans="1:30" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="73"/>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="73"/>
-      <c r="Y37" s="73"/>
-      <c r="Z37" s="73"/>
-      <c r="AA37" s="73"/>
-      <c r="AB37" s="73"/>
-      <c r="AC37" s="73"/>
-      <c r="AD37" s="73"/>
+      <c r="A37" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="74"/>
+      <c r="AA37" s="74"/>
+      <c r="AB37" s="74"/>
+      <c r="AC37" s="74"/>
+      <c r="AD37" s="74"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="71" t="s">
-        <v>300</v>
-      </c>
-      <c r="B38" s="71"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="74" t="s">
+      <c r="A38" s="72" t="s">
+        <v>299</v>
+      </c>
+      <c r="B38" s="72"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="75" t="s">
         <v>290</v>
       </c>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="74" t="s">
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="76"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="75"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="76"/>
-      <c r="R38" s="74" t="s">
+      <c r="S38" s="76"/>
+      <c r="T38" s="76"/>
+      <c r="U38" s="76"/>
+      <c r="V38" s="76"/>
+      <c r="W38" s="76"/>
+      <c r="X38" s="77"/>
+      <c r="Y38" s="76" t="s">
         <v>292</v>
       </c>
-      <c r="S38" s="75"/>
-      <c r="T38" s="75"/>
-      <c r="U38" s="75"/>
-      <c r="V38" s="75"/>
-      <c r="W38" s="75"/>
-      <c r="X38" s="76"/>
-      <c r="Y38" s="75" t="s">
-        <v>293</v>
-      </c>
-      <c r="Z38" s="75"/>
-      <c r="AA38" s="75"/>
-      <c r="AB38" s="75"/>
-      <c r="AC38" s="75"/>
-      <c r="AD38" s="76"/>
+      <c r="Z38" s="76"/>
+      <c r="AA38" s="76"/>
+      <c r="AB38" s="76"/>
+      <c r="AC38" s="76"/>
+      <c r="AD38" s="77"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B39" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="14" t="s">
+      <c r="E39" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="F39" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="G39" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="H39" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="I39" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="I39" s="14" t="s">
+      <c r="J39" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="J39" s="14" t="s">
+      <c r="K39" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="K39" s="14" t="s">
+      <c r="L39" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="L39" s="14" t="s">
+      <c r="M39" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="M39" s="14" t="s">
+      <c r="N39" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="N39" s="14" t="s">
+      <c r="O39" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="O39" s="14" t="s">
+      <c r="P39" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="P39" s="14" t="s">
+      <c r="Q39" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="Q39" s="14" t="s">
+      <c r="R39" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="R39" s="14" t="s">
+      <c r="S39" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="S39" s="14" t="s">
+      <c r="T39" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="T39" s="14" t="s">
+      <c r="U39" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="U39" s="14" t="s">
+      <c r="V39" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="V39" s="14" t="s">
+      <c r="W39" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="W39" s="14" t="s">
+      <c r="X39" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="X39" s="14" t="s">
+      <c r="Y39" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="Y39" s="14" t="s">
+      <c r="Z39" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="Z39" s="14" t="s">
+      <c r="AA39" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="AA39" s="14" t="s">
+      <c r="AB39" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="AB39" s="14" t="s">
+      <c r="AC39" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="AC39" s="14" t="s">
+      <c r="AD39" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="AD39" s="14" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
@@ -9288,7 +9288,7 @@
         <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C40" s="51" t="str">
         <f>Tâches!B38</f>
@@ -9328,7 +9328,7 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C41" s="16" t="str">
         <f>Tâches!B39</f>
@@ -9368,7 +9368,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C42" s="16" t="str">
         <f>Tâches!B40</f>
@@ -9408,7 +9408,7 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C43" s="16" t="str">
         <f>Tâches!B41</f>
@@ -9448,7 +9448,7 @@
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C44" s="16" t="str">
         <f>Tâches!B42</f>
@@ -9488,7 +9488,7 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C45" s="16" t="str">
         <f>Tâches!B43</f>
@@ -9528,7 +9528,7 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C46" s="16" t="str">
         <f>Tâches!B44</f>
@@ -9568,7 +9568,7 @@
         <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C47" s="16" t="str">
         <f>Tâches!B45</f>
@@ -9608,7 +9608,7 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C48" s="16" t="str">
         <f>Tâches!B46</f>
@@ -9648,7 +9648,7 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C49" s="16" t="str">
         <f>Tâches!B47</f>
@@ -9688,7 +9688,7 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C50" s="16" t="str">
         <f>Tâches!B48</f>
@@ -9728,7 +9728,7 @@
         <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C51" s="16" t="str">
         <f>Tâches!B49</f>
@@ -9768,7 +9768,7 @@
         <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C52" s="16" t="str">
         <f>Tâches!B50</f>
@@ -9808,7 +9808,7 @@
         <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C53" s="16" t="str">
         <f>Tâches!B51</f>
@@ -9848,7 +9848,7 @@
         <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C54" s="16" t="str">
         <f>Tâches!B52</f>
@@ -9888,7 +9888,7 @@
         <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C55" s="16" t="str">
         <f>Tâches!B53</f>
@@ -9928,7 +9928,7 @@
         <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C56" s="16" t="str">
         <f>Tâches!B54</f>
@@ -9968,7 +9968,7 @@
         <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C57" s="16" t="str">
         <f>Tâches!B55</f>
@@ -10008,7 +10008,7 @@
         <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C58" s="16" t="str">
         <f>Tâches!B56</f>
@@ -10048,7 +10048,7 @@
         <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C59" s="16" t="str">
         <f>Tâches!B57</f>
@@ -10088,7 +10088,7 @@
         <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C60" s="16" t="str">
         <f>Tâches!B58</f>
@@ -10128,7 +10128,7 @@
         <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C61" s="16" t="str">
         <f>Tâches!B59</f>
@@ -10168,7 +10168,7 @@
         <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C62" s="16" t="str">
         <f>Tâches!B60</f>
@@ -10208,7 +10208,7 @@
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C63" s="16" t="str">
         <f>Tâches!B61</f>
@@ -10248,7 +10248,7 @@
         <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C64" s="16" t="str">
         <f>Tâches!B62</f>
@@ -10288,7 +10288,7 @@
         <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C65" s="16" t="str">
         <f>Tâches!B63</f>
@@ -10328,7 +10328,7 @@
         <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C66" s="16" t="str">
         <f>Tâches!B64</f>
@@ -10368,7 +10368,7 @@
         <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C67" s="16" t="str">
         <f>Tâches!B65</f>
@@ -10408,7 +10408,7 @@
         <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C68" s="16" t="str">
         <f>Tâches!B66</f>
@@ -10448,7 +10448,7 @@
         <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C69" s="16" t="str">
         <f>Tâches!B67</f>
@@ -10488,7 +10488,7 @@
         <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C70" s="16" t="str">
         <f>Tâches!B68</f>
@@ -10528,7 +10528,7 @@
         <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C71" s="16" t="str">
         <f>Tâches!B69</f>
@@ -10568,7 +10568,7 @@
         <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C72" s="16" t="str">
         <f>Tâches!B70</f>
@@ -10608,7 +10608,7 @@
         <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C73" s="16" t="str">
         <f>Tâches!B71</f>
@@ -10648,7 +10648,7 @@
         <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C74" s="16" t="str">
         <f>Tâches!B72</f>
@@ -10688,7 +10688,7 @@
         <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C75" s="16" t="str">
         <f>Tâches!B73</f>
@@ -10728,7 +10728,7 @@
         <v>69</v>
       </c>
       <c r="B76" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C76" s="16" t="str">
         <f>Tâches!B74</f>
@@ -10768,7 +10768,7 @@
         <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C77" s="16" t="str">
         <f>Tâches!B75</f>
@@ -10808,7 +10808,7 @@
         <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C78" s="16" t="str">
         <f>Tâches!B76</f>
@@ -10848,7 +10848,7 @@
         <v>72</v>
       </c>
       <c r="B79" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C79" s="16" t="str">
         <f>Tâches!B77</f>
@@ -10888,7 +10888,7 @@
         <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C80" s="16" t="str">
         <f>Tâches!B78</f>
@@ -10928,7 +10928,7 @@
         <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C81" s="16" t="str">
         <f>Tâches!B79</f>
@@ -10968,7 +10968,7 @@
         <v>75</v>
       </c>
       <c r="B82" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C82" s="16" t="str">
         <f>Tâches!B80</f>
@@ -11008,7 +11008,7 @@
         <v>76</v>
       </c>
       <c r="B83" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C83" s="16" t="str">
         <f>Tâches!B81</f>
@@ -11048,7 +11048,7 @@
         <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C84" s="16" t="str">
         <f>Tâches!B82</f>
@@ -11088,7 +11088,7 @@
         <v>78</v>
       </c>
       <c r="B85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C85" s="16" t="str">
         <f>Tâches!B83</f>
@@ -11128,7 +11128,7 @@
         <v>79</v>
       </c>
       <c r="B86" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C86" s="16" t="str">
         <f>Tâches!B84</f>
@@ -11168,7 +11168,7 @@
         <v>80</v>
       </c>
       <c r="B87" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C87" s="62" t="str">
         <f>Tâches!B85</f>
@@ -11208,11 +11208,11 @@
         <v>81</v>
       </c>
       <c r="B88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C88" s="54" t="str">
         <f>Tâches!B86</f>
-        <v>Définir les facteurs principaux d'utilsation des collecteurs</v>
+        <v>Définir les facteurs principaux d'utilisation des collecteurs</v>
       </c>
       <c r="D88" s="53"/>
       <c r="E88" s="19"/>
@@ -11248,7 +11248,7 @@
         <v>82</v>
       </c>
       <c r="B89" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C89" s="54" t="str">
         <f>Tâches!B87</f>
@@ -11288,7 +11288,7 @@
         <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C90" s="54" t="str">
         <f>Tâches!B88</f>
@@ -11328,7 +11328,7 @@
         <v>84</v>
       </c>
       <c r="B91" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C91" s="54" t="str">
         <f>Tâches!B89</f>
@@ -11368,7 +11368,7 @@
         <v>85</v>
       </c>
       <c r="B92" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C92" s="54" t="str">
         <f>Tâches!B90</f>
@@ -11408,7 +11408,7 @@
         <v>86</v>
       </c>
       <c r="B93" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C93" s="54" t="str">
         <f>Tâches!B91</f>
@@ -11448,7 +11448,7 @@
         <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C94" s="54" t="str">
         <f>Tâches!B92</f>
@@ -11488,7 +11488,7 @@
         <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C95" s="54" t="str">
         <f>Tâches!B93</f>
@@ -11528,7 +11528,7 @@
         <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C96" s="54" t="str">
         <f>Tâches!B94</f>
@@ -11568,7 +11568,7 @@
         <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C97" s="63" t="str">
         <f>Tâches!B95</f>
@@ -11608,7 +11608,7 @@
         <v>91</v>
       </c>
       <c r="B98" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C98" s="54" t="str">
         <f>Tâches!B96</f>
@@ -11648,7 +11648,7 @@
         <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C99" s="54" t="str">
         <f>Tâches!B97</f>
@@ -11688,7 +11688,7 @@
         <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C100" s="54" t="str">
         <f>Tâches!B98</f>
@@ -11728,7 +11728,7 @@
         <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C101" s="54" t="str">
         <f>Tâches!B99</f>
@@ -11768,7 +11768,7 @@
         <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C102" s="54" t="str">
         <f>Tâches!B100</f>
@@ -11808,7 +11808,7 @@
         <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C103" s="54" t="str">
         <f>Tâches!B101</f>
@@ -11848,7 +11848,7 @@
         <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C104" s="54" t="str">
         <f>Tâches!B102</f>
@@ -11888,7 +11888,7 @@
         <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C105" s="54" t="str">
         <f>Tâches!B103</f>
@@ -11928,7 +11928,7 @@
         <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C106" s="54" t="str">
         <f>Tâches!B104</f>
@@ -11968,7 +11968,7 @@
         <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C107" s="54" t="str">
         <f>Tâches!B105</f>
@@ -12008,7 +12008,7 @@
         <v>101</v>
       </c>
       <c r="B108" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C108" s="54" t="str">
         <f>Tâches!B106</f>
@@ -12048,7 +12048,7 @@
         <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C109" s="54" t="str">
         <f>Tâches!B107</f>
@@ -12088,7 +12088,7 @@
         <v>103</v>
       </c>
       <c r="B110" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C110" s="54" t="str">
         <f>Tâches!B108</f>
@@ -12128,7 +12128,7 @@
         <v>104</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C111" s="55" t="str">
         <f>Tâches!B109</f>
@@ -12179,422 +12179,422 @@
     <mergeCell ref="Y3:AD3"/>
   </mergeCells>
   <conditionalFormatting sqref="B30:B36 B71:B72">
-    <cfRule type="cellIs" dxfId="131" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="133" operator="equal">
       <formula>"Programmation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="134" operator="equal">
       <formula>"Recherche"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="135" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="136" operator="equal">
       <formula>"Débogage"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="137" operator="equal">
       <formula>"Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="138" operator="equal">
       <formula>"Technique"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="139" operator="equal">
       <formula>"Web"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="141" operator="equal">
       <formula>"Gestion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="142" operator="equal">
       <formula>"Rédaction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="143" operator="equal">
       <formula>"Base de données"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="144" operator="equal">
       <formula>"Modélisation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B27">
-    <cfRule type="cellIs" dxfId="120" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="122" operator="equal">
       <formula>"Programmation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="123" operator="equal">
       <formula>"Recherche"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="124" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="125" operator="equal">
       <formula>"Débogage"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="126" operator="equal">
       <formula>"Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="127" operator="equal">
       <formula>"Technique"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="128" operator="equal">
       <formula>"Web"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="129" operator="equal">
       <formula>"Gestion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="130" operator="equal">
       <formula>"Rédaction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="131" operator="equal">
       <formula>"Base de données"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="132" operator="equal">
       <formula>"Modélisation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="cellIs" dxfId="109" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="111" operator="equal">
       <formula>"Programmation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="112" operator="equal">
       <formula>"Recherche"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="113" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="114" operator="equal">
       <formula>"Débogage"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="115" operator="equal">
       <formula>"Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="116" operator="equal">
       <formula>"Technique"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="117" operator="equal">
       <formula>"Web"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="118" operator="equal">
       <formula>"Gestion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="119" operator="equal">
       <formula>"Rédaction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="120" operator="equal">
       <formula>"Base de données"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="121" operator="equal">
       <formula>"Modélisation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:B51">
-    <cfRule type="cellIs" dxfId="98" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="89" operator="equal">
       <formula>"Programmation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="90" operator="equal">
       <formula>"Recherche"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="91" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="92" operator="equal">
       <formula>"Débogage"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="93" operator="equal">
       <formula>"Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="94" operator="equal">
       <formula>"Technique"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="95" operator="equal">
       <formula>"Web"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="96" operator="equal">
       <formula>"Gestion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="97" operator="equal">
       <formula>"Rédaction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="98" operator="equal">
       <formula>"Base de données"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="99" operator="equal">
       <formula>"Modélisation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B55">
-    <cfRule type="cellIs" dxfId="87" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="78" operator="equal">
       <formula>"Programmation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="79" operator="equal">
       <formula>"Recherche"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="80" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="81" operator="equal">
       <formula>"Débogage"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="82" operator="equal">
       <formula>"Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="83" operator="equal">
       <formula>"Technique"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="84" operator="equal">
       <formula>"Web"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="85" operator="equal">
       <formula>"Gestion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="86" operator="equal">
       <formula>"Rédaction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="87" operator="equal">
       <formula>"Base de données"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="88" operator="equal">
       <formula>"Modélisation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:B70">
-    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="67" operator="equal">
       <formula>"Programmation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="68" operator="equal">
       <formula>"Recherche"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="69" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="70" operator="equal">
       <formula>"Débogage"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="71" operator="equal">
       <formula>"Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="72" operator="equal">
       <formula>"Technique"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="73" operator="equal">
       <formula>"Web"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="74" operator="equal">
       <formula>"Gestion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="75" operator="equal">
       <formula>"Rédaction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="76" operator="equal">
       <formula>"Base de données"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="77" operator="equal">
       <formula>"Modélisation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B86">
-    <cfRule type="cellIs" dxfId="65" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="56" operator="equal">
       <formula>"Programmation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="57" operator="equal">
       <formula>"Recherche"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="58" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="59" operator="equal">
       <formula>"Débogage"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="60" operator="equal">
       <formula>"Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="61" operator="equal">
       <formula>"Technique"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="62" operator="equal">
       <formula>"Web"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="63" operator="equal">
       <formula>"Gestion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="64" operator="equal">
       <formula>"Rédaction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="65" operator="equal">
       <formula>"Base de données"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="66" operator="equal">
       <formula>"Modélisation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="cellIs" dxfId="54" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="45" operator="equal">
       <formula>"Programmation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="46" operator="equal">
       <formula>"Recherche"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="47" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="48" operator="equal">
       <formula>"Débogage"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="49" operator="equal">
       <formula>"Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="50" operator="equal">
       <formula>"Technique"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="51" operator="equal">
       <formula>"Web"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="52" operator="equal">
       <formula>"Gestion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="53" operator="equal">
       <formula>"Rédaction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="54" operator="equal">
       <formula>"Base de données"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="55" operator="equal">
       <formula>"Modélisation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B98">
-    <cfRule type="cellIs" dxfId="43" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="34" operator="equal">
       <formula>"Programmation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="35" operator="equal">
       <formula>"Recherche"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="36" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="37" operator="equal">
       <formula>"Débogage"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="38" operator="equal">
       <formula>"Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="39" operator="equal">
       <formula>"Technique"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="40" operator="equal">
       <formula>"Web"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="41" operator="equal">
       <formula>"Gestion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="42" operator="equal">
       <formula>"Rédaction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="43" operator="equal">
       <formula>"Base de données"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="44" operator="equal">
       <formula>"Modélisation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B111">
-    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="23" operator="equal">
       <formula>"Programmation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="24" operator="equal">
       <formula>"Recherche"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="25" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="26" operator="equal">
       <formula>"Débogage"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="27" operator="equal">
       <formula>"Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="28" operator="equal">
       <formula>"Technique"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="29" operator="equal">
       <formula>"Web"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="30" operator="equal">
       <formula>"Gestion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="31" operator="equal">
       <formula>"Rédaction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="32" operator="equal">
       <formula>"Base de données"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="33" operator="equal">
       <formula>"Modélisation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="12" operator="equal">
       <formula>"Programmation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="13" operator="equal">
       <formula>"Recherche"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="14" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="15" operator="equal">
       <formula>"Débogage"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="16" operator="equal">
       <formula>"Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="17" operator="equal">
       <formula>"Technique"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="18" operator="equal">
       <formula>"Web"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="19" operator="equal">
       <formula>"Gestion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="20" operator="equal">
       <formula>"Rédaction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="21" operator="equal">
       <formula>"Base de données"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="22" operator="equal">
       <formula>"Modélisation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
       <formula>"Programmation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
       <formula>"Recherche"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
       <formula>"Débogage"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="5" operator="equal">
       <formula>"Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
       <formula>"Technique"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
       <formula>"Web"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="8" operator="equal">
       <formula>"Gestion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="9" operator="equal">
       <formula>"Rédaction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="10" operator="equal">
       <formula>"Base de données"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="11" operator="equal">
       <formula>"Modélisation"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12612,7 +12612,7 @@
   <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12629,28 +12629,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
-        <v>304</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="A1" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
+      <c r="A2" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
@@ -12660,19 +12660,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>305</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="E3" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="F3" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="G3" s="45" t="s">
         <v>308</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>309</v>
       </c>
       <c r="H3" s="46" t="s">
         <v>43</v>
@@ -13467,14 +13467,12 @@
         <v>2</v>
       </c>
       <c r="D33" s="13">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="47">
         <f>IFERROR(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]/(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]+AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]]), 0)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G33" s="13">
         <f>IF(AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]&lt;&gt;"",AvancementPrincipal[[#This Row],[Durée estimée (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps consacré (jours-hommes)]]-AvancementPrincipal[[#This Row],[Temps restant (jours-hommes)]],"")</f>
@@ -13537,16 +13535,16 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
+      <c r="A36" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
@@ -13556,19 +13554,19 @@
         <v>1</v>
       </c>
       <c r="C37" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D37" s="45" t="s">
         <v>305</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="E37" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="F37" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="G37" s="45" t="s">
         <v>308</v>
-      </c>
-      <c r="G37" s="45" t="s">
-        <v>309</v>
       </c>
       <c r="H37" s="46" t="s">
         <v>43</v>
@@ -14801,7 +14799,7 @@
       </c>
       <c r="B86" s="7" t="str">
         <f>TachesBonus[[#This Row],[Tâche]]</f>
-        <v>Définir les facteurs principaux d'utilsation des collecteurs</v>
+        <v>Définir les facteurs principaux d'utilisation des collecteurs</v>
       </c>
       <c r="C86" s="13">
         <f>TachesBonus[[#This Row],[Travail (en jours-hommes)]]</f>
